--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -57,6 +57,558 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/47fa7de74af7</t>
+  </si>
+  <si>
+    <t>SSS儿歌及配套合集</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f0a378f45f0b</t>
+  </si>
+  <si>
+    <t>监狱风云</t>
+  </si>
+  <si>
+    <t>剧集,美剧,监狱风云</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/98da7aed43e2</t>
+  </si>
+  <si>
+    <t>传奇办公室</t>
+  </si>
+  <si>
+    <t>剧集,美剧,传奇办公室</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c9e9cf4ef725</t>
+  </si>
+  <si>
+    <t>大西洋帝国</t>
+  </si>
+  <si>
+    <t>剧集,美剧,大西洋帝国</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2b6ec19ca1ef</t>
+  </si>
+  <si>
+    <t>飞天大盗</t>
+  </si>
+  <si>
+    <t>剧集,美剧,飞天大盗</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a32ba31162a1</t>
+  </si>
+  <si>
+    <t>国土安全</t>
+  </si>
+  <si>
+    <t>剧集,美剧,国土安全</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cae446202571</t>
+  </si>
+  <si>
+    <t>黄石</t>
+  </si>
+  <si>
+    <t>剧集,美剧,黄石</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fcb925340306</t>
+  </si>
+  <si>
+    <t>火线 The Wire 1-5季全集 中英双字</t>
+  </si>
+  <si>
+    <t>剧集,美剧,火线</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ef3d7bea1b0f</t>
+  </si>
+  <si>
+    <t>绝命毒师 1-5季全集+电影</t>
+  </si>
+  <si>
+    <t>剧集,美剧,绝命毒师</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7af9af1faaf3</t>
+  </si>
+  <si>
+    <t>良医</t>
+  </si>
+  <si>
+    <t>剧集,美剧,良医</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91b146f2bc7f</t>
+  </si>
+  <si>
+    <t>老友记 S01-S10（1994-2003）1080P蓝光 内封简英特效字幕</t>
+  </si>
+  <si>
+    <t>剧集,美剧,老友记</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/64ac023a320d</t>
+  </si>
+  <si>
+    <t>权利的游戏系列</t>
+  </si>
+  <si>
+    <t>剧集,美剧,权利的游戏</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4ddac80bdb51</t>
+  </si>
+  <si>
+    <t>斯巴达克斯 全4季 未删减版</t>
+  </si>
+  <si>
+    <t>剧集,美剧,斯巴达克斯</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/da6168e6a62c</t>
+  </si>
+  <si>
+    <t>生活大爆炸</t>
+  </si>
+  <si>
+    <t>剧集,美剧,生活大爆炸</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e28b54f51959</t>
+  </si>
+  <si>
+    <t>唐顿庄园 1-6季</t>
+  </si>
+  <si>
+    <t>剧集,美剧,唐顿庄园</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/845a7fda1f52</t>
+  </si>
+  <si>
+    <t>无耻之徒 全1-11季</t>
+  </si>
+  <si>
+    <t>剧集,美剧,无耻之徒</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/84039429fbe2</t>
+  </si>
+  <si>
+    <t>兄弟连 (2001) 1080P 蓝光 国英音轨 特效字幕</t>
+  </si>
+  <si>
+    <t>剧集,美剧,兄弟连</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eb0018f17d2c</t>
+  </si>
+  <si>
+    <t>行尸走肉 11季全+2部番外无删减 1080P</t>
+  </si>
+  <si>
+    <t>剧集,美剧,行尸走肉</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/141068ddd275</t>
+  </si>
+  <si>
+    <t>浴血黑帮</t>
+  </si>
+  <si>
+    <t>剧集,美剧,浴血黑帮</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e42ee1fa3786</t>
+  </si>
+  <si>
+    <t>越狱</t>
+  </si>
+  <si>
+    <t>剧集,美剧,越狱</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b389c835fba5</t>
+  </si>
+  <si>
+    <t>纸牌屋 (1-6季) 豆瓣9.3分</t>
+  </si>
+  <si>
+    <t>剧集,美剧,纸牌屋</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b23c1ee89e81</t>
+  </si>
+  <si>
+    <t>《风骚律师》1-6季 4K 全集 内嵌简英字幕</t>
+  </si>
+  <si>
+    <t>剧集,美剧,风骚律师</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/60666ee04fe1</t>
+  </si>
+  <si>
+    <t>《破产姐妹》1-6季全 4K超清无删减</t>
+  </si>
+  <si>
+    <t>剧集,美剧,破产姐妹</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a8880143dee</t>
+  </si>
+  <si>
+    <t>【美剧】黑吃黑.全4季.中英双字.1080P</t>
+  </si>
+  <si>
+    <t>剧集,美剧,黑吃黑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b03f39790294</t>
+  </si>
+  <si>
+    <t>黑钱胜地</t>
+  </si>
+  <si>
+    <t>剧集,美剧,黑钱胜地</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/00f31baf0b52</t>
+  </si>
+  <si>
+    <t>熊家餐厅</t>
+  </si>
+  <si>
+    <t>剧集,美剧,熊家餐厅</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2d8fe11a64f6</t>
+  </si>
+  <si>
+    <t>黑袍纠察队</t>
+  </si>
+  <si>
+    <t>剧集,美剧,黑袍纠察队</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ac9dbacc3a8a</t>
+  </si>
+  <si>
+    <t>请回答1988 4K</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,请回答1988</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1c26d1bceb53</t>
+  </si>
+  <si>
+    <t>我的大叔</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,我的大叔</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aa1b07232473</t>
+  </si>
+  <si>
+    <t>秘密森林 1-2季</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,秘密森林</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4f593f8ecb99</t>
+  </si>
+  <si>
+    <t>信号（2016）全16集</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,信号</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ae72792dfbe0</t>
+  </si>
+  <si>
+    <t>机智医生生活</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,机智医生生活</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/215166a7f55d</t>
+  </si>
+  <si>
+    <t>浪漫的体质</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,浪漫的体质</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/66c18b025584</t>
+  </si>
+  <si>
+    <t>棒球大联盟</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,棒球大联盟</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5c494118590a</t>
+  </si>
+  <si>
+    <t>搞笑一家人</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,搞笑一家人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d698cdcde69e</t>
+  </si>
+  <si>
+    <t>第五共和国</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,第五共和国</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/114f841f4acf</t>
+  </si>
+  <si>
+    <t>顺风妇产科</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,顺风妇产科</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9d1c3ff0b45b</t>
+  </si>
+  <si>
+    <t>模范出租车</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,模范出租车</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c927c73b9c3d</t>
+  </si>
+  <si>
+    <t>背着善宰跑</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,背着善宰跑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c9e6ea1c5a78</t>
+  </si>
+  <si>
+    <t>超异能族</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,超异能族</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4f5448bae0bc</t>
+  </si>
+  <si>
+    <t>好久没做</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,好久没做</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/662c139bb03e</t>
+  </si>
+  <si>
+    <t>我的出走日记</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,我的出走日记</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b28353c9de59</t>
+  </si>
+  <si>
+    <t>飞出个未来[1-13季+大电影合集][ 动漫 喜剧]</t>
+  </si>
+  <si>
+    <t>动漫,飞出个未来</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3e71231c34e8</t>
+  </si>
+  <si>
+    <t>怪诞小镇 1-2季全集 特别篇 中英双字</t>
+  </si>
+  <si>
+    <t>动漫,怪诞小镇</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ea6aa5d35d21</t>
+  </si>
+  <si>
+    <t>怪诞小镇.1-2季全合集+番外+特辑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/87cfb16d0ad5</t>
+  </si>
+  <si>
+    <t>幻灭 全五季</t>
+  </si>
+  <si>
+    <t>动漫,幻灭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/905326fb51ce</t>
+  </si>
+  <si>
+    <t>猫头鹰魔法社 S1-S3 合集</t>
+  </si>
+  <si>
+    <t>动漫,猫头鹰魔法社</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5be9090d10a5</t>
+  </si>
+  <si>
+    <t>探险活宝S1-S10 十季</t>
+  </si>
+  <si>
+    <t>动漫,探险活宝</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c776f07d4c71</t>
+  </si>
+  <si>
+    <t>外星也难民 1-6季 1080P</t>
+  </si>
+  <si>
+    <t>动漫,外星也难民</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91ce7f35bfe9</t>
+  </si>
+  <si>
+    <t>希尔达（1-3季全+剧场版）Hilda</t>
+  </si>
+  <si>
+    <t>动漫,希尔达</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bc18ef0da559</t>
+  </si>
+  <si>
+    <t>《海底小纵队》(1-9季) [趣学英语][117G]</t>
+  </si>
+  <si>
+    <t>动漫,海底小纵队</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5763243263de</t>
+  </si>
+  <si>
+    <t>【恶搞之家】S1-S22季 1080P 中英字幕未删减收藏版</t>
+  </si>
+  <si>
+    <t>动漫,恶搞之家</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e44fa038ef9e</t>
+  </si>
+  <si>
+    <t>《小马宝莉》(1-9季) [经典儿童动画故事]</t>
+  </si>
+  <si>
+    <t>动漫,小马宝莉</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/63da9a407f26</t>
+  </si>
+  <si>
+    <t>马男波杰克</t>
+  </si>
+  <si>
+    <t>动漫,马男波杰克</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/017511f52017</t>
+  </si>
+  <si>
+    <t>拽妹儿</t>
+  </si>
+  <si>
+    <t>动漫,拽妹儿</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a0b7918bf26b</t>
+  </si>
+  <si>
+    <t>尼克频道英语启蒙动画《喧闹一家亲 The Loud use (1-4季) 》</t>
+  </si>
+  <si>
+    <t>动漫,喧闹一家亲</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4849b8d2115</t>
+  </si>
+  <si>
+    <t>奇幻沼泽</t>
+  </si>
+  <si>
+    <t>动漫,奇幻沼泽</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f3bcdb716267</t>
+  </si>
+  <si>
+    <t>亲子情境英语学习资料包 (视频+音频+图片)</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/07acc9b06384</t>
+  </si>
+  <si>
+    <t>离婚吧！赶紧的</t>
+  </si>
+  <si>
+    <t>从优质生活到巴士乡村生活</t>
+  </si>
+  <si>
+    <t>综艺,真人秀</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/68678b493510</t>
+  </si>
+  <si>
+    <t>选美皇后遇见乡村皇后</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/807cd82a720d</t>
+  </si>
+  <si>
+    <t>50个陌生人互相滑动</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75463a265bfd</t>
+  </si>
+  <si>
+    <t>简历模板个性模板40个</t>
+  </si>
+  <si>
+    <t>简历模板</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5fd8a6e8c830</t>
+  </si>
+  <si>
+    <t>简历模板表格模板50个</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4fee740d83c1</t>
   </si>
 </sst>
 </file>
@@ -86,16 +638,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -542,28 +1094,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,7 +1239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,12 +1248,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1025,16 +1571,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.9166666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="33.0833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1062,7 +1608,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1070,20 +1616,980 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="28" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="42" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="28" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" ht="28" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" ht="28" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" ht="28" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" ht="28" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" ht="28" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" ht="28" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" ht="28" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" ht="42" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" ht="28" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" ht="42" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" ht="28" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" ht="28" spans="1:4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://pan.quark.cn/s/4f768ffb7eee"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://pan.quark.cn/s/4f768ffb7eee" tooltip="https://pan.quark.cn/s/4f768ffb7eee"/>
     <hyperlink ref="D3" r:id="rId2" display="https://pan.quark.cn/s/47fa7de74af7" tooltip="https://pan.quark.cn/s/47fa7de74af7"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://pan.quark.cn/s/f0a378f45f0b" tooltip="https://pan.quark.cn/s/f0a378f45f0b"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://pan.quark.cn/s/98da7aed43e2" tooltip="https://pan.quark.cn/s/98da7aed43e2"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://pan.quark.cn/s/c9e9cf4ef725" tooltip="https://pan.quark.cn/s/c9e9cf4ef725"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://pan.quark.cn/s/2b6ec19ca1ef" tooltip="https://pan.quark.cn/s/2b6ec19ca1ef"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://pan.quark.cn/s/a32ba31162a1" tooltip="https://pan.quark.cn/s/a32ba31162a1"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://pan.quark.cn/s/cae446202571" tooltip="https://pan.quark.cn/s/cae446202571"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://pan.quark.cn/s/fcb925340306" tooltip="https://pan.quark.cn/s/fcb925340306"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://pan.quark.cn/s/ef3d7bea1b0f" tooltip="https://pan.quark.cn/s/ef3d7bea1b0f"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://pan.quark.cn/s/7af9af1faaf3" tooltip="https://pan.quark.cn/s/7af9af1faaf3"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://pan.quark.cn/s/91b146f2bc7f" tooltip="https://pan.quark.cn/s/91b146f2bc7f"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://pan.quark.cn/s/64ac023a320d" tooltip="https://pan.quark.cn/s/64ac023a320d"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://pan.quark.cn/s/4ddac80bdb51" tooltip="https://pan.quark.cn/s/4ddac80bdb51"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://pan.quark.cn/s/da6168e6a62c" tooltip="https://pan.quark.cn/s/da6168e6a62c"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://pan.quark.cn/s/e28b54f51959" tooltip="https://pan.quark.cn/s/e28b54f51959"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://pan.quark.cn/s/845a7fda1f52" tooltip="https://pan.quark.cn/s/845a7fda1f52"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://pan.quark.cn/s/84039429fbe2" tooltip="https://pan.quark.cn/s/84039429fbe2"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://pan.quark.cn/s/eb0018f17d2c" tooltip="https://pan.quark.cn/s/eb0018f17d2c"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://pan.quark.cn/s/141068ddd275" tooltip="https://pan.quark.cn/s/141068ddd275"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://pan.quark.cn/s/e42ee1fa3786" tooltip="https://pan.quark.cn/s/e42ee1fa3786"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://pan.quark.cn/s/b389c835fba5" tooltip="https://pan.quark.cn/s/b389c835fba5"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://pan.quark.cn/s/b23c1ee89e81" tooltip="https://pan.quark.cn/s/b23c1ee89e81"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://pan.quark.cn/s/60666ee04fe1" tooltip="https://pan.quark.cn/s/60666ee04fe1"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://pan.quark.cn/s/6a8880143dee" tooltip="https://pan.quark.cn/s/6a8880143dee"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://pan.quark.cn/s/b03f39790294" tooltip="https://pan.quark.cn/s/b03f39790294"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://pan.quark.cn/s/00f31baf0b52" tooltip="https://pan.quark.cn/s/00f31baf0b52"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://pan.quark.cn/s/2d8fe11a64f6" tooltip="https://pan.quark.cn/s/2d8fe11a64f6"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://pan.quark.cn/s/ac9dbacc3a8a" tooltip="https://pan.quark.cn/s/ac9dbacc3a8a"/>
+    <hyperlink ref="D31" r:id="rId30" display="https://pan.quark.cn/s/1c26d1bceb53" tooltip="https://pan.quark.cn/s/1c26d1bceb53"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://pan.quark.cn/s/aa1b07232473" tooltip="https://pan.quark.cn/s/aa1b07232473"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://pan.quark.cn/s/4f593f8ecb99" tooltip="https://pan.quark.cn/s/4f593f8ecb99"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://pan.quark.cn/s/ae72792dfbe0" tooltip="https://pan.quark.cn/s/ae72792dfbe0"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://pan.quark.cn/s/215166a7f55d" tooltip="https://pan.quark.cn/s/215166a7f55d"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://pan.quark.cn/s/66c18b025584" tooltip="https://pan.quark.cn/s/66c18b025584"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://pan.quark.cn/s/5c494118590a" tooltip="https://pan.quark.cn/s/5c494118590a"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://pan.quark.cn/s/d698cdcde69e" tooltip="https://pan.quark.cn/s/d698cdcde69e"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://pan.quark.cn/s/114f841f4acf" tooltip="https://pan.quark.cn/s/114f841f4acf"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://pan.quark.cn/s/9d1c3ff0b45b" tooltip="https://pan.quark.cn/s/9d1c3ff0b45b"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://pan.quark.cn/s/c927c73b9c3d" tooltip="https://pan.quark.cn/s/c927c73b9c3d"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://pan.quark.cn/s/c9e6ea1c5a78" tooltip="https://pan.quark.cn/s/c9e6ea1c5a78"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://pan.quark.cn/s/4f5448bae0bc" tooltip="https://pan.quark.cn/s/4f5448bae0bc"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://pan.quark.cn/s/662c139bb03e" tooltip="https://pan.quark.cn/s/662c139bb03e"/>
+    <hyperlink ref="D45" r:id="rId44" display="https://pan.quark.cn/s/b28353c9de59" tooltip="https://pan.quark.cn/s/b28353c9de59"/>
+    <hyperlink ref="D46" r:id="rId45" display="https://pan.quark.cn/s/3e71231c34e8" tooltip="https://pan.quark.cn/s/3e71231c34e8"/>
+    <hyperlink ref="D47" r:id="rId46" display="https://pan.quark.cn/s/ea6aa5d35d21" tooltip="https://pan.quark.cn/s/ea6aa5d35d21"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://pan.quark.cn/s/87cfb16d0ad5" tooltip="https://pan.quark.cn/s/87cfb16d0ad5"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://pan.quark.cn/s/905326fb51ce" tooltip="https://pan.quark.cn/s/905326fb51ce"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://pan.quark.cn/s/5be9090d10a5" tooltip="https://pan.quark.cn/s/5be9090d10a5"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://pan.quark.cn/s/c776f07d4c71" tooltip="https://pan.quark.cn/s/c776f07d4c71"/>
+    <hyperlink ref="D52" r:id="rId51" display="https://pan.quark.cn/s/91ce7f35bfe9" tooltip="https://pan.quark.cn/s/91ce7f35bfe9"/>
+    <hyperlink ref="D53" r:id="rId52" display="https://pan.quark.cn/s/bc18ef0da559" tooltip="https://pan.quark.cn/s/bc18ef0da559"/>
+    <hyperlink ref="D54" r:id="rId53" display="https://pan.quark.cn/s/5763243263de" tooltip="https://pan.quark.cn/s/5763243263de"/>
+    <hyperlink ref="D55" r:id="rId54" display="https://pan.quark.cn/s/e44fa038ef9e" tooltip="https://pan.quark.cn/s/e44fa038ef9e"/>
+    <hyperlink ref="D56" r:id="rId55" display="https://pan.quark.cn/s/63da9a407f26" tooltip="https://pan.quark.cn/s/63da9a407f26"/>
+    <hyperlink ref="D57" r:id="rId56" display="https://pan.quark.cn/s/017511f52017" tooltip="https://pan.quark.cn/s/017511f52017"/>
+    <hyperlink ref="D58" r:id="rId57" display="https://pan.quark.cn/s/a0b7918bf26b" tooltip="https://pan.quark.cn/s/a0b7918bf26b"/>
+    <hyperlink ref="D59" r:id="rId58" display="https://pan.quark.cn/s/e4849b8d2115" tooltip="https://pan.quark.cn/s/e4849b8d2115"/>
+    <hyperlink ref="D60" r:id="rId59" display="https://pan.quark.cn/s/f3bcdb716267" tooltip="https://pan.quark.cn/s/f3bcdb716267"/>
+    <hyperlink ref="D61" r:id="rId60" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
+    <hyperlink ref="D62" r:id="rId60" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
+    <hyperlink ref="D63" r:id="rId61" display="https://pan.quark.cn/s/68678b493510" tooltip="https://pan.quark.cn/s/68678b493510"/>
+    <hyperlink ref="D64" r:id="rId62" display="https://pan.quark.cn/s/807cd82a720d" tooltip="https://pan.quark.cn/s/807cd82a720d"/>
+    <hyperlink ref="D65" r:id="rId63" display="https://pan.quark.cn/s/75463a265bfd" tooltip="https://pan.quark.cn/s/75463a265bfd"/>
+    <hyperlink ref="D66" r:id="rId64" display="https://pan.quark.cn/s/5fd8a6e8c830" tooltip="https://pan.quark.cn/s/5fd8a6e8c830"/>
+    <hyperlink ref="D67" r:id="rId65" display="https://pan.quark.cn/s/4fee740d83c1" tooltip="https://pan.quark.cn/s/4fee740d83c1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/4fee740d83c1</t>
+  </si>
+  <si>
+    <t>简历模板各专业简历67个</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f367685cfefc</t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1577,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2520,6 +2526,20 @@
       </c>
       <c r="D67" s="3" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2590,6 +2610,7 @@
     <hyperlink ref="D65" r:id="rId63" display="https://pan.quark.cn/s/75463a265bfd" tooltip="https://pan.quark.cn/s/75463a265bfd"/>
     <hyperlink ref="D66" r:id="rId64" display="https://pan.quark.cn/s/5fd8a6e8c830" tooltip="https://pan.quark.cn/s/5fd8a6e8c830"/>
     <hyperlink ref="D67" r:id="rId65" display="https://pan.quark.cn/s/4fee740d83c1" tooltip="https://pan.quark.cn/s/4fee740d83c1"/>
+    <hyperlink ref="D68" r:id="rId66" display="https://pan.quark.cn/s/f367685cfefc" tooltip="https://pan.quark.cn/s/f367685cfefc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -609,12 +609,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/4fee740d83c1</t>
-  </si>
-  <si>
-    <t>简历模板各专业简历67个</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f367685cfefc</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1574,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2528,19 +2522,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>195</v>
-      </c>
+    <row r="68" spans="2:4">
+      <c r="B68" s="3"/>
+      <c r="C68"/>
+      <c r="D68" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2610,7 +2595,6 @@
     <hyperlink ref="D65" r:id="rId63" display="https://pan.quark.cn/s/75463a265bfd" tooltip="https://pan.quark.cn/s/75463a265bfd"/>
     <hyperlink ref="D66" r:id="rId64" display="https://pan.quark.cn/s/5fd8a6e8c830" tooltip="https://pan.quark.cn/s/5fd8a6e8c830"/>
     <hyperlink ref="D67" r:id="rId65" display="https://pan.quark.cn/s/4fee740d83c1" tooltip="https://pan.quark.cn/s/4fee740d83c1"/>
-    <hyperlink ref="D68" r:id="rId66" display="https://pan.quark.cn/s/f367685cfefc" tooltip="https://pan.quark.cn/s/f367685cfefc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/4fee740d83c1</t>
+  </si>
+  <si>
+    <t>简历模板各专业简历67个</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f367685cfefc</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1580,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="A68" sqref="A68:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2522,10 +2528,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="3"/>
-      <c r="C68"/>
-      <c r="D68" s="3"/>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -609,12 +609,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/4fee740d83c1</t>
-  </si>
-  <si>
-    <t>简历模板各专业简历67个</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f367685cfefc</t>
   </si>
 </sst>
 </file>
@@ -2528,19 +2522,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>195</v>
-      </c>
+    <row r="68" spans="2:4">
+      <c r="B68" s="3"/>
+      <c r="C68"/>
+      <c r="D68" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/4fee740d83c1</t>
+  </si>
+  <si>
+    <t>简历模板各专业简历67个</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f367685cfefc</t>
   </si>
 </sst>
 </file>
@@ -2522,10 +2528,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="3"/>
-      <c r="C68"/>
-      <c r="D68" s="3"/>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -615,6 +615,57 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/f367685cfefc</t>
+  </si>
+  <si>
+    <t>好一个乖乖女</t>
+  </si>
+  <si>
+    <t>短剧</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0da2e70e236f</t>
+  </si>
+  <si>
+    <t>玫瑰冠冕</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/72fad0d6fd78</t>
+  </si>
+  <si>
+    <t>家里家外</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b08d1d32782d</t>
+  </si>
+  <si>
+    <t>深情诱引</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/54ae4c79b6ef</t>
+  </si>
+  <si>
+    <t>我在八零年代当后妈</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1e91ab28d0c</t>
+  </si>
+  <si>
+    <t>步步为营</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e9a0505d423a</t>
+  </si>
+  <si>
+    <t>声色犬马</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6fa3ba822a52</t>
+  </si>
+  <si>
+    <t>请君入瓮</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/32466a4d8102</t>
   </si>
 </sst>
 </file>
@@ -627,7 +678,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,13 +688,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1100,152 +1144,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1254,6 +1298,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1577,10 +1624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:D68"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2540,6 +2587,118 @@
       </c>
       <c r="D68" s="3" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2610,6 +2769,14 @@
     <hyperlink ref="D65" r:id="rId63" display="https://pan.quark.cn/s/75463a265bfd" tooltip="https://pan.quark.cn/s/75463a265bfd"/>
     <hyperlink ref="D66" r:id="rId64" display="https://pan.quark.cn/s/5fd8a6e8c830" tooltip="https://pan.quark.cn/s/5fd8a6e8c830"/>
     <hyperlink ref="D67" r:id="rId65" display="https://pan.quark.cn/s/4fee740d83c1" tooltip="https://pan.quark.cn/s/4fee740d83c1"/>
+    <hyperlink ref="D69" r:id="rId66" display="https://pan.quark.cn/s/0da2e70e236f" tooltip="https://pan.quark.cn/s/0da2e70e236f"/>
+    <hyperlink ref="D70" r:id="rId67" display="https://pan.quark.cn/s/72fad0d6fd78" tooltip="https://pan.quark.cn/s/72fad0d6fd78"/>
+    <hyperlink ref="D71" r:id="rId68" display="https://pan.quark.cn/s/b08d1d32782d" tooltip="https://pan.quark.cn/s/b08d1d32782d"/>
+    <hyperlink ref="D72" r:id="rId69" display="https://pan.quark.cn/s/54ae4c79b6ef" tooltip="https://pan.quark.cn/s/54ae4c79b6ef"/>
+    <hyperlink ref="D73" r:id="rId70" display="https://pan.quark.cn/s/e1e91ab28d0c" tooltip="https://pan.quark.cn/s/e1e91ab28d0c"/>
+    <hyperlink ref="D74" r:id="rId71" display="https://pan.quark.cn/s/e9a0505d423a" tooltip="https://pan.quark.cn/s/e9a0505d423a"/>
+    <hyperlink ref="D75" r:id="rId72" display="https://pan.quark.cn/s/6fa3ba822a52" tooltip="https://pan.quark.cn/s/6fa3ba822a52"/>
+    <hyperlink ref="D76" r:id="rId73" display="https://pan.quark.cn/s/32466a4d8102" tooltip="https://pan.quark.cn/s/32466a4d8102"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="216">
   <si>
     <t>id</t>
   </si>
@@ -666,6 +666,15 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/32466a4d8102</t>
+  </si>
+  <si>
+    <t>美国往事</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ff5a85744c5d</t>
   </si>
 </sst>
 </file>
@@ -1624,10 +1633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2699,6 +2708,20 @@
       </c>
       <c r="D76" s="4" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2777,6 +2800,7 @@
     <hyperlink ref="D74" r:id="rId71" display="https://pan.quark.cn/s/e9a0505d423a" tooltip="https://pan.quark.cn/s/e9a0505d423a"/>
     <hyperlink ref="D75" r:id="rId72" display="https://pan.quark.cn/s/6fa3ba822a52" tooltip="https://pan.quark.cn/s/6fa3ba822a52"/>
     <hyperlink ref="D76" r:id="rId73" display="https://pan.quark.cn/s/32466a4d8102" tooltip="https://pan.quark.cn/s/32466a4d8102"/>
+    <hyperlink ref="D77" r:id="rId74" display="https://pan.quark.cn/s/ff5a85744c5d" tooltip="https://pan.quark.cn/s/ff5a85744c5d"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -675,6 +675,21 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/ff5a85744c5d</t>
+  </si>
+  <si>
+    <t>穆赫兰跳</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6ccb09286f58</t>
+  </si>
+  <si>
+    <t>盛夏芬德拉</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5b1b6c2a4735</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d7dd74aac65e</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,9 +1322,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1633,10 +1645,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2602,13 +2614,13 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C69" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2616,13 +2628,13 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C70" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2630,13 +2642,13 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C71" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2644,13 +2656,13 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C72" t="s">
         <v>197</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2658,13 +2670,13 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C73" t="s">
         <v>197</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2672,13 +2684,13 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C74" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2686,13 +2698,13 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C75" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2700,13 +2712,13 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C76" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2714,14 +2726,56 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C77" t="s">
         <v>214</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -689,7 +689,13 @@
     <t>https://pan.quark.cn/s/5b1b6c2a4735</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/d7dd74aac65e</t>
+    <t>2025一人一首成名曲-抖音网红歌曲</t>
+  </si>
+  <si>
+    <t>抖音,网红,歌曲</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dc9d400da273</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,6 +1331,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1648,7 +1657,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2769,13 +2778,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -689,7 +689,7 @@
     <t>https://pan.quark.cn/s/5b1b6c2a4735</t>
   </si>
   <si>
-    <t>2025一人一首成名曲-抖音网红歌曲</t>
+    <t>2025抖音网红歌曲</t>
   </si>
   <si>
     <t>抖音,网红,歌曲</t>
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="229">
   <si>
     <t>id</t>
   </si>
@@ -696,6 +696,24 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/dc9d400da273</t>
+  </si>
+  <si>
+    <t>爱尔兰人</t>
+  </si>
+  <si>
+    <t>电影,黑帮电影</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7abdc28d5d78</t>
+  </si>
+  <si>
+    <t>匹兹堡医护前线 The Pitt 第一季</t>
+  </si>
+  <si>
+    <t>剧集,美剧,匹兹堡医护前线</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e7921a23213d</t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2785,6 +2803,34 @@
       </c>
       <c r="D80" s="4" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/e7921a23213d</t>
+  </si>
+  <si>
+    <t>马丁内斯死在惊奇馆剧本杀</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e8091058af8c</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2831,6 +2837,20 @@
       </c>
       <c r="D82" s="1" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
   <si>
     <t>id</t>
   </si>
@@ -41,540 +41,534 @@
     <t>share_link</t>
   </si>
   <si>
-    <t>剧本杀剧本100套</t>
+    <t>《女王带你唱读Raz》(340集) [幼儿分级英语启蒙动画]</t>
+  </si>
+  <si>
+    <t>启蒙英语</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/47fa7de74af7</t>
+  </si>
+  <si>
+    <t>SSS儿歌及配套合集</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f0a378f45f0b</t>
+  </si>
+  <si>
+    <t>监狱风云</t>
+  </si>
+  <si>
+    <t>剧集,美剧,监狱风云</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/98da7aed43e2</t>
+  </si>
+  <si>
+    <t>传奇办公室</t>
+  </si>
+  <si>
+    <t>剧集,美剧,传奇办公室</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c9e9cf4ef725</t>
+  </si>
+  <si>
+    <t>大西洋帝国</t>
+  </si>
+  <si>
+    <t>剧集,美剧,大西洋帝国</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2b6ec19ca1ef</t>
+  </si>
+  <si>
+    <t>飞天大盗</t>
+  </si>
+  <si>
+    <t>剧集,美剧,飞天大盗</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a32ba31162a1</t>
+  </si>
+  <si>
+    <t>国土安全</t>
+  </si>
+  <si>
+    <t>剧集,美剧,国土安全</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cae446202571</t>
+  </si>
+  <si>
+    <t>黄石</t>
+  </si>
+  <si>
+    <t>剧集,美剧,黄石</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fcb925340306</t>
+  </si>
+  <si>
+    <t>火线 The Wire 1-5季全集 中英双字</t>
+  </si>
+  <si>
+    <t>剧集,美剧,火线</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ef3d7bea1b0f</t>
+  </si>
+  <si>
+    <t>绝命毒师 1-5季全集+电影</t>
+  </si>
+  <si>
+    <t>剧集,美剧,绝命毒师</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7af9af1faaf3</t>
+  </si>
+  <si>
+    <t>良医</t>
+  </si>
+  <si>
+    <t>剧集,美剧,良医</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91b146f2bc7f</t>
+  </si>
+  <si>
+    <t>老友记 S01-S10（1994-2003）1080P蓝光 内封简英特效字幕</t>
+  </si>
+  <si>
+    <t>剧集,美剧,老友记</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/64ac023a320d</t>
+  </si>
+  <si>
+    <t>权利的游戏系列</t>
+  </si>
+  <si>
+    <t>剧集,美剧,权利的游戏</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4ddac80bdb51</t>
+  </si>
+  <si>
+    <t>斯巴达克斯 全4季 未删减版</t>
+  </si>
+  <si>
+    <t>剧集,美剧,斯巴达克斯</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/da6168e6a62c</t>
+  </si>
+  <si>
+    <t>生活大爆炸</t>
+  </si>
+  <si>
+    <t>剧集,美剧,生活大爆炸</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e28b54f51959</t>
+  </si>
+  <si>
+    <t>唐顿庄园 1-6季</t>
+  </si>
+  <si>
+    <t>剧集,美剧,唐顿庄园</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/845a7fda1f52</t>
+  </si>
+  <si>
+    <t>无耻之徒 全1-11季</t>
+  </si>
+  <si>
+    <t>剧集,美剧,无耻之徒</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/84039429fbe2</t>
+  </si>
+  <si>
+    <t>兄弟连 (2001) 1080P 蓝光 国英音轨 特效字幕</t>
+  </si>
+  <si>
+    <t>剧集,美剧,兄弟连</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eb0018f17d2c</t>
+  </si>
+  <si>
+    <t>行尸走肉 11季全+2部番外无删减 1080P</t>
+  </si>
+  <si>
+    <t>剧集,美剧,行尸走肉</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/141068ddd275</t>
+  </si>
+  <si>
+    <t>浴血黑帮</t>
+  </si>
+  <si>
+    <t>剧集,美剧,浴血黑帮</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e42ee1fa3786</t>
+  </si>
+  <si>
+    <t>越狱</t>
+  </si>
+  <si>
+    <t>剧集,美剧,越狱</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b389c835fba5</t>
+  </si>
+  <si>
+    <t>纸牌屋 (1-6季) 豆瓣9.3分</t>
+  </si>
+  <si>
+    <t>剧集,美剧,纸牌屋</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b23c1ee89e81</t>
+  </si>
+  <si>
+    <t>《风骚律师》1-6季 4K 全集 内嵌简英字幕</t>
+  </si>
+  <si>
+    <t>剧集,美剧,风骚律师</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/60666ee04fe1</t>
+  </si>
+  <si>
+    <t>《破产姐妹》1-6季全 4K超清无删减</t>
+  </si>
+  <si>
+    <t>剧集,美剧,破产姐妹</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a8880143dee</t>
+  </si>
+  <si>
+    <t>【美剧】黑吃黑.全4季.中英双字.1080P</t>
+  </si>
+  <si>
+    <t>剧集,美剧,黑吃黑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b03f39790294</t>
+  </si>
+  <si>
+    <t>黑钱胜地</t>
+  </si>
+  <si>
+    <t>剧集,美剧,黑钱胜地</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/00f31baf0b52</t>
+  </si>
+  <si>
+    <t>熊家餐厅</t>
+  </si>
+  <si>
+    <t>剧集,美剧,熊家餐厅</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2d8fe11a64f6</t>
+  </si>
+  <si>
+    <t>黑袍纠察队</t>
+  </si>
+  <si>
+    <t>剧集,美剧,黑袍纠察队</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ac9dbacc3a8a</t>
+  </si>
+  <si>
+    <t>请回答1988 4K</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,请回答1988</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1c26d1bceb53</t>
+  </si>
+  <si>
+    <t>我的大叔</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,我的大叔</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aa1b07232473</t>
+  </si>
+  <si>
+    <t>秘密森林 1-2季</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,秘密森林</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4f593f8ecb99</t>
+  </si>
+  <si>
+    <t>信号（2016）全16集</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,信号</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ae72792dfbe0</t>
+  </si>
+  <si>
+    <t>机智医生生活</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,机智医生生活</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/215166a7f55d</t>
+  </si>
+  <si>
+    <t>浪漫的体质</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,浪漫的体质</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/66c18b025584</t>
+  </si>
+  <si>
+    <t>棒球大联盟</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,棒球大联盟</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5c494118590a</t>
+  </si>
+  <si>
+    <t>搞笑一家人</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,搞笑一家人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d698cdcde69e</t>
+  </si>
+  <si>
+    <t>第五共和国</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,第五共和国</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/114f841f4acf</t>
+  </si>
+  <si>
+    <t>顺风妇产科</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,顺风妇产科</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9d1c3ff0b45b</t>
+  </si>
+  <si>
+    <t>模范出租车</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,模范出租车</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c927c73b9c3d</t>
+  </si>
+  <si>
+    <t>背着善宰跑</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,背着善宰跑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c9e6ea1c5a78</t>
+  </si>
+  <si>
+    <t>超异能族</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,超异能族</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4f5448bae0bc</t>
+  </si>
+  <si>
+    <t>好久没做</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,好久没做</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/662c139bb03e</t>
+  </si>
+  <si>
+    <t>我的出走日记</t>
+  </si>
+  <si>
+    <t>剧集,韩剧,我的出走日记</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b28353c9de59</t>
+  </si>
+  <si>
+    <t>飞出个未来[1-13季+大电影合集][ 动漫 喜剧]</t>
+  </si>
+  <si>
+    <t>动漫,飞出个未来</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3e71231c34e8</t>
+  </si>
+  <si>
+    <t>怪诞小镇 1-2季全集 特别篇 中英双字</t>
+  </si>
+  <si>
+    <t>动漫,怪诞小镇</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ea6aa5d35d21</t>
+  </si>
+  <si>
+    <t>怪诞小镇.1-2季全合集+番外+特辑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/87cfb16d0ad5</t>
+  </si>
+  <si>
+    <t>幻灭 全五季</t>
+  </si>
+  <si>
+    <t>动漫,幻灭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/905326fb51ce</t>
+  </si>
+  <si>
+    <t>猫头鹰魔法社 S1-S3 合集</t>
+  </si>
+  <si>
+    <t>动漫,猫头鹰魔法社</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5be9090d10a5</t>
+  </si>
+  <si>
+    <t>探险活宝S1-S10 十季</t>
+  </si>
+  <si>
+    <t>动漫,探险活宝</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c776f07d4c71</t>
+  </si>
+  <si>
+    <t>外星也难民 1-6季 1080P</t>
+  </si>
+  <si>
+    <t>动漫,外星也难民</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91ce7f35bfe9</t>
+  </si>
+  <si>
+    <t>希尔达（1-3季全+剧场版）Hilda</t>
+  </si>
+  <si>
+    <t>动漫,希尔达</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bc18ef0da559</t>
+  </si>
+  <si>
+    <t>《海底小纵队》(1-9季) [趣学英语][117G]</t>
+  </si>
+  <si>
+    <t>动漫,海底小纵队</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5763243263de</t>
+  </si>
+  <si>
+    <t>【恶搞之家】S1-S22季 1080P 中英字幕未删减收藏版</t>
+  </si>
+  <si>
+    <t>动漫,恶搞之家</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e44fa038ef9e</t>
+  </si>
+  <si>
+    <t>《小马宝莉》(1-9季) [经典儿童动画故事]</t>
+  </si>
+  <si>
+    <t>动漫,小马宝莉</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/63da9a407f26</t>
+  </si>
+  <si>
+    <t>马男波杰克</t>
+  </si>
+  <si>
+    <t>动漫,马男波杰克</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/017511f52017</t>
+  </si>
+  <si>
+    <t>拽妹儿</t>
+  </si>
+  <si>
+    <t>动漫,拽妹儿</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a0b7918bf26b</t>
+  </si>
+  <si>
+    <t>尼克频道英语启蒙动画《喧闹一家亲 The Loud use (1-4季) 》</t>
+  </si>
+  <si>
+    <t>动漫,喧闹一家亲</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4849b8d2115</t>
+  </si>
+  <si>
+    <t>奇幻沼泽</t>
+  </si>
+  <si>
+    <t>动漫,奇幻沼泽</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f3bcdb716267</t>
+  </si>
+  <si>
+    <t>亲子情境英语学习资料包 (视频+音频+图片)</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/07acc9b06384</t>
+  </si>
+  <si>
+    <t>离婚吧！赶紧的</t>
   </si>
   <si>
     <t>剧本杀</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/4f768ffb7eee</t>
-  </si>
-  <si>
-    <t>《女王带你唱读Raz》(340集) [幼儿分级英语启蒙动画]</t>
-  </si>
-  <si>
-    <t>启蒙英语</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/47fa7de74af7</t>
-  </si>
-  <si>
-    <t>SSS儿歌及配套合集</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f0a378f45f0b</t>
-  </si>
-  <si>
-    <t>监狱风云</t>
-  </si>
-  <si>
-    <t>剧集,美剧,监狱风云</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/98da7aed43e2</t>
-  </si>
-  <si>
-    <t>传奇办公室</t>
-  </si>
-  <si>
-    <t>剧集,美剧,传奇办公室</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c9e9cf4ef725</t>
-  </si>
-  <si>
-    <t>大西洋帝国</t>
-  </si>
-  <si>
-    <t>剧集,美剧,大西洋帝国</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2b6ec19ca1ef</t>
-  </si>
-  <si>
-    <t>飞天大盗</t>
-  </si>
-  <si>
-    <t>剧集,美剧,飞天大盗</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a32ba31162a1</t>
-  </si>
-  <si>
-    <t>国土安全</t>
-  </si>
-  <si>
-    <t>剧集,美剧,国土安全</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cae446202571</t>
-  </si>
-  <si>
-    <t>黄石</t>
-  </si>
-  <si>
-    <t>剧集,美剧,黄石</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fcb925340306</t>
-  </si>
-  <si>
-    <t>火线 The Wire 1-5季全集 中英双字</t>
-  </si>
-  <si>
-    <t>剧集,美剧,火线</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ef3d7bea1b0f</t>
-  </si>
-  <si>
-    <t>绝命毒师 1-5季全集+电影</t>
-  </si>
-  <si>
-    <t>剧集,美剧,绝命毒师</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7af9af1faaf3</t>
-  </si>
-  <si>
-    <t>良医</t>
-  </si>
-  <si>
-    <t>剧集,美剧,良医</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/91b146f2bc7f</t>
-  </si>
-  <si>
-    <t>老友记 S01-S10（1994-2003）1080P蓝光 内封简英特效字幕</t>
-  </si>
-  <si>
-    <t>剧集,美剧,老友记</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/64ac023a320d</t>
-  </si>
-  <si>
-    <t>权利的游戏系列</t>
-  </si>
-  <si>
-    <t>剧集,美剧,权利的游戏</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4ddac80bdb51</t>
-  </si>
-  <si>
-    <t>斯巴达克斯 全4季 未删减版</t>
-  </si>
-  <si>
-    <t>剧集,美剧,斯巴达克斯</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/da6168e6a62c</t>
-  </si>
-  <si>
-    <t>生活大爆炸</t>
-  </si>
-  <si>
-    <t>剧集,美剧,生活大爆炸</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e28b54f51959</t>
-  </si>
-  <si>
-    <t>唐顿庄园 1-6季</t>
-  </si>
-  <si>
-    <t>剧集,美剧,唐顿庄园</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/845a7fda1f52</t>
-  </si>
-  <si>
-    <t>无耻之徒 全1-11季</t>
-  </si>
-  <si>
-    <t>剧集,美剧,无耻之徒</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/84039429fbe2</t>
-  </si>
-  <si>
-    <t>兄弟连 (2001) 1080P 蓝光 国英音轨 特效字幕</t>
-  </si>
-  <si>
-    <t>剧集,美剧,兄弟连</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/eb0018f17d2c</t>
-  </si>
-  <si>
-    <t>行尸走肉 11季全+2部番外无删减 1080P</t>
-  </si>
-  <si>
-    <t>剧集,美剧,行尸走肉</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/141068ddd275</t>
-  </si>
-  <si>
-    <t>浴血黑帮</t>
-  </si>
-  <si>
-    <t>剧集,美剧,浴血黑帮</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e42ee1fa3786</t>
-  </si>
-  <si>
-    <t>越狱</t>
-  </si>
-  <si>
-    <t>剧集,美剧,越狱</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b389c835fba5</t>
-  </si>
-  <si>
-    <t>纸牌屋 (1-6季) 豆瓣9.3分</t>
-  </si>
-  <si>
-    <t>剧集,美剧,纸牌屋</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b23c1ee89e81</t>
-  </si>
-  <si>
-    <t>《风骚律师》1-6季 4K 全集 内嵌简英字幕</t>
-  </si>
-  <si>
-    <t>剧集,美剧,风骚律师</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/60666ee04fe1</t>
-  </si>
-  <si>
-    <t>《破产姐妹》1-6季全 4K超清无删减</t>
-  </si>
-  <si>
-    <t>剧集,美剧,破产姐妹</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a8880143dee</t>
-  </si>
-  <si>
-    <t>【美剧】黑吃黑.全4季.中英双字.1080P</t>
-  </si>
-  <si>
-    <t>剧集,美剧,黑吃黑</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b03f39790294</t>
-  </si>
-  <si>
-    <t>黑钱胜地</t>
-  </si>
-  <si>
-    <t>剧集,美剧,黑钱胜地</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/00f31baf0b52</t>
-  </si>
-  <si>
-    <t>熊家餐厅</t>
-  </si>
-  <si>
-    <t>剧集,美剧,熊家餐厅</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2d8fe11a64f6</t>
-  </si>
-  <si>
-    <t>黑袍纠察队</t>
-  </si>
-  <si>
-    <t>剧集,美剧,黑袍纠察队</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ac9dbacc3a8a</t>
-  </si>
-  <si>
-    <t>请回答1988 4K</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,请回答1988</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1c26d1bceb53</t>
-  </si>
-  <si>
-    <t>我的大叔</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,我的大叔</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/aa1b07232473</t>
-  </si>
-  <si>
-    <t>秘密森林 1-2季</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,秘密森林</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4f593f8ecb99</t>
-  </si>
-  <si>
-    <t>信号（2016）全16集</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,信号</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ae72792dfbe0</t>
-  </si>
-  <si>
-    <t>机智医生生活</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,机智医生生活</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/215166a7f55d</t>
-  </si>
-  <si>
-    <t>浪漫的体质</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,浪漫的体质</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/66c18b025584</t>
-  </si>
-  <si>
-    <t>棒球大联盟</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,棒球大联盟</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5c494118590a</t>
-  </si>
-  <si>
-    <t>搞笑一家人</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,搞笑一家人</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d698cdcde69e</t>
-  </si>
-  <si>
-    <t>第五共和国</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,第五共和国</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/114f841f4acf</t>
-  </si>
-  <si>
-    <t>顺风妇产科</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,顺风妇产科</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9d1c3ff0b45b</t>
-  </si>
-  <si>
-    <t>模范出租车</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,模范出租车</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c927c73b9c3d</t>
-  </si>
-  <si>
-    <t>背着善宰跑</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,背着善宰跑</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c9e6ea1c5a78</t>
-  </si>
-  <si>
-    <t>超异能族</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,超异能族</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4f5448bae0bc</t>
-  </si>
-  <si>
-    <t>好久没做</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,好久没做</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/662c139bb03e</t>
-  </si>
-  <si>
-    <t>我的出走日记</t>
-  </si>
-  <si>
-    <t>剧集,韩剧,我的出走日记</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b28353c9de59</t>
-  </si>
-  <si>
-    <t>飞出个未来[1-13季+大电影合集][ 动漫 喜剧]</t>
-  </si>
-  <si>
-    <t>动漫,飞出个未来</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3e71231c34e8</t>
-  </si>
-  <si>
-    <t>怪诞小镇 1-2季全集 特别篇 中英双字</t>
-  </si>
-  <si>
-    <t>动漫,怪诞小镇</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ea6aa5d35d21</t>
-  </si>
-  <si>
-    <t>怪诞小镇.1-2季全合集+番外+特辑</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/87cfb16d0ad5</t>
-  </si>
-  <si>
-    <t>幻灭 全五季</t>
-  </si>
-  <si>
-    <t>动漫,幻灭</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/905326fb51ce</t>
-  </si>
-  <si>
-    <t>猫头鹰魔法社 S1-S3 合集</t>
-  </si>
-  <si>
-    <t>动漫,猫头鹰魔法社</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5be9090d10a5</t>
-  </si>
-  <si>
-    <t>探险活宝S1-S10 十季</t>
-  </si>
-  <si>
-    <t>动漫,探险活宝</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c776f07d4c71</t>
-  </si>
-  <si>
-    <t>外星也难民 1-6季 1080P</t>
-  </si>
-  <si>
-    <t>动漫,外星也难民</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/91ce7f35bfe9</t>
-  </si>
-  <si>
-    <t>希尔达（1-3季全+剧场版）Hilda</t>
-  </si>
-  <si>
-    <t>动漫,希尔达</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bc18ef0da559</t>
-  </si>
-  <si>
-    <t>《海底小纵队》(1-9季) [趣学英语][117G]</t>
-  </si>
-  <si>
-    <t>动漫,海底小纵队</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5763243263de</t>
-  </si>
-  <si>
-    <t>【恶搞之家】S1-S22季 1080P 中英字幕未删减收藏版</t>
-  </si>
-  <si>
-    <t>动漫,恶搞之家</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e44fa038ef9e</t>
-  </si>
-  <si>
-    <t>《小马宝莉》(1-9季) [经典儿童动画故事]</t>
-  </si>
-  <si>
-    <t>动漫,小马宝莉</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/63da9a407f26</t>
-  </si>
-  <si>
-    <t>马男波杰克</t>
-  </si>
-  <si>
-    <t>动漫,马男波杰克</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/017511f52017</t>
-  </si>
-  <si>
-    <t>拽妹儿</t>
-  </si>
-  <si>
-    <t>动漫,拽妹儿</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a0b7918bf26b</t>
-  </si>
-  <si>
-    <t>尼克频道英语启蒙动画《喧闹一家亲 The Loud use (1-4季) 》</t>
-  </si>
-  <si>
-    <t>动漫,喧闹一家亲</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4849b8d2115</t>
-  </si>
-  <si>
-    <t>奇幻沼泽</t>
-  </si>
-  <si>
-    <t>动漫,奇幻沼泽</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f3bcdb716267</t>
-  </si>
-  <si>
-    <t>亲子情境英语学习资料包 (视频+音频+图片)</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/07acc9b06384</t>
-  </si>
-  <si>
-    <t>离婚吧！赶紧的</t>
-  </si>
-  <si>
     <t>从优质生活到巴士乡村生活</t>
   </si>
   <si>
@@ -720,6 +714,60 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/e8091058af8c</t>
+  </si>
+  <si>
+    <t>堕落街传奇(S01-S03合集)</t>
+  </si>
+  <si>
+    <t>剧集,美剧,堕落街传奇</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/294cfd0559d9</t>
+  </si>
+  <si>
+    <t>嗜血法医1-8季[附杀魔新生][美国悬疑犯罪]</t>
+  </si>
+  <si>
+    <t>剧集,美剧,嗜血法医</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c9202cab2164</t>
+  </si>
+  <si>
+    <t>都铎王朝</t>
+  </si>
+  <si>
+    <t>剧集,美剧,都铎王朝</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4c9a8a3dd24a</t>
+  </si>
+  <si>
+    <t>亢奋S1-S2+特别集</t>
+  </si>
+  <si>
+    <t>剧集,美剧,亢奋</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d09674d89e0e</t>
+  </si>
+  <si>
+    <t>一点半</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/34740225d834</t>
+  </si>
+  <si>
+    <t>流氓叙事</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/96c9d2d2cbb5</t>
+  </si>
+  <si>
+    <t>人吃人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75df5b4bb02e</t>
   </si>
 </sst>
 </file>
@@ -732,7 +780,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +800,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1216,134 +1272,134 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,6 +1413,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1678,10 +1740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1705,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="42" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1719,7 +1781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="42" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1727,10 +1789,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1738,10 +1800,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -1817,7 +1879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="28" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1845,7 +1907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1859,7 +1921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="42" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1873,7 +1935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="42" spans="1:4">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1887,7 +1949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="28" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1901,7 +1963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="28" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1943,7 +2005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="28" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1971,7 +2033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" ht="28" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2013,7 +2075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" ht="28" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2055,7 +2117,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" ht="28" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2307,7 +2369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" ht="28" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2343,27 +2405,27 @@
         <v>138</v>
       </c>
       <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" ht="28" spans="1:4">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
-      </c>
-      <c r="C48" t="s">
-        <v>139</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" ht="28" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2377,7 +2439,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" ht="28" spans="1:4">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2405,7 +2467,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" ht="28" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2433,7 +2495,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" ht="28" spans="1:4">
+    <row r="54" ht="42" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2447,7 +2509,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" ht="42" spans="1:4">
+    <row r="55" ht="28" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2461,7 +2523,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" ht="28" spans="1:4">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2489,7 +2551,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" ht="42" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2503,7 +2565,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" ht="42" spans="1:4">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2517,7 +2579,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" ht="28" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2525,49 +2587,49 @@
         <v>176</v>
       </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" ht="28" spans="1:4">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
         <v>179</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" ht="28" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
         <v>181</v>
       </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" ht="28" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>184</v>
@@ -2581,7 +2643,7 @@
         <v>185</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>186</v>
@@ -2595,10 +2657,10 @@
         <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2606,10 +2668,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>191</v>
@@ -2623,7 +2685,7 @@
         <v>192</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>193</v>
@@ -2637,10 +2699,10 @@
         <v>194</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2648,10 +2710,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>198</v>
@@ -2665,7 +2727,7 @@
         <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>200</v>
@@ -2679,7 +2741,7 @@
         <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>202</v>
@@ -2693,7 +2755,7 @@
         <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>204</v>
@@ -2707,7 +2769,7 @@
         <v>205</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>206</v>
@@ -2721,7 +2783,7 @@
         <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>208</v>
@@ -2735,7 +2797,7 @@
         <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>210</v>
@@ -2749,23 +2811,23 @@
         <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>213</v>
+      <c r="B77" t="s">
+        <v>214</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2777,7 +2839,7 @@
         <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>217</v>
@@ -2791,10 +2853,10 @@
         <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
-      </c>
-      <c r="D79" s="1" t="s">
         <v>219</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2802,13 +2864,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="4" t="s">
         <v>222</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2816,13 +2878,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2830,10 +2892,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>228</v>
@@ -2847,89 +2909,178 @@
         <v>229</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="1" t="s">
         <v>230</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>245</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://pan.quark.cn/s/4f768ffb7eee" tooltip="https://pan.quark.cn/s/4f768ffb7eee"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://pan.quark.cn/s/47fa7de74af7" tooltip="https://pan.quark.cn/s/47fa7de74af7"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://pan.quark.cn/s/f0a378f45f0b" tooltip="https://pan.quark.cn/s/f0a378f45f0b"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://pan.quark.cn/s/98da7aed43e2" tooltip="https://pan.quark.cn/s/98da7aed43e2"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://pan.quark.cn/s/c9e9cf4ef725" tooltip="https://pan.quark.cn/s/c9e9cf4ef725"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://pan.quark.cn/s/2b6ec19ca1ef" tooltip="https://pan.quark.cn/s/2b6ec19ca1ef"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://pan.quark.cn/s/a32ba31162a1" tooltip="https://pan.quark.cn/s/a32ba31162a1"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://pan.quark.cn/s/cae446202571" tooltip="https://pan.quark.cn/s/cae446202571"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://pan.quark.cn/s/fcb925340306" tooltip="https://pan.quark.cn/s/fcb925340306"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://pan.quark.cn/s/ef3d7bea1b0f" tooltip="https://pan.quark.cn/s/ef3d7bea1b0f"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://pan.quark.cn/s/7af9af1faaf3" tooltip="https://pan.quark.cn/s/7af9af1faaf3"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://pan.quark.cn/s/91b146f2bc7f" tooltip="https://pan.quark.cn/s/91b146f2bc7f"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://pan.quark.cn/s/64ac023a320d" tooltip="https://pan.quark.cn/s/64ac023a320d"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://pan.quark.cn/s/4ddac80bdb51" tooltip="https://pan.quark.cn/s/4ddac80bdb51"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://pan.quark.cn/s/da6168e6a62c" tooltip="https://pan.quark.cn/s/da6168e6a62c"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://pan.quark.cn/s/e28b54f51959" tooltip="https://pan.quark.cn/s/e28b54f51959"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://pan.quark.cn/s/845a7fda1f52" tooltip="https://pan.quark.cn/s/845a7fda1f52"/>
-    <hyperlink ref="D19" r:id="rId18" display="https://pan.quark.cn/s/84039429fbe2" tooltip="https://pan.quark.cn/s/84039429fbe2"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://pan.quark.cn/s/eb0018f17d2c" tooltip="https://pan.quark.cn/s/eb0018f17d2c"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://pan.quark.cn/s/141068ddd275" tooltip="https://pan.quark.cn/s/141068ddd275"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://pan.quark.cn/s/e42ee1fa3786" tooltip="https://pan.quark.cn/s/e42ee1fa3786"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://pan.quark.cn/s/b389c835fba5" tooltip="https://pan.quark.cn/s/b389c835fba5"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://pan.quark.cn/s/b23c1ee89e81" tooltip="https://pan.quark.cn/s/b23c1ee89e81"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://pan.quark.cn/s/60666ee04fe1" tooltip="https://pan.quark.cn/s/60666ee04fe1"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://pan.quark.cn/s/6a8880143dee" tooltip="https://pan.quark.cn/s/6a8880143dee"/>
-    <hyperlink ref="D27" r:id="rId26" display="https://pan.quark.cn/s/b03f39790294" tooltip="https://pan.quark.cn/s/b03f39790294"/>
-    <hyperlink ref="D28" r:id="rId27" display="https://pan.quark.cn/s/00f31baf0b52" tooltip="https://pan.quark.cn/s/00f31baf0b52"/>
-    <hyperlink ref="D29" r:id="rId28" display="https://pan.quark.cn/s/2d8fe11a64f6" tooltip="https://pan.quark.cn/s/2d8fe11a64f6"/>
-    <hyperlink ref="D30" r:id="rId29" display="https://pan.quark.cn/s/ac9dbacc3a8a" tooltip="https://pan.quark.cn/s/ac9dbacc3a8a"/>
-    <hyperlink ref="D31" r:id="rId30" display="https://pan.quark.cn/s/1c26d1bceb53" tooltip="https://pan.quark.cn/s/1c26d1bceb53"/>
-    <hyperlink ref="D32" r:id="rId31" display="https://pan.quark.cn/s/aa1b07232473" tooltip="https://pan.quark.cn/s/aa1b07232473"/>
-    <hyperlink ref="D33" r:id="rId32" display="https://pan.quark.cn/s/4f593f8ecb99" tooltip="https://pan.quark.cn/s/4f593f8ecb99"/>
-    <hyperlink ref="D34" r:id="rId33" display="https://pan.quark.cn/s/ae72792dfbe0" tooltip="https://pan.quark.cn/s/ae72792dfbe0"/>
-    <hyperlink ref="D35" r:id="rId34" display="https://pan.quark.cn/s/215166a7f55d" tooltip="https://pan.quark.cn/s/215166a7f55d"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://pan.quark.cn/s/66c18b025584" tooltip="https://pan.quark.cn/s/66c18b025584"/>
-    <hyperlink ref="D37" r:id="rId36" display="https://pan.quark.cn/s/5c494118590a" tooltip="https://pan.quark.cn/s/5c494118590a"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://pan.quark.cn/s/d698cdcde69e" tooltip="https://pan.quark.cn/s/d698cdcde69e"/>
-    <hyperlink ref="D39" r:id="rId38" display="https://pan.quark.cn/s/114f841f4acf" tooltip="https://pan.quark.cn/s/114f841f4acf"/>
-    <hyperlink ref="D40" r:id="rId39" display="https://pan.quark.cn/s/9d1c3ff0b45b" tooltip="https://pan.quark.cn/s/9d1c3ff0b45b"/>
-    <hyperlink ref="D41" r:id="rId40" display="https://pan.quark.cn/s/c927c73b9c3d" tooltip="https://pan.quark.cn/s/c927c73b9c3d"/>
-    <hyperlink ref="D42" r:id="rId41" display="https://pan.quark.cn/s/c9e6ea1c5a78" tooltip="https://pan.quark.cn/s/c9e6ea1c5a78"/>
-    <hyperlink ref="D43" r:id="rId42" display="https://pan.quark.cn/s/4f5448bae0bc" tooltip="https://pan.quark.cn/s/4f5448bae0bc"/>
-    <hyperlink ref="D44" r:id="rId43" display="https://pan.quark.cn/s/662c139bb03e" tooltip="https://pan.quark.cn/s/662c139bb03e"/>
-    <hyperlink ref="D45" r:id="rId44" display="https://pan.quark.cn/s/b28353c9de59" tooltip="https://pan.quark.cn/s/b28353c9de59"/>
-    <hyperlink ref="D46" r:id="rId45" display="https://pan.quark.cn/s/3e71231c34e8" tooltip="https://pan.quark.cn/s/3e71231c34e8"/>
-    <hyperlink ref="D47" r:id="rId46" display="https://pan.quark.cn/s/ea6aa5d35d21" tooltip="https://pan.quark.cn/s/ea6aa5d35d21"/>
-    <hyperlink ref="D48" r:id="rId47" display="https://pan.quark.cn/s/87cfb16d0ad5" tooltip="https://pan.quark.cn/s/87cfb16d0ad5"/>
-    <hyperlink ref="D49" r:id="rId48" display="https://pan.quark.cn/s/905326fb51ce" tooltip="https://pan.quark.cn/s/905326fb51ce"/>
-    <hyperlink ref="D50" r:id="rId49" display="https://pan.quark.cn/s/5be9090d10a5" tooltip="https://pan.quark.cn/s/5be9090d10a5"/>
-    <hyperlink ref="D51" r:id="rId50" display="https://pan.quark.cn/s/c776f07d4c71" tooltip="https://pan.quark.cn/s/c776f07d4c71"/>
-    <hyperlink ref="D52" r:id="rId51" display="https://pan.quark.cn/s/91ce7f35bfe9" tooltip="https://pan.quark.cn/s/91ce7f35bfe9"/>
-    <hyperlink ref="D53" r:id="rId52" display="https://pan.quark.cn/s/bc18ef0da559" tooltip="https://pan.quark.cn/s/bc18ef0da559"/>
-    <hyperlink ref="D54" r:id="rId53" display="https://pan.quark.cn/s/5763243263de" tooltip="https://pan.quark.cn/s/5763243263de"/>
-    <hyperlink ref="D55" r:id="rId54" display="https://pan.quark.cn/s/e44fa038ef9e" tooltip="https://pan.quark.cn/s/e44fa038ef9e"/>
-    <hyperlink ref="D56" r:id="rId55" display="https://pan.quark.cn/s/63da9a407f26" tooltip="https://pan.quark.cn/s/63da9a407f26"/>
-    <hyperlink ref="D57" r:id="rId56" display="https://pan.quark.cn/s/017511f52017" tooltip="https://pan.quark.cn/s/017511f52017"/>
-    <hyperlink ref="D58" r:id="rId57" display="https://pan.quark.cn/s/a0b7918bf26b" tooltip="https://pan.quark.cn/s/a0b7918bf26b"/>
-    <hyperlink ref="D59" r:id="rId58" display="https://pan.quark.cn/s/e4849b8d2115" tooltip="https://pan.quark.cn/s/e4849b8d2115"/>
-    <hyperlink ref="D60" r:id="rId59" display="https://pan.quark.cn/s/f3bcdb716267" tooltip="https://pan.quark.cn/s/f3bcdb716267"/>
-    <hyperlink ref="D61" r:id="rId60" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
-    <hyperlink ref="D62" r:id="rId60" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
-    <hyperlink ref="D63" r:id="rId61" display="https://pan.quark.cn/s/68678b493510" tooltip="https://pan.quark.cn/s/68678b493510"/>
-    <hyperlink ref="D64" r:id="rId62" display="https://pan.quark.cn/s/807cd82a720d" tooltip="https://pan.quark.cn/s/807cd82a720d"/>
-    <hyperlink ref="D65" r:id="rId63" display="https://pan.quark.cn/s/75463a265bfd" tooltip="https://pan.quark.cn/s/75463a265bfd"/>
-    <hyperlink ref="D66" r:id="rId64" display="https://pan.quark.cn/s/5fd8a6e8c830" tooltip="https://pan.quark.cn/s/5fd8a6e8c830"/>
-    <hyperlink ref="D67" r:id="rId65" display="https://pan.quark.cn/s/4fee740d83c1" tooltip="https://pan.quark.cn/s/4fee740d83c1"/>
-    <hyperlink ref="D69" r:id="rId66" display="https://pan.quark.cn/s/0da2e70e236f" tooltip="https://pan.quark.cn/s/0da2e70e236f"/>
-    <hyperlink ref="D70" r:id="rId67" display="https://pan.quark.cn/s/72fad0d6fd78" tooltip="https://pan.quark.cn/s/72fad0d6fd78"/>
-    <hyperlink ref="D71" r:id="rId68" display="https://pan.quark.cn/s/b08d1d32782d" tooltip="https://pan.quark.cn/s/b08d1d32782d"/>
-    <hyperlink ref="D72" r:id="rId69" display="https://pan.quark.cn/s/54ae4c79b6ef" tooltip="https://pan.quark.cn/s/54ae4c79b6ef"/>
-    <hyperlink ref="D73" r:id="rId70" display="https://pan.quark.cn/s/e1e91ab28d0c" tooltip="https://pan.quark.cn/s/e1e91ab28d0c"/>
-    <hyperlink ref="D74" r:id="rId71" display="https://pan.quark.cn/s/e9a0505d423a" tooltip="https://pan.quark.cn/s/e9a0505d423a"/>
-    <hyperlink ref="D75" r:id="rId72" display="https://pan.quark.cn/s/6fa3ba822a52" tooltip="https://pan.quark.cn/s/6fa3ba822a52"/>
-    <hyperlink ref="D76" r:id="rId73" display="https://pan.quark.cn/s/32466a4d8102" tooltip="https://pan.quark.cn/s/32466a4d8102"/>
-    <hyperlink ref="D77" r:id="rId74" display="https://pan.quark.cn/s/ff5a85744c5d" tooltip="https://pan.quark.cn/s/ff5a85744c5d"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://pan.quark.cn/s/47fa7de74af7" tooltip="https://pan.quark.cn/s/47fa7de74af7"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://pan.quark.cn/s/f0a378f45f0b" tooltip="https://pan.quark.cn/s/f0a378f45f0b"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://pan.quark.cn/s/98da7aed43e2" tooltip="https://pan.quark.cn/s/98da7aed43e2"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://pan.quark.cn/s/c9e9cf4ef725" tooltip="https://pan.quark.cn/s/c9e9cf4ef725"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://pan.quark.cn/s/2b6ec19ca1ef" tooltip="https://pan.quark.cn/s/2b6ec19ca1ef"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://pan.quark.cn/s/a32ba31162a1" tooltip="https://pan.quark.cn/s/a32ba31162a1"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://pan.quark.cn/s/cae446202571" tooltip="https://pan.quark.cn/s/cae446202571"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://pan.quark.cn/s/fcb925340306" tooltip="https://pan.quark.cn/s/fcb925340306"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://pan.quark.cn/s/ef3d7bea1b0f" tooltip="https://pan.quark.cn/s/ef3d7bea1b0f"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://pan.quark.cn/s/7af9af1faaf3" tooltip="https://pan.quark.cn/s/7af9af1faaf3"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://pan.quark.cn/s/91b146f2bc7f" tooltip="https://pan.quark.cn/s/91b146f2bc7f"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://pan.quark.cn/s/64ac023a320d" tooltip="https://pan.quark.cn/s/64ac023a320d"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://pan.quark.cn/s/4ddac80bdb51" tooltip="https://pan.quark.cn/s/4ddac80bdb51"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://pan.quark.cn/s/da6168e6a62c" tooltip="https://pan.quark.cn/s/da6168e6a62c"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://pan.quark.cn/s/e28b54f51959" tooltip="https://pan.quark.cn/s/e28b54f51959"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://pan.quark.cn/s/845a7fda1f52" tooltip="https://pan.quark.cn/s/845a7fda1f52"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://pan.quark.cn/s/84039429fbe2" tooltip="https://pan.quark.cn/s/84039429fbe2"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://pan.quark.cn/s/eb0018f17d2c" tooltip="https://pan.quark.cn/s/eb0018f17d2c"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://pan.quark.cn/s/141068ddd275" tooltip="https://pan.quark.cn/s/141068ddd275"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://pan.quark.cn/s/e42ee1fa3786" tooltip="https://pan.quark.cn/s/e42ee1fa3786"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://pan.quark.cn/s/b389c835fba5" tooltip="https://pan.quark.cn/s/b389c835fba5"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://pan.quark.cn/s/b23c1ee89e81" tooltip="https://pan.quark.cn/s/b23c1ee89e81"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://pan.quark.cn/s/60666ee04fe1" tooltip="https://pan.quark.cn/s/60666ee04fe1"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://pan.quark.cn/s/6a8880143dee" tooltip="https://pan.quark.cn/s/6a8880143dee"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://pan.quark.cn/s/b03f39790294" tooltip="https://pan.quark.cn/s/b03f39790294"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://pan.quark.cn/s/00f31baf0b52" tooltip="https://pan.quark.cn/s/00f31baf0b52"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://pan.quark.cn/s/2d8fe11a64f6" tooltip="https://pan.quark.cn/s/2d8fe11a64f6"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://pan.quark.cn/s/ac9dbacc3a8a" tooltip="https://pan.quark.cn/s/ac9dbacc3a8a"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://pan.quark.cn/s/1c26d1bceb53" tooltip="https://pan.quark.cn/s/1c26d1bceb53"/>
+    <hyperlink ref="D31" r:id="rId30" display="https://pan.quark.cn/s/aa1b07232473" tooltip="https://pan.quark.cn/s/aa1b07232473"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://pan.quark.cn/s/4f593f8ecb99" tooltip="https://pan.quark.cn/s/4f593f8ecb99"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://pan.quark.cn/s/ae72792dfbe0" tooltip="https://pan.quark.cn/s/ae72792dfbe0"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://pan.quark.cn/s/215166a7f55d" tooltip="https://pan.quark.cn/s/215166a7f55d"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://pan.quark.cn/s/66c18b025584" tooltip="https://pan.quark.cn/s/66c18b025584"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://pan.quark.cn/s/5c494118590a" tooltip="https://pan.quark.cn/s/5c494118590a"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://pan.quark.cn/s/d698cdcde69e" tooltip="https://pan.quark.cn/s/d698cdcde69e"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://pan.quark.cn/s/114f841f4acf" tooltip="https://pan.quark.cn/s/114f841f4acf"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://pan.quark.cn/s/9d1c3ff0b45b" tooltip="https://pan.quark.cn/s/9d1c3ff0b45b"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://pan.quark.cn/s/c927c73b9c3d" tooltip="https://pan.quark.cn/s/c927c73b9c3d"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://pan.quark.cn/s/c9e6ea1c5a78" tooltip="https://pan.quark.cn/s/c9e6ea1c5a78"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://pan.quark.cn/s/4f5448bae0bc" tooltip="https://pan.quark.cn/s/4f5448bae0bc"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://pan.quark.cn/s/662c139bb03e" tooltip="https://pan.quark.cn/s/662c139bb03e"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://pan.quark.cn/s/b28353c9de59" tooltip="https://pan.quark.cn/s/b28353c9de59"/>
+    <hyperlink ref="D45" r:id="rId44" display="https://pan.quark.cn/s/3e71231c34e8" tooltip="https://pan.quark.cn/s/3e71231c34e8"/>
+    <hyperlink ref="D46" r:id="rId45" display="https://pan.quark.cn/s/ea6aa5d35d21" tooltip="https://pan.quark.cn/s/ea6aa5d35d21"/>
+    <hyperlink ref="D47" r:id="rId46" display="https://pan.quark.cn/s/87cfb16d0ad5" tooltip="https://pan.quark.cn/s/87cfb16d0ad5"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://pan.quark.cn/s/905326fb51ce" tooltip="https://pan.quark.cn/s/905326fb51ce"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://pan.quark.cn/s/5be9090d10a5" tooltip="https://pan.quark.cn/s/5be9090d10a5"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://pan.quark.cn/s/c776f07d4c71" tooltip="https://pan.quark.cn/s/c776f07d4c71"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://pan.quark.cn/s/91ce7f35bfe9" tooltip="https://pan.quark.cn/s/91ce7f35bfe9"/>
+    <hyperlink ref="D52" r:id="rId51" display="https://pan.quark.cn/s/bc18ef0da559" tooltip="https://pan.quark.cn/s/bc18ef0da559"/>
+    <hyperlink ref="D53" r:id="rId52" display="https://pan.quark.cn/s/5763243263de" tooltip="https://pan.quark.cn/s/5763243263de"/>
+    <hyperlink ref="D54" r:id="rId53" display="https://pan.quark.cn/s/e44fa038ef9e" tooltip="https://pan.quark.cn/s/e44fa038ef9e"/>
+    <hyperlink ref="D55" r:id="rId54" display="https://pan.quark.cn/s/63da9a407f26" tooltip="https://pan.quark.cn/s/63da9a407f26"/>
+    <hyperlink ref="D56" r:id="rId55" display="https://pan.quark.cn/s/017511f52017" tooltip="https://pan.quark.cn/s/017511f52017"/>
+    <hyperlink ref="D57" r:id="rId56" display="https://pan.quark.cn/s/a0b7918bf26b" tooltip="https://pan.quark.cn/s/a0b7918bf26b"/>
+    <hyperlink ref="D58" r:id="rId57" display="https://pan.quark.cn/s/e4849b8d2115" tooltip="https://pan.quark.cn/s/e4849b8d2115"/>
+    <hyperlink ref="D59" r:id="rId58" display="https://pan.quark.cn/s/f3bcdb716267" tooltip="https://pan.quark.cn/s/f3bcdb716267"/>
+    <hyperlink ref="D60" r:id="rId59" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
+    <hyperlink ref="D61" r:id="rId59" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
+    <hyperlink ref="D62" r:id="rId60" display="https://pan.quark.cn/s/68678b493510" tooltip="https://pan.quark.cn/s/68678b493510"/>
+    <hyperlink ref="D63" r:id="rId61" display="https://pan.quark.cn/s/807cd82a720d" tooltip="https://pan.quark.cn/s/807cd82a720d"/>
+    <hyperlink ref="D64" r:id="rId62" display="https://pan.quark.cn/s/75463a265bfd" tooltip="https://pan.quark.cn/s/75463a265bfd"/>
+    <hyperlink ref="D65" r:id="rId63" display="https://pan.quark.cn/s/5fd8a6e8c830" tooltip="https://pan.quark.cn/s/5fd8a6e8c830"/>
+    <hyperlink ref="D66" r:id="rId64" display="https://pan.quark.cn/s/4fee740d83c1" tooltip="https://pan.quark.cn/s/4fee740d83c1"/>
+    <hyperlink ref="D68" r:id="rId65" display="https://pan.quark.cn/s/0da2e70e236f" tooltip="https://pan.quark.cn/s/0da2e70e236f"/>
+    <hyperlink ref="D69" r:id="rId66" display="https://pan.quark.cn/s/72fad0d6fd78" tooltip="https://pan.quark.cn/s/72fad0d6fd78"/>
+    <hyperlink ref="D70" r:id="rId67" display="https://pan.quark.cn/s/b08d1d32782d" tooltip="https://pan.quark.cn/s/b08d1d32782d"/>
+    <hyperlink ref="D71" r:id="rId68" display="https://pan.quark.cn/s/54ae4c79b6ef" tooltip="https://pan.quark.cn/s/54ae4c79b6ef"/>
+    <hyperlink ref="D72" r:id="rId69" display="https://pan.quark.cn/s/e1e91ab28d0c" tooltip="https://pan.quark.cn/s/e1e91ab28d0c"/>
+    <hyperlink ref="D73" r:id="rId70" display="https://pan.quark.cn/s/e9a0505d423a" tooltip="https://pan.quark.cn/s/e9a0505d423a"/>
+    <hyperlink ref="D74" r:id="rId71" display="https://pan.quark.cn/s/6fa3ba822a52" tooltip="https://pan.quark.cn/s/6fa3ba822a52"/>
+    <hyperlink ref="D75" r:id="rId72" display="https://pan.quark.cn/s/32466a4d8102" tooltip="https://pan.quark.cn/s/32466a4d8102"/>
+    <hyperlink ref="D76" r:id="rId73" display="https://pan.quark.cn/s/ff5a85744c5d" tooltip="https://pan.quark.cn/s/ff5a85744c5d"/>
+    <hyperlink ref="D83" r:id="rId74" display="https://pan.quark.cn/s/294cfd0559d9"/>
+    <hyperlink ref="D84" r:id="rId75" display="https://pan.quark.cn/s/c9202cab2164"/>
+    <hyperlink ref="D85" r:id="rId76" display="https://pan.quark.cn/s/4c9a8a3dd24a"/>
+    <hyperlink ref="D86" r:id="rId77" display="https://pan.quark.cn/s/d09674d89e0e"/>
+    <hyperlink ref="D87" r:id="rId78" display="https://pan.quark.cn/s/34740225d834"/>
+    <hyperlink ref="D88" r:id="rId79" display="https://pan.quark.cn/s/96c9d2d2cbb5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="252">
   <si>
     <t>id</t>
   </si>
@@ -710,7 +710,7 @@
     <t>https://pan.quark.cn/s/e7921a23213d</t>
   </si>
   <si>
-    <t>马丁内斯死在惊奇馆剧本杀</t>
+    <t>马丁内斯死在惊奇馆</t>
   </si>
   <si>
     <t>https://pan.quark.cn/s/e8091058af8c</t>
@@ -768,6 +768,21 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/75df5b4bb02e</t>
+  </si>
+  <si>
+    <t>告别诗</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2e10c6c7deed</t>
+  </si>
+  <si>
+    <t>黑道家族</t>
+  </si>
+  <si>
+    <t>剧集,美剧,黑道家族</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c01736bb9d87</t>
   </si>
 </sst>
 </file>
@@ -1740,10 +1755,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2995,8 +3010,36 @@
       <c r="C89" t="s">
         <v>179</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="4" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3081,6 +3124,9 @@
     <hyperlink ref="D86" r:id="rId77" display="https://pan.quark.cn/s/d09674d89e0e"/>
     <hyperlink ref="D87" r:id="rId78" display="https://pan.quark.cn/s/34740225d834"/>
     <hyperlink ref="D88" r:id="rId79" display="https://pan.quark.cn/s/96c9d2d2cbb5"/>
+    <hyperlink ref="D89" r:id="rId80" display="https://pan.quark.cn/s/75df5b4bb02e"/>
+    <hyperlink ref="D90" r:id="rId81" display="https://pan.quark.cn/s/2e10c6c7deed"/>
+    <hyperlink ref="D91" r:id="rId82" display="https://pan.quark.cn/s/c01736bb9d87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="254">
   <si>
     <t>id</t>
   </si>
@@ -783,6 +783,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/c01736bb9d87</t>
+  </si>
+  <si>
+    <t>捉小三</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/95e2b562166b</t>
   </si>
 </sst>
 </file>
@@ -1755,10 +1761,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3040,6 +3046,20 @@
       </c>
       <c r="D91" s="6" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -785,7 +785,7 @@
     <t>https://pan.quark.cn/s/c01736bb9d87</t>
   </si>
   <si>
-    <t>捉小三</t>
+    <t>抓小三</t>
   </si>
   <si>
     <t>https://pan.quark.cn/s/95e2b562166b</t>
@@ -1764,7 +1764,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="255">
   <si>
     <t>id</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>剧本杀</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3a3303e54e4a</t>
   </si>
   <si>
     <t>从优质生活到巴士乡村生活</t>
@@ -820,7 +823,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -828,7 +831,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1290,7 +1293,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1420,7 +1423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,13 +1436,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1763,8 +1769,8 @@
   <sheetPr/>
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2624,8 +2630,8 @@
       <c r="C61" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>177</v>
+      <c r="D61" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="28" spans="1:4">
@@ -2633,13 +2639,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2647,13 +2653,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2661,13 +2667,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2675,13 +2681,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2689,13 +2695,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2703,13 +2709,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2717,13 +2723,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2731,13 +2737,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2745,13 +2751,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2759,13 +2765,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2773,13 +2779,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2787,13 +2793,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2801,13 +2807,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2815,13 +2821,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2829,13 +2835,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2843,13 +2849,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2857,13 +2863,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2871,13 +2877,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" s="4" t="s">
         <v>220</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2885,13 +2891,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2899,13 +2905,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2913,13 +2919,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C82" t="s">
         <v>179</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2927,13 +2933,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
-      </c>
-      <c r="D83" s="5" t="s">
         <v>231</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2941,13 +2947,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="5" t="s">
         <v>234</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2955,13 +2961,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" s="5" t="s">
         <v>237</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2969,13 +2975,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C86" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" s="5" t="s">
         <v>240</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2983,13 +2989,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C87" t="s">
         <v>179</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>242</v>
+      <c r="D87" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2997,13 +3003,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>244</v>
+      <c r="D88" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3011,13 +3017,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
         <v>179</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>246</v>
+      <c r="D89" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3025,13 +3031,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>248</v>
+      <c r="D90" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3039,13 +3045,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C91" t="s">
-        <v>250</v>
-      </c>
-      <c r="D91" s="6" t="s">
         <v>251</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3053,13 +3059,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C92" t="s">
         <v>179</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3123,7 +3129,6 @@
     <hyperlink ref="D58" r:id="rId57" display="https://pan.quark.cn/s/e4849b8d2115" tooltip="https://pan.quark.cn/s/e4849b8d2115"/>
     <hyperlink ref="D59" r:id="rId58" display="https://pan.quark.cn/s/f3bcdb716267" tooltip="https://pan.quark.cn/s/f3bcdb716267"/>
     <hyperlink ref="D60" r:id="rId59" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
-    <hyperlink ref="D61" r:id="rId59" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
     <hyperlink ref="D62" r:id="rId60" display="https://pan.quark.cn/s/68678b493510" tooltip="https://pan.quark.cn/s/68678b493510"/>
     <hyperlink ref="D63" r:id="rId61" display="https://pan.quark.cn/s/807cd82a720d" tooltip="https://pan.quark.cn/s/807cd82a720d"/>
     <hyperlink ref="D64" r:id="rId62" display="https://pan.quark.cn/s/75463a265bfd" tooltip="https://pan.quark.cn/s/75463a265bfd"/>
@@ -3147,6 +3152,7 @@
     <hyperlink ref="D89" r:id="rId80" display="https://pan.quark.cn/s/75df5b4bb02e"/>
     <hyperlink ref="D90" r:id="rId81" display="https://pan.quark.cn/s/2e10c6c7deed"/>
     <hyperlink ref="D91" r:id="rId82" display="https://pan.quark.cn/s/c01736bb9d87"/>
+    <hyperlink ref="D61" r:id="rId83" display="https://pan.quark.cn/s/3a3303e54e4a"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="261">
   <si>
     <t>id</t>
   </si>
@@ -767,7 +767,7 @@
     <t>https://pan.quark.cn/s/96c9d2d2cbb5</t>
   </si>
   <si>
-    <t>人吃人</t>
+    <t>人吃人 4-5人开放</t>
   </si>
   <si>
     <t>https://pan.quark.cn/s/75df5b4bb02e</t>
@@ -792,6 +792,24 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/95e2b562166b</t>
+  </si>
+  <si>
+    <t>红影 5-6人开放本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/663e837c08ee</t>
+  </si>
+  <si>
+    <t>诛心太平间 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e380547efdca</t>
+  </si>
+  <si>
+    <t>办公室谋杀案 4-5人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0c67d09fc0eb</t>
   </si>
 </sst>
 </file>
@@ -1767,10 +1785,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3066,6 +3084,48 @@
       </c>
       <c r="D92" s="1" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="449">
   <si>
     <t>id</t>
   </si>
@@ -810,6 +810,570 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/0c67d09fc0eb</t>
+  </si>
+  <si>
+    <t>大明星最后的演出 2人半开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/affbfdf5c09b</t>
+  </si>
+  <si>
+    <t>西游记降魔之莲花精 4人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/48b8370c77f2</t>
+  </si>
+  <si>
+    <t>相府鱼美人1 4人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d47624bd9832</t>
+  </si>
+  <si>
+    <t>相府鱼美人2 4人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4e04a07074cd</t>
+  </si>
+  <si>
+    <t>名捕1-铁鸡帮 4人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3ca6c1226788</t>
+  </si>
+  <si>
+    <t>名捕2-千门宫 4人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4e95f87ae65c</t>
+  </si>
+  <si>
+    <t>名捕3-龙门客栈 4人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0c8af7f4b898</t>
+  </si>
+  <si>
+    <t>江湖客栈开放 4人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18081e8c3875</t>
+  </si>
+  <si>
+    <t>病毒 4-5人开放本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cb0d8c38ffa0</t>
+  </si>
+  <si>
+    <t>致命喷泉 4-5人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bbfe2b45f3a7</t>
+  </si>
+  <si>
+    <t>无间旅途 4-5人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e08d16cf0c0d</t>
+  </si>
+  <si>
+    <t>绝命阳光号 4-5人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ee00659579e2</t>
+  </si>
+  <si>
+    <t>人生考场 4-5人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/53b501724102</t>
+  </si>
+  <si>
+    <t>巴德将军的信 5人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a0531133a800</t>
+  </si>
+  <si>
+    <t>上海滩杀人事件 5人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dfee302903ea</t>
+  </si>
+  <si>
+    <t>致命圣诞节5人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d5c479fe3d09</t>
+  </si>
+  <si>
+    <t>华丽的背后 5人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a5a9207629f7</t>
+  </si>
+  <si>
+    <t>魔盗之殇 5人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/07c947e8866d</t>
+  </si>
+  <si>
+    <t>东方之星号游轮事件 5人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ebb5a7c4b626</t>
+  </si>
+  <si>
+    <t>东方之星游轮续集 5人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/896f9421277f</t>
+  </si>
+  <si>
+    <t>十年 5人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f88b3d74a9c5</t>
+  </si>
+  <si>
+    <t>女演员之死 5-6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4787837e9d45</t>
+  </si>
+  <si>
+    <t>军师1 望明路 5-6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fb5a45a2f239</t>
+  </si>
+  <si>
+    <t>天命 5-6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/df13c700276d</t>
+  </si>
+  <si>
+    <t>夜袭 5-6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bcaaeb247783</t>
+  </si>
+  <si>
+    <t>乐声 5-6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5c8986db2e1d</t>
+  </si>
+  <si>
+    <t>惊魂首映 5-6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d89df5658a16</t>
+  </si>
+  <si>
+    <t>漫画家之死 5-6开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/11650976f13a</t>
+  </si>
+  <si>
+    <t>禁止入内 5-6人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/467f755bb18c</t>
+  </si>
+  <si>
+    <t>滴血之瞳 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5f80a12a2d94</t>
+  </si>
+  <si>
+    <t>传说中的故事 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2ad16c92c895</t>
+  </si>
+  <si>
+    <t>红楼梦中人 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6bac467eb6f6</t>
+  </si>
+  <si>
+    <t>富豪之死 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/69c424fcb540</t>
+  </si>
+  <si>
+    <t>长生门 5-6人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d57753b80c6b</t>
+  </si>
+  <si>
+    <t>雪玉山 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f048cf2afecd</t>
+  </si>
+  <si>
+    <t>西门变 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ed70f07839d</t>
+  </si>
+  <si>
+    <t>江夏劫 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/be28eb7fece7</t>
+  </si>
+  <si>
+    <t>渡厄 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/68fe850f8581</t>
+  </si>
+  <si>
+    <t>颍汝流风 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3ddb8d4e4498</t>
+  </si>
+  <si>
+    <t>庆典前夜5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ba5a12d37c67</t>
+  </si>
+  <si>
+    <t>校园不可思议事件 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0535d2bc2a02</t>
+  </si>
+  <si>
+    <t>和平饭店 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/96575dcf411d</t>
+  </si>
+  <si>
+    <t>血海无涯 5-6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d6e25f171eab</t>
+  </si>
+  <si>
+    <t>马戏团事件 6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/044e806025b6</t>
+  </si>
+  <si>
+    <t>致命倒计时 6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/97f47aaf77a4</t>
+  </si>
+  <si>
+    <t>愤怒的葡萄 6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4769ed2da63d</t>
+  </si>
+  <si>
+    <t>老烟枪 6人封闭本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d2ba4178b779</t>
+  </si>
+  <si>
+    <t>夜总会杀人夜 6人封闭本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9a1075abd5c2</t>
+  </si>
+  <si>
+    <t>米兰凶杀案 6人封闭式</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a500574eaa6f</t>
+  </si>
+  <si>
+    <t>电梯恶魔 6人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f9f646a6371f</t>
+  </si>
+  <si>
+    <t>美术室杀人事件 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9c3d18f3f8aa</t>
+  </si>
+  <si>
+    <t>死亡致意 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/32d51b1f3360</t>
+  </si>
+  <si>
+    <t>怒海余生 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/14ede8796f8b</t>
+  </si>
+  <si>
+    <t>傀儡的记忆 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9cdb5d7c3433</t>
+  </si>
+  <si>
+    <t>神秘研究所 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/511ffaf7be2e</t>
+  </si>
+  <si>
+    <t>塞西尔迷雾 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aaf952f578f9</t>
+  </si>
+  <si>
+    <t>怪病侵袭 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9f19b563af95</t>
+  </si>
+  <si>
+    <t>中央贸易公司杀人事件 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/783a0303e936</t>
+  </si>
+  <si>
+    <t>电梯惊魂 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fbab44a468e9</t>
+  </si>
+  <si>
+    <t>穿越时空的爱 6人半开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c4e17bf12479</t>
+  </si>
+  <si>
+    <t>光棍节血案 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1b541ae369f2</t>
+  </si>
+  <si>
+    <t>人间 6-7人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/57c226791e5f</t>
+  </si>
+  <si>
+    <t>死去的女儿 6~7开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2eaf114cd60f</t>
+  </si>
+  <si>
+    <t>大名青龙街 6~7开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/72e39948fc7e</t>
+  </si>
+  <si>
+    <t>雨中的钟楼 6-7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a7abe651d760</t>
+  </si>
+  <si>
+    <t>兽心 6-7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0a1354a2063e</t>
+  </si>
+  <si>
+    <t>生死道 6-7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e30cfa1c3b2d</t>
+  </si>
+  <si>
+    <t>古堡迷踪 6-7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bdd9df4b0009</t>
+  </si>
+  <si>
+    <t>凝视深渊 6-7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/de11f38e54ea</t>
+  </si>
+  <si>
+    <t>万灵血6-7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d6478b54b440</t>
+  </si>
+  <si>
+    <t>酒红色的谋杀6-8人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/37f976a6eee0</t>
+  </si>
+  <si>
+    <t>致命遗嘱 6-11开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ab9cf71e6da1</t>
+  </si>
+  <si>
+    <t>奥伯利庄园 7人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/56a84a3efb1f</t>
+  </si>
+  <si>
+    <t>南瓜投毒者 7人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9914159ffa05</t>
+  </si>
+  <si>
+    <t>加勒比海悲剧 7人封闭本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/db3ef8601f4e</t>
+  </si>
+  <si>
+    <t>绝命派对 7人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b80461156691</t>
+  </si>
+  <si>
+    <t>修玛疑案 7人半开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f72450a06201</t>
+  </si>
+  <si>
+    <t>禁锢之塔 7人半开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c76439c6fd11</t>
+  </si>
+  <si>
+    <t>津门遗云 7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/54659c21c37b</t>
+  </si>
+  <si>
+    <t>血色牌局 7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a743344f480e</t>
+  </si>
+  <si>
+    <t>弈剑诀 7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f8d2c6a7b8eb</t>
+  </si>
+  <si>
+    <t>丹水山庄 7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b52efda1e829</t>
+  </si>
+  <si>
+    <t>未完结的爱 7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b5fdd85cca72</t>
+  </si>
+  <si>
+    <t>幽灵特快 7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/002290f44ba3</t>
+  </si>
+  <si>
+    <t>青龙山精神病院 7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/67cef72f5746</t>
+  </si>
+  <si>
+    <t>名捕4-皇宫 7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5e01843a34e5</t>
+  </si>
+  <si>
+    <t>临终遗言 7-8人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/06ab3f36069b</t>
+  </si>
+  <si>
+    <t>幽灵复仇 7-8人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/41720495da45</t>
+  </si>
+  <si>
+    <t>图纹窃案 8人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/961334e5b6ac</t>
+  </si>
+  <si>
+    <t>神秘岛 8人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/163c483c7028</t>
+  </si>
+  <si>
+    <t>沃特顿庄园 8人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8084a297fcf4</t>
+  </si>
+  <si>
+    <t>狂欢节的悲剧 8人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3ae05e69b308</t>
+  </si>
+  <si>
+    <t>校园七大不可思议之谜杀人事件 8人封闭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0241f4af20c1</t>
+  </si>
+  <si>
+    <t>飞弹机关宅邸杀人事件 8人封闭本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d4059b41d6ef</t>
   </si>
 </sst>
 </file>
@@ -822,7 +1386,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +1417,19 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1314,134 +1891,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,6 +2043,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1785,10 +2364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3126,6 +3705,1322 @@
       </c>
       <c r="D95" s="1" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="96" ht="15" spans="1:4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" ht="15" spans="1:4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" ht="15" spans="1:4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" ht="15" spans="1:4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" ht="15" spans="1:4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" ht="15" spans="1:4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" ht="15" spans="1:4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" ht="15" spans="1:4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" ht="15" spans="1:4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" ht="15" spans="1:4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" ht="15" spans="1:4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" ht="15" spans="1:4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="109" ht="15" spans="1:4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" ht="15" spans="1:4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" ht="15" spans="1:4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" ht="15" spans="1:4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" ht="15" spans="1:4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" ht="15" spans="1:4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" ht="15" spans="1:4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" ht="15" spans="1:4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="117" ht="15" spans="1:4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" ht="15" spans="1:4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" ht="15" spans="1:4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120" ht="15" spans="1:4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="121" ht="15" spans="1:4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" ht="15" spans="1:4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" ht="15" spans="1:4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" ht="15" spans="1:4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="125" ht="15" spans="1:4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" ht="15" spans="1:4">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" ht="15" spans="1:4">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="128" ht="15" spans="1:4">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" ht="15" spans="1:4">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" ht="15" spans="1:4">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" ht="15" spans="1:4">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="132" ht="15" spans="1:4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" ht="15" spans="1:4">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="134" ht="15" spans="1:4">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" ht="15" spans="1:4">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="136" ht="15" spans="1:4">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" ht="15" spans="1:4">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="138" ht="15" spans="1:4">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" ht="15" spans="1:4">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" ht="15" spans="1:4">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" ht="15" spans="1:4">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" ht="15" spans="1:4">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143" ht="15" spans="1:4">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="144" ht="15" spans="1:4">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" ht="15" spans="1:4">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" ht="15" spans="1:4">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="147" ht="15" spans="1:4">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="148" ht="15" spans="1:4">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" ht="15" spans="1:4">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" ht="15" spans="1:4">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" ht="15" spans="1:4">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="152" ht="15" spans="1:4">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="153" ht="15" spans="1:4">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="154" ht="15" spans="1:4">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="155" ht="15" spans="1:4">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="156" ht="15" spans="1:4">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="157" ht="15" spans="1:4">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" ht="15" spans="1:4">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="159" ht="15" spans="1:4">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="160" ht="15" spans="1:4">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="161" ht="15" spans="1:4">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="162" ht="15" spans="1:4">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="163" ht="15" spans="1:4">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="164" ht="15" spans="1:4">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="165" ht="15" spans="1:4">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="166" ht="15" spans="1:4">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="167" ht="15" spans="1:4">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="168" ht="15" spans="1:4">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="169" ht="15" spans="1:4">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="170" ht="15" spans="1:4">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="171" ht="15" spans="1:4">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" ht="15" spans="1:4">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="173" ht="15" spans="1:4">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="174" ht="15" spans="1:4">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="175" ht="15" spans="1:4">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="176" ht="15" spans="1:4">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="177" ht="15" spans="1:4">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="178" ht="15" spans="1:4">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="179" ht="15" spans="1:4">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="180" ht="15" spans="1:4">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="181" ht="15" spans="1:4">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="182" ht="15" spans="1:4">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="183" ht="15" spans="1:4">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="184" ht="15" spans="1:4">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="185" ht="15" spans="1:4">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="186" ht="15" spans="1:4">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="187" ht="15" spans="1:4">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="188" ht="15" spans="1:4">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189" ht="15" spans="1:4">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -3213,6 +5108,8 @@
     <hyperlink ref="D90" r:id="rId81" display="https://pan.quark.cn/s/2e10c6c7deed"/>
     <hyperlink ref="D91" r:id="rId82" display="https://pan.quark.cn/s/c01736bb9d87"/>
     <hyperlink ref="D61" r:id="rId83" display="https://pan.quark.cn/s/3a3303e54e4a"/>
+    <hyperlink ref="D96" r:id="rId84" display="https://pan.quark.cn/s/affbfdf5c09b" tooltip="https://pan.quark.cn/s/affbfdf5c09b"/>
+    <hyperlink ref="D97" r:id="rId85" display="https://pan.quark.cn/s/48b8370c77f2" tooltip="https://pan.quark.cn/s/48b8370c77f2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="467">
   <si>
     <t>id</t>
   </si>
@@ -1374,6 +1374,60 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/d4059b41d6ef</t>
+  </si>
+  <si>
+    <t>年轮（5人开放）</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/201ffd1f45b4</t>
+  </si>
+  <si>
+    <t>孽岛疑云完整版（5人半开放）</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/87eaa33b5866</t>
+  </si>
+  <si>
+    <t>窗边的女人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5def8c0d2715</t>
+  </si>
+  <si>
+    <t>不能说的秘密</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b42ce9b6b675</t>
+  </si>
+  <si>
+    <t>彩虹酒吧</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/983af58cdff9</t>
+  </si>
+  <si>
+    <t>神乐汤</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8029bf8be6c2</t>
+  </si>
+  <si>
+    <t>收藏馆怪谈夜</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/27b1c6b2f6e3</t>
+  </si>
+  <si>
+    <t>月落洼</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c73ff22a6f6f</t>
+  </si>
+  <si>
+    <t>中彩票</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d9c4cf0b4066</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1440,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1430,6 +1484,20 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1891,134 +1959,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2045,6 +2113,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2364,10 +2434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:A189"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5021,6 +5091,132 @@
       </c>
       <c r="D189" s="8" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="190" ht="15.5" spans="1:4">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="191" ht="15.5" spans="1:4">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="192" ht="15.5" spans="1:4">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="193" ht="15.5" spans="1:4">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="194" ht="15.5" spans="1:4">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="195" ht="15.5" spans="1:4">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="196" ht="15.5" spans="1:4">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="197" ht="15.5" spans="1:4">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="198" ht="15.5" spans="1:4">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="469">
   <si>
     <t>id</t>
   </si>
@@ -1428,6 +1428,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/d9c4cf0b4066</t>
+  </si>
+  <si>
+    <t>来电</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eb9d59102705</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2115,6 +2121,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2434,10 +2441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5145,7 +5152,7 @@
       <c r="C193" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D193" s="12" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5159,7 +5166,7 @@
       <c r="C194" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="12" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5173,7 +5180,7 @@
       <c r="C195" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="12" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5187,7 +5194,7 @@
       <c r="C196" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D196" s="11" t="s">
+      <c r="D196" s="12" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5201,7 +5208,7 @@
       <c r="C197" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D197" s="11" t="s">
+      <c r="D197" s="12" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5215,8 +5222,22 @@
       <c r="C198" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D198" s="11" t="s">
+      <c r="D198" s="12" t="s">
         <v>466</v>
+      </c>
+    </row>
+    <row r="199" ht="15.5" spans="1:4">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>467</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5306,6 +5327,13 @@
     <hyperlink ref="D61" r:id="rId83" display="https://pan.quark.cn/s/3a3303e54e4a"/>
     <hyperlink ref="D96" r:id="rId84" display="https://pan.quark.cn/s/affbfdf5c09b" tooltip="https://pan.quark.cn/s/affbfdf5c09b"/>
     <hyperlink ref="D97" r:id="rId85" display="https://pan.quark.cn/s/48b8370c77f2" tooltip="https://pan.quark.cn/s/48b8370c77f2"/>
+    <hyperlink ref="D198" r:id="rId86" display="https://pan.quark.cn/s/d9c4cf0b4066"/>
+    <hyperlink ref="D197" r:id="rId87" display="https://pan.quark.cn/s/c73ff22a6f6f"/>
+    <hyperlink ref="D196" r:id="rId88" display="https://pan.quark.cn/s/27b1c6b2f6e3"/>
+    <hyperlink ref="D195" r:id="rId89" display="https://pan.quark.cn/s/8029bf8be6c2"/>
+    <hyperlink ref="D194" r:id="rId90" display="https://pan.quark.cn/s/983af58cdff9"/>
+    <hyperlink ref="D193" r:id="rId91" display="https://pan.quark.cn/s/b42ce9b6b675"/>
+    <hyperlink ref="D199" r:id="rId92" display="https://pan.quark.cn/s/eb9d59102705" tooltip="https://pan.quark.cn/s/eb9d59102705"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="487">
   <si>
     <t>id</t>
   </si>
@@ -1434,6 +1434,60 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/eb9d59102705</t>
+  </si>
+  <si>
+    <t>雪乡连环杀人事件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cd96eb3e7191</t>
+  </si>
+  <si>
+    <t>月光下的持刀者</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/006d3dede28d</t>
+  </si>
+  <si>
+    <t>唐人街捉妖</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/af63167eaef6</t>
+  </si>
+  <si>
+    <t>谁与争疯</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2015da7140db</t>
+  </si>
+  <si>
+    <t>窥镜</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a5f57e15428e</t>
+  </si>
+  <si>
+    <t>一座城</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/83bc320afdd6</t>
+  </si>
+  <si>
+    <t>搞钱</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7c9a51360216</t>
+  </si>
+  <si>
+    <t>诡楼异事</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e7a16341e78f</t>
+  </si>
+  <si>
+    <t>上路</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d314b8afab24</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1500,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,13 +1544,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1965,130 +2012,130 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2120,8 +2167,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2441,10 +2490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5146,13 +5195,13 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C193" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D193" s="12" t="s">
+      <c r="C193" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D193" s="11" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5160,13 +5209,13 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C194" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D194" s="12" t="s">
+      <c r="C194" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D194" s="11" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5174,13 +5223,13 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C195" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D195" s="12" t="s">
+      <c r="C195" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D195" s="11" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5188,13 +5237,13 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C196" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D196" s="12" t="s">
+      <c r="C196" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D196" s="11" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5202,13 +5251,13 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C197" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D197" s="12" t="s">
+      <c r="C197" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D197" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5216,13 +5265,13 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C198" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D198" s="12" t="s">
+      <c r="C198" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D198" s="11" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5233,11 +5282,137 @@
       <c r="B199" t="s">
         <v>467</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="200" ht="15.5" spans="1:4">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>469</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="201" ht="15.5" spans="1:4">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>471</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="202" ht="15.5" spans="1:4">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>473</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="203" ht="15.5" spans="1:4">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>475</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="204" ht="15.5" spans="1:4">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>477</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="205" ht="15.5" spans="1:4">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>479</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="206" ht="15.5" spans="1:4">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>481</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="207" ht="15.5" spans="1:4">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>483</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="208" ht="15.5" spans="1:4">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>485</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5334,6 +5509,8 @@
     <hyperlink ref="D194" r:id="rId90" display="https://pan.quark.cn/s/983af58cdff9"/>
     <hyperlink ref="D193" r:id="rId91" display="https://pan.quark.cn/s/b42ce9b6b675"/>
     <hyperlink ref="D199" r:id="rId92" display="https://pan.quark.cn/s/eb9d59102705" tooltip="https://pan.quark.cn/s/eb9d59102705"/>
+    <hyperlink ref="D201" r:id="rId93" display="https://pan.quark.cn/s/006d3dede28d"/>
+    <hyperlink ref="D204" r:id="rId94" display="https://pan.quark.cn/s/a5f57e15428e"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="493">
   <si>
     <t>id</t>
   </si>
@@ -1488,6 +1488,24 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/d314b8afab24</t>
+  </si>
+  <si>
+    <t>病娇男孩的精分日记</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/992407d06077</t>
+  </si>
+  <si>
+    <t>桔梗物语</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/be629be38438</t>
+  </si>
+  <si>
+    <t>桐花中路私立协济医院怪谈</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3acf12cb40ce</t>
   </si>
 </sst>
 </file>
@@ -2490,10 +2508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5413,6 +5431,48 @@
       </c>
       <c r="D208" s="1" t="s">
         <v>486</v>
+      </c>
+    </row>
+    <row r="209" ht="15.5" spans="1:4">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>487</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="210" ht="15.5" spans="1:4">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>489</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="211" ht="15.5" spans="1:4">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>491</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="513">
   <si>
     <t>id</t>
   </si>
@@ -1506,6 +1506,66 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/3acf12cb40ce</t>
+  </si>
+  <si>
+    <t>冥婚</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f068a4ced401</t>
+  </si>
+  <si>
+    <t>下课后</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5e0b3ac31f4c</t>
+  </si>
+  <si>
+    <t>前男友的100种死法（5人开放）</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fed1f575fbcc</t>
+  </si>
+  <si>
+    <t>伟大的一生</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18e4d1179a90</t>
+  </si>
+  <si>
+    <t>双生探案</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4cebee2c01de</t>
+  </si>
+  <si>
+    <t>归途</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dadeb31fb09f</t>
+  </si>
+  <si>
+    <t>宇宙奇点</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2f53a947ddd3</t>
+  </si>
+  <si>
+    <t>我亲爱的侦探小姐</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f3eb88190670</t>
+  </si>
+  <si>
+    <t>天衣无缝</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ba2e3c99b0cf</t>
+  </si>
+  <si>
+    <t>消失的兔尾巴</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0f4cc8400664</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1578,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,6 +1622,13 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2030,13 +2097,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2045,119 +2109,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2189,6 +2256,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2508,10 +2577,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5473,6 +5542,146 @@
       </c>
       <c r="D211" s="1" t="s">
         <v>492</v>
+      </c>
+    </row>
+    <row r="212" ht="15.5" spans="1:4">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>493</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="213" ht="15.5" spans="1:4">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D213" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="214" ht="15.5" spans="1:4">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D214" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="215" ht="15.5" spans="1:4">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D215" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216" ht="15.5" spans="1:4">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="217" ht="15.5" spans="1:4">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="218" ht="15.5" spans="1:4">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D218" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="219" ht="15.5" spans="1:4">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="220" ht="15.5" spans="1:4">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="221" ht="15.5" spans="1:4">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5571,6 +5780,15 @@
     <hyperlink ref="D199" r:id="rId92" display="https://pan.quark.cn/s/eb9d59102705" tooltip="https://pan.quark.cn/s/eb9d59102705"/>
     <hyperlink ref="D201" r:id="rId93" display="https://pan.quark.cn/s/006d3dede28d"/>
     <hyperlink ref="D204" r:id="rId94" display="https://pan.quark.cn/s/a5f57e15428e"/>
+    <hyperlink ref="D213" r:id="rId95" display="https://pan.quark.cn/s/5e0b3ac31f4c"/>
+    <hyperlink ref="D214" r:id="rId96" display="https://pan.quark.cn/s/fed1f575fbcc"/>
+    <hyperlink ref="D215" r:id="rId97" display="https://pan.quark.cn/s/18e4d1179a90"/>
+    <hyperlink ref="D216" r:id="rId98" display="https://pan.quark.cn/s/4cebee2c01de"/>
+    <hyperlink ref="D217" r:id="rId99" display="https://pan.quark.cn/s/dadeb31fb09f"/>
+    <hyperlink ref="D218" r:id="rId100" display="https://pan.quark.cn/s/2f53a947ddd3"/>
+    <hyperlink ref="D219" r:id="rId101" display="https://pan.quark.cn/s/f3eb88190670"/>
+    <hyperlink ref="D220" r:id="rId102" display="https://pan.quark.cn/s/ba2e3c99b0cf"/>
+    <hyperlink ref="D221" r:id="rId103" display="https://pan.quark.cn/s/0f4cc8400664"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="518">
   <si>
     <t>id</t>
   </si>
@@ -1566,6 +1566,21 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/0f4cc8400664</t>
+  </si>
+  <si>
+    <t>记忆碎片</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/254afea42a52</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ac750687a1f4</t>
+  </si>
+  <si>
+    <t>江湖客栈 4人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3d6d703a1772</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1593,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1622,13 +1637,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2097,10 +2105,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2109,122 +2120,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2256,8 +2264,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2577,10 +2583,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+      <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5562,13 +5568,13 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="13" t="s">
+      <c r="B213" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C213" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D213" s="14" t="s">
+      <c r="C213" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D213" s="11" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5576,13 +5582,13 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="13" t="s">
+      <c r="B214" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C214" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D214" s="14" t="s">
+      <c r="C214" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D214" s="11" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5590,13 +5596,13 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="13" t="s">
+      <c r="B215" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C215" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D215" s="14" t="s">
+      <c r="C215" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D215" s="11" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5604,13 +5610,13 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="13" t="s">
+      <c r="B216" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C216" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D216" s="14" t="s">
+      <c r="C216" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D216" s="11" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5618,13 +5624,13 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="13" t="s">
+      <c r="B217" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C217" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D217" s="14" t="s">
+      <c r="C217" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D217" s="11" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5632,13 +5638,13 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="13" t="s">
+      <c r="B218" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C218" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D218" s="14" t="s">
+      <c r="C218" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D218" s="11" t="s">
         <v>506</v>
       </c>
     </row>
@@ -5646,13 +5652,13 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="B219" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C219" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D219" s="14" t="s">
+      <c r="C219" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D219" s="11" t="s">
         <v>508</v>
       </c>
     </row>
@@ -5660,13 +5666,13 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="B220" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C220" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D220" s="14" t="s">
+      <c r="C220" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D220" s="11" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5674,14 +5680,56 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B221" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C221" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D221" s="14" t="s">
+      <c r="C221" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D221" s="11" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="222" ht="15.5" spans="1:4">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>513</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="223" ht="15.5" spans="1:4">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>263</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="224" ht="15.5" spans="1:4">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>516</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="520">
   <si>
     <t>id</t>
   </si>
@@ -1581,6 +1581,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/3d6d703a1772</t>
+  </si>
+  <si>
+    <t>第二十二条校规</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f8efc138b594</t>
   </si>
 </sst>
 </file>
@@ -2583,10 +2589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224"/>
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5730,6 +5736,20 @@
       </c>
       <c r="D224" s="1" t="s">
         <v>517</v>
+      </c>
+    </row>
+    <row r="225" ht="15.5" spans="1:4">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>518</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="546">
   <si>
     <t>id</t>
   </si>
@@ -1587,6 +1587,84 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/f8efc138b594</t>
+  </si>
+  <si>
+    <t>赌王之王</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/43d8821d4a28</t>
+  </si>
+  <si>
+    <t>梭哈监狱</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/02738644fbb5</t>
+  </si>
+  <si>
+    <t>古木吟</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1a71ddf322ce</t>
+  </si>
+  <si>
+    <t>无间追凶</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0b1910713cde</t>
+  </si>
+  <si>
+    <t>陶宅夜话</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2fe0fac65ac5</t>
+  </si>
+  <si>
+    <t>无限逃亡噩梦</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/961d5f728ef9</t>
+  </si>
+  <si>
+    <t>死亡回响</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/116669ccefed</t>
+  </si>
+  <si>
+    <t>望雀</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1d663430e5d8</t>
+  </si>
+  <si>
+    <t>阿姐鼓</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c35721a520bf</t>
+  </si>
+  <si>
+    <t>双生 6人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9a6eaef2bd04</t>
+  </si>
+  <si>
+    <t>青楼 7人开放</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/134f9933fcc4</t>
+  </si>
+  <si>
+    <t>摸鱼</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/680ba05f1702</t>
+  </si>
+  <si>
+    <t>觉醒</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/86bad56f21ba</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1677,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1650,6 +1728,18 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2111,134 +2201,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2268,6 +2358,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2589,10 +2686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5636,7 +5733,7 @@
       <c r="C217" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D217" s="11" t="s">
+      <c r="D217" s="13" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5692,7 +5789,7 @@
       <c r="C221" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D221" s="13" t="s">
         <v>512</v>
       </c>
     </row>
@@ -5706,7 +5803,7 @@
       <c r="C222" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="5" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5720,7 +5817,7 @@
       <c r="C223" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="5" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5734,7 +5831,7 @@
       <c r="C224" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="5" t="s">
         <v>517</v>
       </c>
     </row>
@@ -5748,8 +5845,190 @@
       <c r="C225" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="5" t="s">
         <v>519</v>
+      </c>
+    </row>
+    <row r="226" ht="15.5" spans="1:4">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="227" ht="15.5" spans="1:4">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>522</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="228" ht="15.5" spans="1:4">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D228" s="15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="229" ht="15.5" spans="1:4">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D229" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="230" ht="15.5" spans="1:4">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D230" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" ht="15.5" spans="1:4">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D231" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="232" ht="15.5" spans="1:4">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="233" ht="15.5" spans="1:4">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D233" s="15" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="234" ht="15.5" spans="1:4">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D234" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="235" ht="15.5" spans="1:4">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>538</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="236" ht="15.5" spans="1:4">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D236" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="237" ht="15.5" spans="1:4">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D237" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="238" ht="15.5" spans="1:4">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D238" s="15" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -5857,6 +6136,13 @@
     <hyperlink ref="D219" r:id="rId101" display="https://pan.quark.cn/s/f3eb88190670"/>
     <hyperlink ref="D220" r:id="rId102" display="https://pan.quark.cn/s/ba2e3c99b0cf"/>
     <hyperlink ref="D221" r:id="rId103" display="https://pan.quark.cn/s/0f4cc8400664"/>
+    <hyperlink ref="D225" r:id="rId104" display="https://pan.quark.cn/s/f8efc138b594"/>
+    <hyperlink ref="D224" r:id="rId105" display="https://pan.quark.cn/s/3d6d703a1772"/>
+    <hyperlink ref="D223" r:id="rId106" display="https://pan.quark.cn/s/ac750687a1f4"/>
+    <hyperlink ref="D222" r:id="rId107" display="https://pan.quark.cn/s/254afea42a52"/>
+    <hyperlink ref="D226" r:id="rId108" display="https://pan.quark.cn/s/43d8821d4a28"/>
+    <hyperlink ref="D232" r:id="rId109" display="https://pan.quark.cn/s/116669ccefed"/>
+    <hyperlink ref="D235" r:id="rId110" display="https://pan.quark.cn/s/9a6eaef2bd04" tooltip="https://pan.quark.cn/s/9a6eaef2bd04"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="550">
   <si>
     <t>id</t>
   </si>
@@ -1665,6 +1665,18 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/86bad56f21ba</t>
+  </si>
+  <si>
+    <t>雾起云浮</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1ea4d15f4f5b</t>
+  </si>
+  <si>
+    <t>银子那点事</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0e90176f8d40</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1689,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,6 +1751,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2201,13 +2219,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2216,119 +2231,122 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2365,6 +2383,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2686,10 +2707,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D238"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5965,7 +5986,7 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="15" t="s">
+      <c r="B234" s="16" t="s">
         <v>536</v>
       </c>
       <c r="C234" s="10" t="s">
@@ -6029,6 +6050,34 @@
       </c>
       <c r="D238" s="15" t="s">
         <v>545</v>
+      </c>
+    </row>
+    <row r="239" ht="15.5" spans="1:4">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="240" ht="15.5" spans="1:4">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D240" s="15" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -6143,6 +6192,7 @@
     <hyperlink ref="D226" r:id="rId108" display="https://pan.quark.cn/s/43d8821d4a28"/>
     <hyperlink ref="D232" r:id="rId109" display="https://pan.quark.cn/s/116669ccefed"/>
     <hyperlink ref="D235" r:id="rId110" display="https://pan.quark.cn/s/9a6eaef2bd04" tooltip="https://pan.quark.cn/s/9a6eaef2bd04"/>
+    <hyperlink ref="D239" r:id="rId111" display="https://pan.quark.cn/s/1ea4d15f4f5b"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="567">
   <si>
     <t>id</t>
   </si>
@@ -1677,6 +1677,57 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/0e90176f8d40</t>
+  </si>
+  <si>
+    <t>一出好戏</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18eab6a5263d</t>
+  </si>
+  <si>
+    <t>大疫</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/714851fdaa7b</t>
+  </si>
+  <si>
+    <t>那些回不去的年少时光</t>
+  </si>
+  <si>
+    <t>剧集,国剧,电视剧,那些回不去的年少时光</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0430293ba257</t>
+  </si>
+  <si>
+    <t>小说,那些回不去的年少时光</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/450745a17172</t>
+  </si>
+  <si>
+    <t>大唐风华录</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/37984187ba0a</t>
+  </si>
+  <si>
+    <t>森林派对</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4ebbf1f83ec</t>
+  </si>
+  <si>
+    <t>逢山遇鬼</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ecba0a7aa4cf</t>
+  </si>
+  <si>
+    <t>万国来朝</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7ddddaa87f15</t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2386,6 +2437,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2707,10 +2764,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6078,6 +6135,118 @@
       </c>
       <c r="D240" s="15" t="s">
         <v>549</v>
+      </c>
+    </row>
+    <row r="241" ht="15.5" spans="1:4">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D241" s="18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="242" ht="15.5" spans="1:4">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D242" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>554</v>
+      </c>
+      <c r="C243" t="s">
+        <v>555</v>
+      </c>
+      <c r="D243" s="18" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>554</v>
+      </c>
+      <c r="C244" t="s">
+        <v>557</v>
+      </c>
+      <c r="D244" s="18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="245" ht="15.5" spans="1:4">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="246" ht="15.5" spans="1:4">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D246" s="18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="247" ht="15.5" spans="1:4">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D247" s="18" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="248" ht="15.5" spans="1:4">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>565</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -6193,6 +6362,7 @@
     <hyperlink ref="D232" r:id="rId109" display="https://pan.quark.cn/s/116669ccefed"/>
     <hyperlink ref="D235" r:id="rId110" display="https://pan.quark.cn/s/9a6eaef2bd04" tooltip="https://pan.quark.cn/s/9a6eaef2bd04"/>
     <hyperlink ref="D239" r:id="rId111" display="https://pan.quark.cn/s/1ea4d15f4f5b"/>
+    <hyperlink ref="D245" r:id="rId112" display="https://pan.quark.cn/s/37984187ba0a"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="571">
   <si>
     <t>id</t>
   </si>
@@ -1728,6 +1728,18 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/7ddddaa87f15</t>
+  </si>
+  <si>
+    <t>鲸鱼马戏团</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f3770b1c1936</t>
+  </si>
+  <si>
+    <t>山之神</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/11ed3ae4030e</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1752,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,6 +1820,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2270,13 +2288,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2285,119 +2300,122 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2443,6 +2461,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2764,10 +2785,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D248"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+      <selection activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6247,6 +6268,34 @@
       </c>
       <c r="D248" s="18" t="s">
         <v>566</v>
+      </c>
+    </row>
+    <row r="249" ht="15.5" spans="1:4">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="250" ht="15.5" spans="1:4">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="573">
   <si>
     <t>id</t>
   </si>
@@ -1740,6 +1740,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/11ed3ae4030e</t>
+  </si>
+  <si>
+    <t>消失的学号</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4160afceb5eb</t>
   </si>
 </sst>
 </file>
@@ -2415,7 +2421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2457,13 +2463,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2785,10 +2788,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6162,13 +6165,13 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="17" t="s">
+      <c r="B241" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C241" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D241" s="18" t="s">
+      <c r="D241" s="15" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6176,13 +6179,13 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="17" t="s">
+      <c r="B242" s="14" t="s">
         <v>552</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D242" s="18" t="s">
+      <c r="D242" s="15" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6196,7 +6199,7 @@
       <c r="C243" t="s">
         <v>555</v>
       </c>
-      <c r="D243" s="18" t="s">
+      <c r="D243" s="15" t="s">
         <v>556</v>
       </c>
     </row>
@@ -6210,7 +6213,7 @@
       <c r="C244" t="s">
         <v>557</v>
       </c>
-      <c r="D244" s="18" t="s">
+      <c r="D244" s="15" t="s">
         <v>558</v>
       </c>
     </row>
@@ -6218,7 +6221,7 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="18" t="s">
+      <c r="B245" s="15" t="s">
         <v>559</v>
       </c>
       <c r="C245" s="10" t="s">
@@ -6232,13 +6235,13 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="18" t="s">
+      <c r="B246" s="15" t="s">
         <v>561</v>
       </c>
       <c r="C246" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D246" s="18" t="s">
+      <c r="D246" s="15" t="s">
         <v>562</v>
       </c>
     </row>
@@ -6246,13 +6249,13 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="17" t="s">
+      <c r="B247" s="14" t="s">
         <v>563</v>
       </c>
       <c r="C247" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D247" s="18" t="s">
+      <c r="D247" s="15" t="s">
         <v>564</v>
       </c>
     </row>
@@ -6266,7 +6269,7 @@
       <c r="C248" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D248" s="18" t="s">
+      <c r="D248" s="15" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6274,7 +6277,7 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="19" t="s">
+      <c r="B249" s="17" t="s">
         <v>567</v>
       </c>
       <c r="C249" s="10" t="s">
@@ -6288,7 +6291,7 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="19" t="s">
+      <c r="B250" s="17" t="s">
         <v>569</v>
       </c>
       <c r="C250" s="10" t="s">
@@ -6296,6 +6299,20 @@
       </c>
       <c r="D250" s="1" t="s">
         <v>570</v>
+      </c>
+    </row>
+    <row r="251" ht="15.5" spans="1:4">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D251" s="18" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="581">
   <si>
     <t>id</t>
   </si>
@@ -1746,6 +1746,30 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/4160afceb5eb</t>
+  </si>
+  <si>
+    <t>娘娘千岁</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e90a30387e8a</t>
+  </si>
+  <si>
+    <t>校规2返校 开放6人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6f57d9c810ee</t>
+  </si>
+  <si>
+    <t>海龟浓汤</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4dbc36c2466e</t>
+  </si>
+  <si>
+    <t>猫岛谋杀循环</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0b14d6a09434</t>
   </si>
 </sst>
 </file>
@@ -2788,10 +2812,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C252" sqref="C252"/>
+      <selection activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6313,6 +6337,62 @@
       </c>
       <c r="D251" s="18" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="252" ht="15.5" spans="1:4">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D252" s="18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="253" ht="15.5" spans="1:4">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D253" s="18" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="254" ht="15.5" spans="1:4">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D254" s="18" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="255" ht="15.5" spans="1:4">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D255" s="18" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="593">
   <si>
     <t>id</t>
   </si>
@@ -1770,6 +1770,42 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/0b14d6a09434</t>
+  </si>
+  <si>
+    <t>消失的红宝石</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/894f859dfc36</t>
+  </si>
+  <si>
+    <t>余香</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/198e234c8236</t>
+  </si>
+  <si>
+    <t>幻方馆谋杀奇境</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3b82750f834e</t>
+  </si>
+  <si>
+    <t>疯人院</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4f3716054c34</t>
+  </si>
+  <si>
+    <t>消失的第五人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f5f1bd605ce9</t>
+  </si>
+  <si>
+    <t>恋物癖罪恶之花</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5a8bb3a68e82</t>
   </si>
 </sst>
 </file>
@@ -2812,10 +2848,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D255" sqref="D255"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6329,13 +6365,13 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="18" t="s">
+      <c r="B251" s="15" t="s">
         <v>571</v>
       </c>
       <c r="C251" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D251" s="18" t="s">
+      <c r="D251" s="15" t="s">
         <v>572</v>
       </c>
     </row>
@@ -6343,13 +6379,13 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="18" t="s">
+      <c r="B252" s="15" t="s">
         <v>573</v>
       </c>
       <c r="C252" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D252" s="18" t="s">
+      <c r="D252" s="15" t="s">
         <v>574</v>
       </c>
     </row>
@@ -6357,13 +6393,13 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="18" t="s">
+      <c r="B253" s="15" t="s">
         <v>575</v>
       </c>
       <c r="C253" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D253" s="18" t="s">
+      <c r="D253" s="15" t="s">
         <v>576</v>
       </c>
     </row>
@@ -6371,13 +6407,13 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="18" t="s">
+      <c r="B254" s="15" t="s">
         <v>577</v>
       </c>
       <c r="C254" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D254" s="18" t="s">
+      <c r="D254" s="15" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6385,14 +6421,98 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="18" t="s">
+      <c r="B255" s="15" t="s">
         <v>579</v>
       </c>
       <c r="C255" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D255" s="18" t="s">
+      <c r="D255" s="15" t="s">
         <v>580</v>
+      </c>
+    </row>
+    <row r="256" ht="15.5" spans="1:4">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D256" s="18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="257" ht="15.5" spans="1:4">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D257" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="258" ht="15.5" spans="1:4">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="259" ht="15.5" spans="1:4">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D259" s="18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="260" ht="15.5" spans="1:4">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>589</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="261" ht="15.5" spans="1:4">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D261" s="18" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -6509,6 +6629,8 @@
     <hyperlink ref="D235" r:id="rId110" display="https://pan.quark.cn/s/9a6eaef2bd04" tooltip="https://pan.quark.cn/s/9a6eaef2bd04"/>
     <hyperlink ref="D239" r:id="rId111" display="https://pan.quark.cn/s/1ea4d15f4f5b"/>
     <hyperlink ref="D245" r:id="rId112" display="https://pan.quark.cn/s/37984187ba0a"/>
+    <hyperlink ref="D258" r:id="rId113" display="https://pan.quark.cn/s/3b82750f834e"/>
+    <hyperlink ref="D260" r:id="rId114" display="https://pan.quark.cn/s/f5f1bd605ce9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$262</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="595">
   <si>
     <t>id</t>
   </si>
@@ -776,7 +779,7 @@
     <t>告别诗</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/2e10c6c7deed</t>
+    <t>https://pan.quark.cn/s/e9b40651eb72</t>
   </si>
   <si>
     <t>黑道家族</t>
@@ -1529,7 +1532,7 @@
     <t>伟大的一生</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/18e4d1179a90</t>
+    <t>https://pan.quark.cn/s/218996f5cd30</t>
   </si>
   <si>
     <t>双生探案</t>
@@ -1583,16 +1586,16 @@
     <t>https://pan.quark.cn/s/3d6d703a1772</t>
   </si>
   <si>
-    <t>第二十二条校规</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f8efc138b594</t>
+    <t>第二十二条校规2 返校</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f85e451fb168</t>
   </si>
   <si>
     <t>赌王之王</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/43d8821d4a28</t>
+    <t>https://pan.quark.cn/s/93ea0249dd1f</t>
   </si>
   <si>
     <t>梭哈监狱</t>
@@ -1604,7 +1607,7 @@
     <t>古木吟</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/1a71ddf322ce</t>
+    <t>https://pan.quark.cn/s/46caa6ce526f</t>
   </si>
   <si>
     <t>无间追凶</t>
@@ -1682,7 +1685,7 @@
     <t>一出好戏</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/18eab6a5263d</t>
+    <t>https://pan.quark.cn/s/b4b2ba001848</t>
   </si>
   <si>
     <t>大疫</t>
@@ -1709,7 +1712,7 @@
     <t>大唐风华录</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/37984187ba0a</t>
+    <t>https://pan.quark.cn/s/fdcec916c728</t>
   </si>
   <si>
     <t>森林派对</t>
@@ -1733,7 +1736,7 @@
     <t>鲸鱼马戏团</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/f3770b1c1936</t>
+    <t>https://pan.quark.cn/s/19f585188e01</t>
   </si>
   <si>
     <t>山之神</t>
@@ -1751,7 +1754,7 @@
     <t>娘娘千岁</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/e90a30387e8a</t>
+    <t>https://pan.quark.cn/s/1a2d133997cc</t>
   </si>
   <si>
     <t>校规2返校 开放6人</t>
@@ -1775,13 +1778,13 @@
     <t>消失的红宝石</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/894f859dfc36</t>
+    <t>https://pan.quark.cn/s/148a125f8001</t>
   </si>
   <si>
     <t>余香</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/198e234c8236</t>
+    <t>https://pan.quark.cn/s/e30eb1f6554e</t>
   </si>
   <si>
     <t>幻方馆谋杀奇境</t>
@@ -1805,7 +1808,13 @@
     <t>恋物癖罪恶之花</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/5a8bb3a68e82</t>
+    <t>https://pan.quark.cn/s/a0c2016b9435</t>
+  </si>
+  <si>
+    <t>二流货色</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/de5789df34f2</t>
   </si>
 </sst>
 </file>
@@ -1871,15 +1880,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2481,7 +2490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2513,20 +2522,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2847,11 +2865,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D261"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D265" sqref="D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2875,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:4">
+    <row r="2" ht="42" hidden="1" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2889,7 +2909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" hidden="1" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2903,7 +2923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" hidden="1" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2917,7 +2937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" hidden="1" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2931,7 +2951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" hidden="1" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2945,7 +2965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" hidden="1" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2959,7 +2979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" hidden="1" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2973,7 +2993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" hidden="1" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2987,7 +3007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:4">
+    <row r="10" ht="28" hidden="1" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3001,7 +3021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:4">
+    <row r="11" ht="28" hidden="1" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3015,7 +3035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" hidden="1" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3029,7 +3049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="42" spans="1:4">
+    <row r="13" ht="42" hidden="1" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3043,7 +3063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" hidden="1" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3057,7 +3077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="1:4">
+    <row r="15" ht="28" hidden="1" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3071,7 +3091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" hidden="1" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3085,7 +3105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" hidden="1" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3099,7 +3119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" hidden="1" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3113,7 +3133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" ht="28" spans="1:4">
+    <row r="19" ht="28" hidden="1" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3127,7 +3147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="1:4">
+    <row r="20" ht="28" hidden="1" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3141,7 +3161,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3155,7 +3175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" hidden="1" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3169,7 +3189,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" hidden="1" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3183,7 +3203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="28" spans="1:4">
+    <row r="24" ht="28" hidden="1" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3197,7 +3217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="1:4">
+    <row r="25" ht="28" hidden="1" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3211,7 +3231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" ht="28" spans="1:4">
+    <row r="26" ht="28" hidden="1" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3225,7 +3245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" hidden="1" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3239,7 +3259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" hidden="1" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3253,7 +3273,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" hidden="1" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3267,7 +3287,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" hidden="1" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3281,7 +3301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3295,7 +3315,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" hidden="1" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3309,7 +3329,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" hidden="1" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3323,7 +3343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" hidden="1" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3337,7 +3357,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" hidden="1" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3351,7 +3371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3365,7 +3385,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3379,7 +3399,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3393,7 +3413,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" hidden="1" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3407,7 +3427,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3421,7 +3441,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" hidden="1" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3435,7 +3455,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" hidden="1" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3449,7 +3469,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" hidden="1" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3463,7 +3483,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" hidden="1" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3477,7 +3497,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" ht="28" spans="1:4">
+    <row r="45" ht="28" hidden="1" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3491,7 +3511,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" ht="28" spans="1:4">
+    <row r="46" ht="28" hidden="1" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3505,7 +3525,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" ht="28" spans="1:4">
+    <row r="47" ht="28" hidden="1" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3519,7 +3539,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" hidden="1" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3533,7 +3553,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" ht="28" spans="1:4">
+    <row r="49" ht="28" hidden="1" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3547,7 +3567,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" hidden="1" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3561,7 +3581,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" hidden="1" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3575,7 +3595,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" ht="28" spans="1:4">
+    <row r="52" ht="28" hidden="1" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" ht="28" spans="1:4">
+    <row r="53" ht="28" hidden="1" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3603,7 +3623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" ht="42" spans="1:4">
+    <row r="54" ht="42" hidden="1" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3617,7 +3637,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" ht="28" spans="1:4">
+    <row r="55" ht="28" hidden="1" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3631,7 +3651,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" hidden="1" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3645,7 +3665,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" hidden="1" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3659,7 +3679,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" ht="42" spans="1:4">
+    <row r="58" ht="42" hidden="1" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3673,7 +3693,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" hidden="1" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3687,7 +3707,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" ht="28" spans="1:4">
+    <row r="60" ht="28" hidden="1" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3715,7 +3735,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" ht="28" spans="1:4">
+    <row r="62" ht="28" hidden="1" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3729,7 +3749,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" hidden="1" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3743,7 +3763,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3757,7 +3777,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" hidden="1" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3771,7 +3791,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" hidden="1" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3785,7 +3805,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" hidden="1" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3799,7 +3819,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" hidden="1" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3813,7 +3833,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" hidden="1" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3827,7 +3847,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" hidden="1" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3855,7 +3875,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" hidden="1" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3869,7 +3889,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" hidden="1" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3883,7 +3903,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" hidden="1" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3897,7 +3917,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3911,7 +3931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" hidden="1" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3925,7 +3945,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" hidden="1" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3939,7 +3959,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" hidden="1" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3953,7 +3973,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" hidden="1" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3967,7 +3987,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3981,7 +4001,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" hidden="1" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4005,11 +4025,11 @@
       <c r="C82" t="s">
         <v>179</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4023,7 +4043,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4037,7 +4057,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" hidden="1" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4051,7 +4071,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" hidden="1" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4121,7 +4141,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4145,7 +4165,7 @@
       <c r="C92" t="s">
         <v>179</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="5" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5517,7 +5537,7 @@
       <c r="C190" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="11" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5657,7 +5677,7 @@
       <c r="C200" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="5" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5685,7 +5705,7 @@
       <c r="C202" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="5" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5699,7 +5719,7 @@
       <c r="C203" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="5" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5727,7 +5747,7 @@
       <c r="C205" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="5" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5741,7 +5761,7 @@
       <c r="C206" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="5" t="s">
         <v>482</v>
       </c>
     </row>
@@ -5755,7 +5775,7 @@
       <c r="C207" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="5" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5769,7 +5789,7 @@
       <c r="C208" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="5" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5783,7 +5803,7 @@
       <c r="C209" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="5" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5797,7 +5817,7 @@
       <c r="C210" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="5" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5811,7 +5831,7 @@
       <c r="C211" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="5" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5825,7 +5845,7 @@
       <c r="C212" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="5" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5867,7 +5887,7 @@
       <c r="C215" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D215" s="11" t="s">
+      <c r="D215" s="13" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5895,7 +5915,7 @@
       <c r="C217" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D217" s="13" t="s">
+      <c r="D217" s="14" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5951,7 +5971,7 @@
       <c r="C221" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D221" s="13" t="s">
+      <c r="D221" s="14" t="s">
         <v>512</v>
       </c>
     </row>
@@ -6015,13 +6035,13 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="14" t="s">
+      <c r="B226" s="15" t="s">
         <v>520</v>
       </c>
       <c r="C226" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="D226" s="13" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6035,7 +6055,7 @@
       <c r="C227" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="5" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6043,13 +6063,13 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="16" t="s">
         <v>524</v>
       </c>
       <c r="C228" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D228" s="15" t="s">
+      <c r="D228" s="13" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6057,13 +6077,13 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="14" t="s">
+      <c r="B229" s="16" t="s">
         <v>526</v>
       </c>
       <c r="C229" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D229" s="15" t="s">
+      <c r="D229" s="12" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6071,13 +6091,13 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="15" t="s">
+      <c r="B230" s="17" t="s">
         <v>528</v>
       </c>
       <c r="C230" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D230" s="15" t="s">
+      <c r="D230" s="12" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6085,13 +6105,13 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="15" t="s">
+      <c r="B231" s="17" t="s">
         <v>530</v>
       </c>
       <c r="C231" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D231" s="15" t="s">
+      <c r="D231" s="12" t="s">
         <v>531</v>
       </c>
     </row>
@@ -6099,7 +6119,7 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="14" t="s">
+      <c r="B232" s="16" t="s">
         <v>532</v>
       </c>
       <c r="C232" s="10" t="s">
@@ -6113,13 +6133,13 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="14" t="s">
+      <c r="B233" s="16" t="s">
         <v>534</v>
       </c>
       <c r="C233" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D233" s="15" t="s">
+      <c r="D233" s="12" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6127,13 +6147,13 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="16" t="s">
+      <c r="B234" s="18" t="s">
         <v>536</v>
       </c>
       <c r="C234" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D234" s="15" t="s">
+      <c r="D234" s="12" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6155,13 +6175,13 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="14" t="s">
+      <c r="B236" s="16" t="s">
         <v>540</v>
       </c>
       <c r="C236" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D236" s="15" t="s">
+      <c r="D236" s="12" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6169,13 +6189,13 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="16" t="s">
         <v>542</v>
       </c>
       <c r="C237" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D237" s="15" t="s">
+      <c r="D237" s="12" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6183,13 +6203,13 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="15" t="s">
+      <c r="B238" s="17" t="s">
         <v>544</v>
       </c>
       <c r="C238" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D238" s="15" t="s">
+      <c r="D238" s="12" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6197,7 +6217,7 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="14" t="s">
+      <c r="B239" s="16" t="s">
         <v>546</v>
       </c>
       <c r="C239" s="10" t="s">
@@ -6211,13 +6231,13 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="16" t="s">
         <v>548</v>
       </c>
       <c r="C240" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D240" s="15" t="s">
+      <c r="D240" s="12" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6225,13 +6245,13 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="16" t="s">
         <v>550</v>
       </c>
       <c r="C241" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D241" s="15" t="s">
+      <c r="D241" s="13" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6239,17 +6259,17 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="14" t="s">
+      <c r="B242" s="16" t="s">
         <v>552</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D242" s="15" t="s">
+      <c r="D242" s="12" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" hidden="1" spans="1:4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6259,11 +6279,11 @@
       <c r="C243" t="s">
         <v>555</v>
       </c>
-      <c r="D243" s="15" t="s">
+      <c r="D243" s="17" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" hidden="1" spans="1:4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6273,7 +6293,7 @@
       <c r="C244" t="s">
         <v>557</v>
       </c>
-      <c r="D244" s="15" t="s">
+      <c r="D244" s="17" t="s">
         <v>558</v>
       </c>
     </row>
@@ -6281,13 +6301,13 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="15" t="s">
+      <c r="B245" s="17" t="s">
         <v>559</v>
       </c>
       <c r="C245" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D245" s="12" t="s">
+      <c r="D245" s="13" t="s">
         <v>560</v>
       </c>
     </row>
@@ -6295,13 +6315,13 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="15" t="s">
+      <c r="B246" s="17" t="s">
         <v>561</v>
       </c>
       <c r="C246" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D246" s="15" t="s">
+      <c r="D246" s="12" t="s">
         <v>562</v>
       </c>
     </row>
@@ -6309,13 +6329,13 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="14" t="s">
+      <c r="B247" s="16" t="s">
         <v>563</v>
       </c>
       <c r="C247" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D247" s="15" t="s">
+      <c r="D247" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -6329,7 +6349,7 @@
       <c r="C248" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D248" s="15" t="s">
+      <c r="D248" s="12" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6337,13 +6357,13 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="17" t="s">
+      <c r="B249" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D249" s="12" t="s">
         <v>568</v>
       </c>
     </row>
@@ -6351,13 +6371,13 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="17" t="s">
+      <c r="B250" s="20" t="s">
         <v>569</v>
       </c>
       <c r="C250" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="5" t="s">
         <v>570</v>
       </c>
     </row>
@@ -6365,13 +6385,13 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="15" t="s">
+      <c r="B251" s="17" t="s">
         <v>571</v>
       </c>
       <c r="C251" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D251" s="15" t="s">
+      <c r="D251" s="12" t="s">
         <v>572</v>
       </c>
     </row>
@@ -6379,13 +6399,13 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="15" t="s">
+      <c r="B252" s="21" t="s">
         <v>573</v>
       </c>
       <c r="C252" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D252" s="15" t="s">
+      <c r="D252" s="13" t="s">
         <v>574</v>
       </c>
     </row>
@@ -6393,13 +6413,13 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="15" t="s">
+      <c r="B253" s="17" t="s">
         <v>575</v>
       </c>
       <c r="C253" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D253" s="15" t="s">
+      <c r="D253" s="12" t="s">
         <v>576</v>
       </c>
     </row>
@@ -6407,13 +6427,13 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="15" t="s">
+      <c r="B254" s="17" t="s">
         <v>577</v>
       </c>
       <c r="C254" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D254" s="15" t="s">
+      <c r="D254" s="12" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6421,13 +6441,13 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="B255" s="17" t="s">
         <v>579</v>
       </c>
       <c r="C255" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D255" s="15" t="s">
+      <c r="D255" s="12" t="s">
         <v>580</v>
       </c>
     </row>
@@ -6435,13 +6455,13 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="18" t="s">
+      <c r="B256" s="21" t="s">
         <v>581</v>
       </c>
       <c r="C256" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D256" s="18" t="s">
+      <c r="D256" s="13" t="s">
         <v>582</v>
       </c>
     </row>
@@ -6449,13 +6469,13 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" s="17" t="s">
         <v>583</v>
       </c>
       <c r="C257" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="12" t="s">
         <v>584</v>
       </c>
     </row>
@@ -6463,7 +6483,7 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="18" t="s">
+      <c r="B258" s="17" t="s">
         <v>585</v>
       </c>
       <c r="C258" s="10" t="s">
@@ -6477,13 +6497,13 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="18" t="s">
+      <c r="B259" s="17" t="s">
         <v>587</v>
       </c>
       <c r="C259" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="D259" s="12" t="s">
         <v>588</v>
       </c>
     </row>
@@ -6505,17 +6525,39 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="18" t="s">
+      <c r="B261" s="21" t="s">
         <v>591</v>
       </c>
       <c r="C261" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="D261" s="13" t="s">
         <v>592</v>
       </c>
     </row>
+    <row r="262" ht="15.5" spans="1:4">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>594</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D262" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="剧本杀"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://pan.quark.cn/s/47fa7de74af7" tooltip="https://pan.quark.cn/s/47fa7de74af7"/>
     <hyperlink ref="D3" r:id="rId2" display="https://pan.quark.cn/s/f0a378f45f0b" tooltip="https://pan.quark.cn/s/f0a378f45f0b"/>
@@ -6595,42 +6637,76 @@
     <hyperlink ref="D85" r:id="rId76" display="https://pan.quark.cn/s/4c9a8a3dd24a"/>
     <hyperlink ref="D86" r:id="rId77" display="https://pan.quark.cn/s/d09674d89e0e"/>
     <hyperlink ref="D87" r:id="rId78" display="https://pan.quark.cn/s/34740225d834"/>
-    <hyperlink ref="D88" r:id="rId79" display="https://pan.quark.cn/s/96c9d2d2cbb5"/>
-    <hyperlink ref="D89" r:id="rId80" display="https://pan.quark.cn/s/75df5b4bb02e"/>
-    <hyperlink ref="D90" r:id="rId81" display="https://pan.quark.cn/s/2e10c6c7deed"/>
+    <hyperlink ref="D88" r:id="rId79" display="https://pan.quark.cn/s/96c9d2d2cbb5" tooltip="https://pan.quark.cn/s/96c9d2d2cbb5"/>
+    <hyperlink ref="D89" r:id="rId80" display="https://pan.quark.cn/s/75df5b4bb02e" tooltip="https://pan.quark.cn/s/75df5b4bb02e"/>
+    <hyperlink ref="D90" r:id="rId81" display="https://pan.quark.cn/s/e9b40651eb72" tooltip="https://pan.quark.cn/s/e9b40651eb72"/>
     <hyperlink ref="D91" r:id="rId82" display="https://pan.quark.cn/s/c01736bb9d87"/>
-    <hyperlink ref="D61" r:id="rId83" display="https://pan.quark.cn/s/3a3303e54e4a"/>
+    <hyperlink ref="D61" r:id="rId83" display="https://pan.quark.cn/s/3a3303e54e4a" tooltip="https://pan.quark.cn/s/3a3303e54e4a"/>
     <hyperlink ref="D96" r:id="rId84" display="https://pan.quark.cn/s/affbfdf5c09b" tooltip="https://pan.quark.cn/s/affbfdf5c09b"/>
     <hyperlink ref="D97" r:id="rId85" display="https://pan.quark.cn/s/48b8370c77f2" tooltip="https://pan.quark.cn/s/48b8370c77f2"/>
-    <hyperlink ref="D198" r:id="rId86" display="https://pan.quark.cn/s/d9c4cf0b4066"/>
-    <hyperlink ref="D197" r:id="rId87" display="https://pan.quark.cn/s/c73ff22a6f6f"/>
-    <hyperlink ref="D196" r:id="rId88" display="https://pan.quark.cn/s/27b1c6b2f6e3"/>
-    <hyperlink ref="D195" r:id="rId89" display="https://pan.quark.cn/s/8029bf8be6c2"/>
-    <hyperlink ref="D194" r:id="rId90" display="https://pan.quark.cn/s/983af58cdff9"/>
-    <hyperlink ref="D193" r:id="rId91" display="https://pan.quark.cn/s/b42ce9b6b675"/>
+    <hyperlink ref="D198" r:id="rId86" display="https://pan.quark.cn/s/d9c4cf0b4066" tooltip="https://pan.quark.cn/s/d9c4cf0b4066"/>
+    <hyperlink ref="D197" r:id="rId87" display="https://pan.quark.cn/s/c73ff22a6f6f" tooltip="https://pan.quark.cn/s/c73ff22a6f6f"/>
+    <hyperlink ref="D196" r:id="rId88" display="https://pan.quark.cn/s/27b1c6b2f6e3" tooltip="https://pan.quark.cn/s/27b1c6b2f6e3"/>
+    <hyperlink ref="D195" r:id="rId89" display="https://pan.quark.cn/s/8029bf8be6c2" tooltip="https://pan.quark.cn/s/8029bf8be6c2"/>
+    <hyperlink ref="D194" r:id="rId90" display="https://pan.quark.cn/s/983af58cdff9" tooltip="https://pan.quark.cn/s/983af58cdff9"/>
+    <hyperlink ref="D193" r:id="rId91" display="https://pan.quark.cn/s/b42ce9b6b675" tooltip="https://pan.quark.cn/s/b42ce9b6b675"/>
     <hyperlink ref="D199" r:id="rId92" display="https://pan.quark.cn/s/eb9d59102705" tooltip="https://pan.quark.cn/s/eb9d59102705"/>
-    <hyperlink ref="D201" r:id="rId93" display="https://pan.quark.cn/s/006d3dede28d"/>
+    <hyperlink ref="D201" r:id="rId93" display="https://pan.quark.cn/s/006d3dede28d" tooltip="https://pan.quark.cn/s/006d3dede28d"/>
     <hyperlink ref="D204" r:id="rId94" display="https://pan.quark.cn/s/a5f57e15428e"/>
-    <hyperlink ref="D213" r:id="rId95" display="https://pan.quark.cn/s/5e0b3ac31f4c"/>
-    <hyperlink ref="D214" r:id="rId96" display="https://pan.quark.cn/s/fed1f575fbcc"/>
-    <hyperlink ref="D215" r:id="rId97" display="https://pan.quark.cn/s/18e4d1179a90"/>
-    <hyperlink ref="D216" r:id="rId98" display="https://pan.quark.cn/s/4cebee2c01de"/>
-    <hyperlink ref="D217" r:id="rId99" display="https://pan.quark.cn/s/dadeb31fb09f"/>
-    <hyperlink ref="D218" r:id="rId100" display="https://pan.quark.cn/s/2f53a947ddd3"/>
-    <hyperlink ref="D219" r:id="rId101" display="https://pan.quark.cn/s/f3eb88190670"/>
-    <hyperlink ref="D220" r:id="rId102" display="https://pan.quark.cn/s/ba2e3c99b0cf"/>
-    <hyperlink ref="D221" r:id="rId103" display="https://pan.quark.cn/s/0f4cc8400664"/>
-    <hyperlink ref="D225" r:id="rId104" display="https://pan.quark.cn/s/f8efc138b594"/>
-    <hyperlink ref="D224" r:id="rId105" display="https://pan.quark.cn/s/3d6d703a1772"/>
-    <hyperlink ref="D223" r:id="rId106" display="https://pan.quark.cn/s/ac750687a1f4"/>
-    <hyperlink ref="D222" r:id="rId107" display="https://pan.quark.cn/s/254afea42a52"/>
-    <hyperlink ref="D226" r:id="rId108" display="https://pan.quark.cn/s/43d8821d4a28"/>
-    <hyperlink ref="D232" r:id="rId109" display="https://pan.quark.cn/s/116669ccefed"/>
-    <hyperlink ref="D235" r:id="rId110" display="https://pan.quark.cn/s/9a6eaef2bd04" tooltip="https://pan.quark.cn/s/9a6eaef2bd04"/>
-    <hyperlink ref="D239" r:id="rId111" display="https://pan.quark.cn/s/1ea4d15f4f5b"/>
-    <hyperlink ref="D245" r:id="rId112" display="https://pan.quark.cn/s/37984187ba0a"/>
-    <hyperlink ref="D258" r:id="rId113" display="https://pan.quark.cn/s/3b82750f834e"/>
-    <hyperlink ref="D260" r:id="rId114" display="https://pan.quark.cn/s/f5f1bd605ce9"/>
+    <hyperlink ref="D213" r:id="rId95" display="https://pan.quark.cn/s/5e0b3ac31f4c" tooltip="https://pan.quark.cn/s/5e0b3ac31f4c"/>
+    <hyperlink ref="D214" r:id="rId96" display="https://pan.quark.cn/s/fed1f575fbcc" tooltip="https://pan.quark.cn/s/fed1f575fbcc"/>
+    <hyperlink ref="D216" r:id="rId97" display="https://pan.quark.cn/s/4cebee2c01de" tooltip="https://pan.quark.cn/s/4cebee2c01de"/>
+    <hyperlink ref="D217" r:id="rId98" display="https://pan.quark.cn/s/dadeb31fb09f" tooltip="https://pan.quark.cn/s/dadeb31fb09f"/>
+    <hyperlink ref="D218" r:id="rId99" display="https://pan.quark.cn/s/2f53a947ddd3" tooltip="https://pan.quark.cn/s/2f53a947ddd3"/>
+    <hyperlink ref="D219" r:id="rId100" display="https://pan.quark.cn/s/f3eb88190670" tooltip="https://pan.quark.cn/s/f3eb88190670"/>
+    <hyperlink ref="D220" r:id="rId101" display="https://pan.quark.cn/s/ba2e3c99b0cf" tooltip="https://pan.quark.cn/s/ba2e3c99b0cf"/>
+    <hyperlink ref="D221" r:id="rId102" display="https://pan.quark.cn/s/0f4cc8400664"/>
+    <hyperlink ref="D225" r:id="rId103" display="https://pan.quark.cn/s/f85e451fb168" tooltip="https://pan.quark.cn/s/f85e451fb168"/>
+    <hyperlink ref="D224" r:id="rId104" display="https://pan.quark.cn/s/3d6d703a1772"/>
+    <hyperlink ref="D223" r:id="rId105" display="https://pan.quark.cn/s/ac750687a1f4"/>
+    <hyperlink ref="D222" r:id="rId106" display="https://pan.quark.cn/s/254afea42a52"/>
+    <hyperlink ref="D232" r:id="rId107" display="https://pan.quark.cn/s/116669ccefed" tooltip="https://pan.quark.cn/s/116669ccefed"/>
+    <hyperlink ref="D235" r:id="rId108" display="https://pan.quark.cn/s/9a6eaef2bd04" tooltip="https://pan.quark.cn/s/9a6eaef2bd04"/>
+    <hyperlink ref="D239" r:id="rId109" display="https://pan.quark.cn/s/1ea4d15f4f5b" tooltip="https://pan.quark.cn/s/1ea4d15f4f5b"/>
+    <hyperlink ref="D258" r:id="rId110" display="https://pan.quark.cn/s/3b82750f834e" tooltip="https://pan.quark.cn/s/3b82750f834e"/>
+    <hyperlink ref="D260" r:id="rId111" display="https://pan.quark.cn/s/f5f1bd605ce9" tooltip="https://pan.quark.cn/s/f5f1bd605ce9"/>
+    <hyperlink ref="D92" r:id="rId112" display="https://pan.quark.cn/s/95e2b562166b" tooltip="https://pan.quark.cn/s/95e2b562166b"/>
+    <hyperlink ref="D190" r:id="rId113" display="https://pan.quark.cn/s/201ffd1f45b4"/>
+    <hyperlink ref="D208" r:id="rId114" display="https://pan.quark.cn/s/d314b8afab24" tooltip="https://pan.quark.cn/s/d314b8afab24"/>
+    <hyperlink ref="D234" r:id="rId115" display="https://pan.quark.cn/s/c35721a520bf" tooltip="https://pan.quark.cn/s/c35721a520bf"/>
+    <hyperlink ref="D205" r:id="rId116" display="https://pan.quark.cn/s/83bc320afdd6" tooltip="https://pan.quark.cn/s/83bc320afdd6"/>
+    <hyperlink ref="D202" r:id="rId117" display="https://pan.quark.cn/s/af63167eaef6" tooltip="https://pan.quark.cn/s/af63167eaef6"/>
+    <hyperlink ref="D211" r:id="rId118" display="https://pan.quark.cn/s/3acf12cb40ce" tooltip="https://pan.quark.cn/s/3acf12cb40ce"/>
+    <hyperlink ref="D248" r:id="rId119" display="https://pan.quark.cn/s/7ddddaa87f15"/>
+    <hyperlink ref="D257" r:id="rId120" display="https://pan.quark.cn/s/e30eb1f6554e"/>
+    <hyperlink ref="D242" r:id="rId121" display="https://pan.quark.cn/s/714851fdaa7b"/>
+    <hyperlink ref="D250" r:id="rId122" display="https://pan.quark.cn/s/11ed3ae4030e"/>
+    <hyperlink ref="D229" r:id="rId123" display="https://pan.quark.cn/s/0b1910713cde" tooltip="https://pan.quark.cn/s/0b1910713cde"/>
+    <hyperlink ref="D231" r:id="rId124" display="https://pan.quark.cn/s/961d5f728ef9"/>
+    <hyperlink ref="D206" r:id="rId125" display="https://pan.quark.cn/s/7c9a51360216"/>
+    <hyperlink ref="D237" r:id="rId126" display="https://pan.quark.cn/s/680ba05f1702"/>
+    <hyperlink ref="D233" r:id="rId127" display="https://pan.quark.cn/s/1d663430e5d8"/>
+    <hyperlink ref="D227" r:id="rId128" display="https://pan.quark.cn/s/02738644fbb5"/>
+    <hyperlink ref="D210" r:id="rId129" display="https://pan.quark.cn/s/be629be38438" tooltip="https://pan.quark.cn/s/be629be38438"/>
+    <hyperlink ref="D254" r:id="rId130" display="https://pan.quark.cn/s/4dbc36c2466e"/>
+    <hyperlink ref="D251" r:id="rId131" display="https://pan.quark.cn/s/4160afceb5eb"/>
+    <hyperlink ref="D255" r:id="rId132" display="https://pan.quark.cn/s/0b14d6a09434"/>
+    <hyperlink ref="D209" r:id="rId133" display="https://pan.quark.cn/s/992407d06077"/>
+    <hyperlink ref="D238" r:id="rId134" display="https://pan.quark.cn/s/86bad56f21ba"/>
+    <hyperlink ref="D203" r:id="rId135" display="https://pan.quark.cn/s/2015da7140db"/>
+    <hyperlink ref="D247" r:id="rId136" display="https://pan.quark.cn/s/ecba0a7aa4cf"/>
+    <hyperlink ref="D200" r:id="rId137" display="https://pan.quark.cn/s/cd96eb3e7191" tooltip="https://pan.quark.cn/s/cd96eb3e7191"/>
+    <hyperlink ref="D240" r:id="rId138" display="https://pan.quark.cn/s/0e90176f8d40"/>
+    <hyperlink ref="D230" r:id="rId139" display="https://pan.quark.cn/s/2fe0fac65ac5"/>
+    <hyperlink ref="D82" r:id="rId140" display="https://pan.quark.cn/s/e8091058af8c"/>
+    <hyperlink ref="D262" r:id="rId141" display="https://pan.quark.cn/s/de5789df34f2"/>
+    <hyperlink ref="D236" r:id="rId142" display="https://pan.quark.cn/s/134f9933fcc4"/>
+    <hyperlink ref="D246" r:id="rId143" display="https://pan.quark.cn/s/e4ebbf1f83ec"/>
+    <hyperlink ref="D253" r:id="rId144" display="https://pan.quark.cn/s/6f57d9c810ee"/>
+    <hyperlink ref="D259" r:id="rId145" display="https://pan.quark.cn/s/4f3716054c34"/>
+    <hyperlink ref="D212" r:id="rId146" display="https://pan.quark.cn/s/f068a4ced401"/>
+    <hyperlink ref="D207" r:id="rId147" display="https://pan.quark.cn/s/e7a16341e78f"/>
+    <hyperlink ref="D249" r:id="rId148" display="https://pan.quark.cn/s/19f585188e01"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -2869,9 +2869,9 @@
   <dimension ref="A1:D262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D265" sqref="D265"/>
+      <selection pane="bottomLeft" activeCell="G258" sqref="G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$263</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="599">
   <si>
     <t>id</t>
   </si>
@@ -1815,6 +1815,18 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/de5789df34f2</t>
+  </si>
+  <si>
+    <t>群星落幕时</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ba02f7bd6ee5</t>
+  </si>
+  <si>
+    <t>隔墙有眼</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0330b3122066</t>
   </si>
 </sst>
 </file>
@@ -2532,9 +2544,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2545,6 +2554,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2865,13 +2877,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D262"/>
+  <sheetPr/>
+  <dimension ref="A1:D264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G258" sqref="G258"/>
+      <selection pane="bottomLeft" activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2895,7 +2907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="42" hidden="1" spans="1:4">
+    <row r="2" ht="42" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2909,7 +2921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2923,7 +2935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2951,7 +2963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2979,7 +2991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2993,7 +3005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3007,7 +3019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="28" hidden="1" spans="1:4">
+    <row r="10" ht="28" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3021,7 +3033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="28" hidden="1" spans="1:4">
+    <row r="11" ht="28" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3035,7 +3047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="42" hidden="1" spans="1:4">
+    <row r="13" ht="42" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:4">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" ht="28" hidden="1" spans="1:4">
+    <row r="15" ht="28" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3091,7 +3103,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3119,7 +3131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" ht="28" hidden="1" spans="1:4">
+    <row r="19" ht="28" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="28" hidden="1" spans="1:4">
+    <row r="20" ht="28" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3175,7 +3187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:4">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:4">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3203,7 +3215,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="28" hidden="1" spans="1:4">
+    <row r="24" ht="28" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="28" hidden="1" spans="1:4">
+    <row r="25" ht="28" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" ht="28" hidden="1" spans="1:4">
+    <row r="26" ht="28" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3245,7 +3257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3259,7 +3271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:4">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3287,7 +3299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3301,7 +3313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:4">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3315,7 +3327,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3329,7 +3341,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:4">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3343,7 +3355,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:4">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:4">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3371,7 +3383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:4">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3399,7 +3411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:4">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3413,7 +3425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:4">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3427,7 +3439,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:4">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3441,7 +3453,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:4">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:4">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3469,7 +3481,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:4">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3483,7 +3495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3497,7 +3509,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" ht="28" hidden="1" spans="1:4">
+    <row r="45" ht="28" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3511,7 +3523,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" ht="28" hidden="1" spans="1:4">
+    <row r="46" ht="28" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3525,7 +3537,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" ht="28" hidden="1" spans="1:4">
+    <row r="47" ht="28" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3539,7 +3551,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:4">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3553,7 +3565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" ht="28" hidden="1" spans="1:4">
+    <row r="49" ht="28" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3567,7 +3579,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:4">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3581,7 +3593,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3595,7 +3607,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" ht="28" hidden="1" spans="1:4">
+    <row r="52" ht="28" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3609,7 +3621,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" ht="28" hidden="1" spans="1:4">
+    <row r="53" ht="28" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3623,7 +3635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" ht="42" hidden="1" spans="1:4">
+    <row r="54" ht="42" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" ht="28" hidden="1" spans="1:4">
+    <row r="55" ht="28" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:4">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3665,7 +3677,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3679,7 +3691,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" ht="42" hidden="1" spans="1:4">
+    <row r="58" ht="42" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:4">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" ht="28" hidden="1" spans="1:4">
+    <row r="60" ht="28" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3735,7 +3747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" ht="28" hidden="1" spans="1:4">
+    <row r="62" ht="28" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3749,7 +3761,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:4">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3763,7 +3775,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3777,7 +3789,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3791,7 +3803,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3805,7 +3817,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:4">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3819,7 +3831,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:4">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3847,7 +3859,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3861,7 +3873,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3875,7 +3887,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:4">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3889,7 +3901,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:4">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3903,7 +3915,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:4">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3931,7 +3943,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:4">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3959,7 +3971,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:4">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3973,7 +3985,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:4">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4001,7 +4013,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4029,7 +4041,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4043,7 +4055,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:4">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4071,7 +4083,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4141,7 +4153,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6091,7 +6103,7 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="17" t="s">
+      <c r="B230" s="13" t="s">
         <v>528</v>
       </c>
       <c r="C230" s="10" t="s">
@@ -6105,7 +6117,7 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="17" t="s">
+      <c r="B231" s="13" t="s">
         <v>530</v>
       </c>
       <c r="C231" s="10" t="s">
@@ -6147,7 +6159,7 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="18" t="s">
+      <c r="B234" s="17" t="s">
         <v>536</v>
       </c>
       <c r="C234" s="10" t="s">
@@ -6203,7 +6215,7 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="17" t="s">
+      <c r="B238" s="13" t="s">
         <v>544</v>
       </c>
       <c r="C238" s="10" t="s">
@@ -6269,7 +6281,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:4">
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6279,11 +6291,11 @@
       <c r="C243" t="s">
         <v>555</v>
       </c>
-      <c r="D243" s="17" t="s">
+      <c r="D243" s="13" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:4">
+    <row r="244" spans="1:4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6293,7 +6305,7 @@
       <c r="C244" t="s">
         <v>557</v>
       </c>
-      <c r="D244" s="17" t="s">
+      <c r="D244" s="13" t="s">
         <v>558</v>
       </c>
     </row>
@@ -6301,7 +6313,7 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="17" t="s">
+      <c r="B245" s="13" t="s">
         <v>559</v>
       </c>
       <c r="C245" s="10" t="s">
@@ -6315,7 +6327,7 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="17" t="s">
+      <c r="B246" s="13" t="s">
         <v>561</v>
       </c>
       <c r="C246" s="10" t="s">
@@ -6357,7 +6369,7 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="19" t="s">
+      <c r="B249" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C249" s="10" t="s">
@@ -6371,7 +6383,7 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="20" t="s">
+      <c r="B250" s="19" t="s">
         <v>569</v>
       </c>
       <c r="C250" s="10" t="s">
@@ -6385,7 +6397,7 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="17" t="s">
+      <c r="B251" s="13" t="s">
         <v>571</v>
       </c>
       <c r="C251" s="10" t="s">
@@ -6399,7 +6411,7 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="21" t="s">
+      <c r="B252" s="20" t="s">
         <v>573</v>
       </c>
       <c r="C252" s="10" t="s">
@@ -6413,7 +6425,7 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="17" t="s">
+      <c r="B253" s="13" t="s">
         <v>575</v>
       </c>
       <c r="C253" s="10" t="s">
@@ -6427,7 +6439,7 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="17" t="s">
+      <c r="B254" s="13" t="s">
         <v>577</v>
       </c>
       <c r="C254" s="10" t="s">
@@ -6441,7 +6453,7 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="17" t="s">
+      <c r="B255" s="13" t="s">
         <v>579</v>
       </c>
       <c r="C255" s="10" t="s">
@@ -6455,7 +6467,7 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="21" t="s">
+      <c r="B256" s="20" t="s">
         <v>581</v>
       </c>
       <c r="C256" s="10" t="s">
@@ -6469,7 +6481,7 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="17" t="s">
+      <c r="B257" s="13" t="s">
         <v>583</v>
       </c>
       <c r="C257" s="10" t="s">
@@ -6483,7 +6495,7 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="17" t="s">
+      <c r="B258" s="13" t="s">
         <v>585</v>
       </c>
       <c r="C258" s="10" t="s">
@@ -6497,7 +6509,7 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="17" t="s">
+      <c r="B259" s="13" t="s">
         <v>587</v>
       </c>
       <c r="C259" s="10" t="s">
@@ -6525,7 +6537,7 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="21" t="s">
+      <c r="B261" s="20" t="s">
         <v>591</v>
       </c>
       <c r="C261" s="10" t="s">
@@ -6549,13 +6561,36 @@
         <v>594</v>
       </c>
     </row>
+    <row r="263" ht="15.5" spans="1:4">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="264" ht="15.5" spans="1:4">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D264" s="21" t="s">
+        <v>598</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D262" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="剧本杀"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D263" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -6707,6 +6742,7 @@
     <hyperlink ref="D212" r:id="rId146" display="https://pan.quark.cn/s/f068a4ced401"/>
     <hyperlink ref="D207" r:id="rId147" display="https://pan.quark.cn/s/e7a16341e78f"/>
     <hyperlink ref="D249" r:id="rId148" display="https://pan.quark.cn/s/19f585188e01"/>
+    <hyperlink ref="D263" r:id="rId149" display="https://pan.quark.cn/s/ba02f7bd6ee5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$264</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="609">
   <si>
     <t>id</t>
   </si>
@@ -1827,6 +1827,36 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/0330b3122066</t>
+  </si>
+  <si>
+    <t>雪夜城谜案</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/68718f8fd946</t>
+  </si>
+  <si>
+    <t>加个V呗</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9135afbb1fc2</t>
+  </si>
+  <si>
+    <t>嫌疑人X没有现身</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bc237772d620</t>
+  </si>
+  <si>
+    <t>躲猫猫</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aeba1716a49f</t>
+  </si>
+  <si>
+    <t>诡寓实录</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5fd668fc89c5</t>
   </si>
 </sst>
 </file>
@@ -2878,12 +2908,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D264"/>
+  <dimension ref="A1:D269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D266" sqref="D266"/>
+      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6565,7 +6595,7 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="21" t="s">
+      <c r="B263" s="13" t="s">
         <v>595</v>
       </c>
       <c r="C263" s="10" t="s">
@@ -6579,18 +6609,88 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="21" t="s">
+      <c r="B264" s="13" t="s">
         <v>597</v>
       </c>
       <c r="C264" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D264" s="21" t="s">
+      <c r="D264" s="13" t="s">
         <v>598</v>
       </c>
     </row>
+    <row r="265" ht="15.5" spans="1:4">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D265" s="21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="266" ht="15.5" spans="1:4">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D266" s="21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="267" ht="15.5" spans="1:4">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D267" s="21" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="268" ht="15.5" spans="1:4">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D268" s="21" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="269" ht="15.5" spans="1:4">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D269" s="21" t="s">
+        <v>608</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D263" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D264" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="613">
   <si>
     <t>id</t>
   </si>
@@ -1857,6 +1857,18 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/5fd668fc89c5</t>
+  </si>
+  <si>
+    <t>不要回答</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c04cbc664ff3</t>
+  </si>
+  <si>
+    <t>黑色星期五</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/717e7a680862</t>
   </si>
 </sst>
 </file>
@@ -2908,12 +2920,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
+      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6687,6 +6699,34 @@
       </c>
       <c r="D269" s="21" t="s">
         <v>608</v>
+      </c>
+    </row>
+    <row r="270" ht="15.5" spans="1:4">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D270" s="21" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="271" ht="15.5" spans="1:4">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D271" s="21" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -1835,13 +1835,53 @@
     <t>https://pan.quark.cn/s/68718f8fd946</t>
   </si>
   <si>
-    <t>加个V呗</t>
+    <r>
+      <t>加个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>呗</t>
+    </r>
   </si>
   <si>
     <t>https://pan.quark.cn/s/9135afbb1fc2</t>
   </si>
   <si>
-    <t>嫌疑人X没有现身</t>
+    <r>
+      <t>嫌疑人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有现身</t>
+    </r>
   </si>
   <si>
     <t>https://pan.quark.cn/s/bc237772d620</t>
@@ -2925,7 +2965,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
+      <selection pane="bottomLeft" activeCell="B274" sqref="B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6649,7 +6689,7 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="21" t="s">
+      <c r="B266" s="17" t="s">
         <v>601</v>
       </c>
       <c r="C266" s="10" t="s">
@@ -6663,7 +6703,7 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="21" t="s">
+      <c r="B267" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C267" s="10" t="s">

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="637">
   <si>
     <t>id</t>
   </si>
@@ -1909,6 +1909,78 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/717e7a680862</t>
+  </si>
+  <si>
+    <t>仁馨精神病院</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7238bd7db544</t>
+  </si>
+  <si>
+    <t>双影共秀</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a984f9feb600</t>
+  </si>
+  <si>
+    <t>与恶为邻的她</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/38cee15eeaa1</t>
+  </si>
+  <si>
+    <t>59分钟推理守则</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ca355a2c0c37</t>
+  </si>
+  <si>
+    <t>珠帘异梦</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2dfea09f9d3b</t>
+  </si>
+  <si>
+    <t>生死道</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fec73f86ad73</t>
+  </si>
+  <si>
+    <t>万灵血</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ce0ebdaf9769</t>
+  </si>
+  <si>
+    <t>杀马特驾到通通闪开</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dbda09ef8a4d</t>
+  </si>
+  <si>
+    <t>别在派对搞谋杀</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9808803ed573</t>
+  </si>
+  <si>
+    <t>爱幼妇产医院</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18f5ee8d2498</t>
+  </si>
+  <si>
+    <t>东京恐怖故事铃兰女校</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/739751d100b3</t>
+  </si>
+  <si>
+    <t>拆迁</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0ec092a63e5e</t>
   </si>
 </sst>
 </file>
@@ -2960,12 +3032,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B274" sqref="B274"/>
+      <selection pane="bottomLeft" activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6767,6 +6839,174 @@
       </c>
       <c r="D271" s="21" t="s">
         <v>612</v>
+      </c>
+    </row>
+    <row r="272" ht="15.5" spans="1:4">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D272" s="21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="273" ht="15.5" spans="1:4">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D273" s="21" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="274" ht="15.5" spans="1:4">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D274" s="21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="275" ht="15.5" spans="1:4">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D275" s="21" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="276" ht="15.5" spans="1:4">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D276" s="21" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="277" ht="15.5" spans="1:4">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D277" s="21" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="278" ht="15.5" spans="1:4">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D278" s="21" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="279" ht="15.5" spans="1:4">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D279" s="21" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="280" ht="15.5" spans="1:4">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D280" s="21" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="281" ht="15.5" spans="1:4">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D281" s="21" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="282" ht="15.5" spans="1:4">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="283" ht="15.5" spans="1:4">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="639">
   <si>
     <t>id</t>
   </si>
@@ -1981,6 +1981,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/0ec092a63e5e</t>
+  </si>
+  <si>
+    <t>当海风吹过我的坟墓</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/35224c9dc920</t>
   </si>
 </sst>
 </file>
@@ -3032,12 +3038,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C284" sqref="C284"/>
+      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -7007,6 +7013,20 @@
       </c>
       <c r="D283" s="21" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="284" ht="15.5" spans="1:4">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D284" s="21" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$284</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="641">
   <si>
     <t>id</t>
   </si>
@@ -1836,6 +1836,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>加个</t>
     </r>
     <r>
@@ -1862,6 +1868,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>嫌疑人</t>
     </r>
     <r>
@@ -1987,6 +1999,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/35224c9dc920</t>
+  </si>
+  <si>
+    <t>叫爸爸</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e47bc9790b4d</t>
   </si>
 </sst>
 </file>
@@ -3038,12 +3056,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
+      <selection pane="bottomLeft" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -6753,13 +6771,13 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="21" t="s">
+      <c r="B265" s="13" t="s">
         <v>599</v>
       </c>
       <c r="C265" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D265" s="21" t="s">
+      <c r="D265" s="13" t="s">
         <v>600</v>
       </c>
     </row>
@@ -6773,7 +6791,7 @@
       <c r="C266" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D266" s="21" t="s">
+      <c r="D266" s="13" t="s">
         <v>602</v>
       </c>
     </row>
@@ -6787,7 +6805,7 @@
       <c r="C267" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D267" s="21" t="s">
+      <c r="D267" s="13" t="s">
         <v>604</v>
       </c>
     </row>
@@ -6795,13 +6813,13 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="21" t="s">
+      <c r="B268" s="13" t="s">
         <v>605</v>
       </c>
       <c r="C268" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D268" s="21" t="s">
+      <c r="D268" s="13" t="s">
         <v>606</v>
       </c>
     </row>
@@ -6809,13 +6827,13 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="21" t="s">
+      <c r="B269" s="13" t="s">
         <v>607</v>
       </c>
       <c r="C269" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D269" s="21" t="s">
+      <c r="D269" s="13" t="s">
         <v>608</v>
       </c>
     </row>
@@ -6823,13 +6841,13 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="21" t="s">
+      <c r="B270" s="13" t="s">
         <v>609</v>
       </c>
       <c r="C270" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D270" s="21" t="s">
+      <c r="D270" s="13" t="s">
         <v>610</v>
       </c>
     </row>
@@ -6837,13 +6855,13 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="21" t="s">
+      <c r="B271" s="13" t="s">
         <v>611</v>
       </c>
       <c r="C271" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D271" s="21" t="s">
+      <c r="D271" s="13" t="s">
         <v>612</v>
       </c>
     </row>
@@ -6851,13 +6869,13 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="21" t="s">
+      <c r="B272" s="13" t="s">
         <v>613</v>
       </c>
       <c r="C272" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D272" s="21" t="s">
+      <c r="D272" s="13" t="s">
         <v>614</v>
       </c>
     </row>
@@ -6865,13 +6883,13 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="21" t="s">
+      <c r="B273" s="13" t="s">
         <v>615</v>
       </c>
       <c r="C273" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D273" s="21" t="s">
+      <c r="D273" s="13" t="s">
         <v>616</v>
       </c>
     </row>
@@ -6879,13 +6897,13 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="21" t="s">
+      <c r="B274" s="13" t="s">
         <v>617</v>
       </c>
       <c r="C274" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D274" s="21" t="s">
+      <c r="D274" s="13" t="s">
         <v>618</v>
       </c>
     </row>
@@ -6893,13 +6911,13 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="21" t="s">
+      <c r="B275" s="13" t="s">
         <v>619</v>
       </c>
       <c r="C275" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D275" s="21" t="s">
+      <c r="D275" s="13" t="s">
         <v>620</v>
       </c>
     </row>
@@ -6907,13 +6925,13 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="21" t="s">
+      <c r="B276" s="13" t="s">
         <v>621</v>
       </c>
       <c r="C276" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D276" s="21" t="s">
+      <c r="D276" s="13" t="s">
         <v>622</v>
       </c>
     </row>
@@ -6921,13 +6939,13 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="21" t="s">
+      <c r="B277" s="13" t="s">
         <v>623</v>
       </c>
       <c r="C277" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D277" s="21" t="s">
+      <c r="D277" s="13" t="s">
         <v>624</v>
       </c>
     </row>
@@ -6935,13 +6953,13 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="21" t="s">
+      <c r="B278" s="13" t="s">
         <v>625</v>
       </c>
       <c r="C278" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D278" s="21" t="s">
+      <c r="D278" s="13" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6949,13 +6967,13 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="21" t="s">
+      <c r="B279" s="13" t="s">
         <v>627</v>
       </c>
       <c r="C279" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D279" s="21" t="s">
+      <c r="D279" s="13" t="s">
         <v>628</v>
       </c>
     </row>
@@ -6963,13 +6981,13 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="21" t="s">
+      <c r="B280" s="13" t="s">
         <v>629</v>
       </c>
       <c r="C280" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D280" s="21" t="s">
+      <c r="D280" s="13" t="s">
         <v>630</v>
       </c>
     </row>
@@ -6977,13 +6995,13 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="21" t="s">
+      <c r="B281" s="13" t="s">
         <v>631</v>
       </c>
       <c r="C281" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D281" s="21" t="s">
+      <c r="D281" s="13" t="s">
         <v>632</v>
       </c>
     </row>
@@ -6991,13 +7009,13 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="21" t="s">
+      <c r="B282" s="13" t="s">
         <v>633</v>
       </c>
       <c r="C282" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D282" s="21" t="s">
+      <c r="D282" s="13" t="s">
         <v>634</v>
       </c>
     </row>
@@ -7005,13 +7023,13 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="21" t="s">
+      <c r="B283" s="13" t="s">
         <v>635</v>
       </c>
       <c r="C283" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="21" t="s">
+      <c r="D283" s="13" t="s">
         <v>636</v>
       </c>
     </row>
@@ -7019,18 +7037,32 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="21" t="s">
+      <c r="B284" s="13" t="s">
         <v>637</v>
       </c>
       <c r="C284" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D284" s="21" t="s">
+      <c r="D284" s="13" t="s">
         <v>638</v>
       </c>
     </row>
+    <row r="285" ht="15.5" spans="1:4">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D264" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D284" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$285</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="647">
   <si>
     <t>id</t>
   </si>
@@ -2005,6 +2005,24 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/e47bc9790b4d</t>
+  </si>
+  <si>
+    <t>雨夜感染者</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a23e007c6e4f</t>
+  </si>
+  <si>
+    <t>草台班子</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/71f801cf1e36</t>
+  </si>
+  <si>
+    <t>野狗不需要墓碑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/359281711734</t>
   </si>
 </sst>
 </file>
@@ -3056,12 +3074,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G270" sqref="G270"/>
+      <selection pane="bottomLeft" activeCell="F262" sqref="F262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -7051,18 +7069,60 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="21" t="s">
+      <c r="B285" s="13" t="s">
         <v>639</v>
       </c>
       <c r="C285" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D285" s="21" t="s">
+      <c r="D285" s="13" t="s">
         <v>640</v>
       </c>
     </row>
+    <row r="286" ht="15.5" spans="1:4">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D286" s="21" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="287" ht="15.5" spans="1:4">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D287" s="21" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="288" ht="15.5" spans="1:4">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D288" s="21" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D284" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D285" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$288</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="651">
   <si>
     <t>id</t>
   </si>
@@ -2023,6 +2023,18 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/359281711734</t>
+  </si>
+  <si>
+    <t>人皮灯笼</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/936af0ed13b7</t>
+  </si>
+  <si>
+    <t>科举</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d5c015c8daba</t>
   </si>
 </sst>
 </file>
@@ -2752,9 +2764,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3074,12 +3084,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D288"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F262" sqref="F262"/>
+      <selection pane="bottomLeft" activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -7089,7 +7099,7 @@
       <c r="C286" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D286" s="21" t="s">
+      <c r="D286" s="13" t="s">
         <v>642</v>
       </c>
     </row>
@@ -7097,13 +7107,13 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="21" t="s">
+      <c r="B287" s="13" t="s">
         <v>643</v>
       </c>
       <c r="C287" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D287" s="21" t="s">
+      <c r="D287" s="13" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7111,18 +7121,46 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="21" t="s">
+      <c r="B288" s="13" t="s">
         <v>645</v>
       </c>
       <c r="C288" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D288" s="21" t="s">
+      <c r="D288" s="13" t="s">
         <v>646</v>
       </c>
     </row>
+    <row r="289" ht="15" spans="1:4">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="C289" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D289" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="290" ht="15" spans="1:4">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="C290" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D290" s="21" t="s">
+        <v>650</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D285" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D288" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="655">
   <si>
     <t>id</t>
   </si>
@@ -2035,6 +2035,18 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/d5c015c8daba</t>
+  </si>
+  <si>
+    <t>嫌疑人x没有现身2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/931d63f66899</t>
+  </si>
+  <si>
+    <t>惊魂青金村</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/45f3d9d03966</t>
   </si>
 </sst>
 </file>
@@ -2710,7 +2722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2765,6 +2777,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3084,12 +3097,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D293" sqref="D293"/>
+      <selection pane="bottomLeft" activeCell="G225" sqref="G225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -7141,7 +7154,7 @@
       <c r="C289" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D289" s="21" t="s">
+      <c r="D289" s="22" t="s">
         <v>648</v>
       </c>
     </row>
@@ -7157,6 +7170,34 @@
       </c>
       <c r="D290" s="21" t="s">
         <v>650</v>
+      </c>
+    </row>
+    <row r="291" ht="15" spans="1:4">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="C291" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D291" s="21" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="292" ht="15" spans="1:4">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="C292" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D292" s="21" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -7313,6 +7354,7 @@
     <hyperlink ref="D207" r:id="rId147" display="https://pan.quark.cn/s/e7a16341e78f"/>
     <hyperlink ref="D249" r:id="rId148" display="https://pan.quark.cn/s/19f585188e01"/>
     <hyperlink ref="D263" r:id="rId149" display="https://pan.quark.cn/s/ba02f7bd6ee5"/>
+    <hyperlink ref="D289" r:id="rId150" display="https://pan.quark.cn/s/936af0ed13b7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$292</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="658">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>search_aliases</t>
+  </si>
+  <si>
     <t>keywords</t>
   </si>
   <si>
@@ -794,6 +797,9 @@
     <t>抓小三</t>
   </si>
   <si>
+    <t>抓小三,捉小三</t>
+  </si>
+  <si>
     <t>https://pan.quark.cn/s/95e2b562166b</t>
   </si>
   <si>
@@ -1770,6 +1776,9 @@
   </si>
   <si>
     <t>猫岛谋杀循环</t>
+  </si>
+  <si>
+    <t>猫岛谋杀循环,猫岛循环谋杀</t>
   </si>
   <si>
     <t>https://pan.quark.cn/s/0b14d6a09434</t>
@@ -2722,7 +2731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2776,7 +2785,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -3097,22 +3105,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D292"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G225" sqref="G225"/>
+      <selection pane="bottomLeft" activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="20.9166666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="33.0833333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="33.0833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3122,4239 +3130,4442 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="42" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" ht="28" spans="1:4">
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" ht="28" spans="1:4">
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="28" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" ht="42" spans="1:4">
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="42" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" ht="28" spans="1:4">
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" ht="28" spans="1:4">
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" ht="28" spans="1:4">
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" ht="28" spans="1:4">
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" ht="28" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" ht="28" spans="1:4">
+      <c r="E24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" ht="28" spans="1:4">
+      <c r="E25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" ht="28" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" ht="28" spans="1:4">
+      <c r="E44" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" ht="28" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" ht="28" spans="1:4">
+      <c r="E45" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" ht="28" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" ht="28" spans="1:4">
+      <c r="E46" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" ht="28" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="49" ht="28" spans="1:4">
+      <c r="E48" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" ht="28" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="52" ht="28" spans="1:4">
+      <c r="E51" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" ht="28" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="53" ht="28" spans="1:4">
+      <c r="E52" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" ht="28" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" ht="42" spans="1:4">
+      <c r="E53" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" ht="42" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="55" ht="28" spans="1:4">
+      <c r="E54" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" ht="28" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="58" ht="42" spans="1:4">
+      <c r="E57" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" ht="42" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" ht="28" spans="1:4">
+      <c r="E59" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" ht="28" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" ht="28" spans="1:4">
+      <c r="D61" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" ht="28" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" t="s">
         <v>182</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" t="s">
-        <v>196</v>
-      </c>
-      <c r="D70" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C72" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C74" t="s">
-        <v>196</v>
-      </c>
-      <c r="D74" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" t="s">
+        <v>197</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="D75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" t="s">
         <v>213</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
-      </c>
-      <c r="C77" t="s">
-        <v>213</v>
-      </c>
-      <c r="D77" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
-      </c>
-      <c r="C78" t="s">
-        <v>196</v>
-      </c>
-      <c r="D78" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="D78" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" t="s">
         <v>220</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
-      </c>
-      <c r="C80" t="s">
         <v>223</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
-      </c>
-      <c r="C81" t="s">
         <v>226</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" t="s">
-        <v>179</v>
-      </c>
-      <c r="D82" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="D82" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>230</v>
-      </c>
-      <c r="C83" t="s">
         <v>231</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" t="s">
         <v>234</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
-      </c>
-      <c r="C85" t="s">
         <v>237</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
-      </c>
-      <c r="C86" t="s">
         <v>240</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
-      </c>
-      <c r="C87" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" s="7" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="D87" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
-      </c>
-      <c r="C89" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="D89" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" t="s">
-        <v>179</v>
-      </c>
-      <c r="D90" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="D90" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
-      </c>
-      <c r="C91" t="s">
         <v>251</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>255</v>
+      </c>
+      <c r="D92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
-      </c>
-      <c r="C93" t="s">
-        <v>179</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>257</v>
+      </c>
+      <c r="D93" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C94" t="s">
-        <v>179</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>259</v>
+      </c>
+      <c r="D94" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" t="s">
-        <v>179</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="96" ht="15" spans="1:4">
+        <v>261</v>
+      </c>
+      <c r="D95" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" ht="15" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" ht="15" spans="1:4">
+        <v>263</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" ht="15" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" ht="15" spans="1:4">
+        <v>265</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" ht="15" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99" ht="15" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" ht="15" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C100" s="8"/>
       <c r="D100" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" ht="15" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C101" s="8"/>
       <c r="D101" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="102" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" ht="15" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="103" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" ht="15" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" ht="15" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C104" s="8"/>
       <c r="D104" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" ht="15" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C105" s="8"/>
       <c r="D105" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" ht="15" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C106" s="8"/>
       <c r="D106" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="107" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" ht="15" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C107" s="8"/>
       <c r="D107" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="108" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C108" s="8"/>
       <c r="D108" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="109" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" ht="15" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C109" s="8"/>
       <c r="D109" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="110" ht="15" spans="1:5">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C110" s="8"/>
       <c r="D110" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="111" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" ht="15" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C111" s="8"/>
       <c r="D111" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="112" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" ht="15" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C112" s="8"/>
       <c r="D112" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="113" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" ht="15" spans="1:5">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C113" s="8"/>
       <c r="D113" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="114" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" ht="15" spans="1:5">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C114" s="8"/>
       <c r="D114" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="115" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" ht="15" spans="1:5">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C115" s="8"/>
       <c r="D115" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="116" ht="15" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C116" s="8"/>
       <c r="D116" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="117" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" ht="15" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C117" s="8"/>
       <c r="D117" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="118" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118" ht="15" spans="1:5">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C118" s="8"/>
       <c r="D118" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="119" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="119" ht="15" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="120" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" ht="15" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C120" s="8"/>
       <c r="D120" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" ht="15" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C121" s="8"/>
       <c r="D121" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" ht="15" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C122" s="8"/>
       <c r="D122" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="123" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" ht="15" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="124" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" ht="15" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C124" s="8"/>
       <c r="D124" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="125" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" ht="15" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C125" s="8"/>
       <c r="D125" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="126" ht="15" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C126" s="8"/>
       <c r="D126" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" ht="15" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C127" s="8"/>
       <c r="D127" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" ht="15" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C128" s="8"/>
       <c r="D128" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="129" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" ht="15" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C129" s="8"/>
       <c r="D129" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="130" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="130" ht="15" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C130" s="8"/>
       <c r="D130" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="131" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="131" ht="15" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C131" s="8"/>
       <c r="D131" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="132" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="132" ht="15" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C132" s="8"/>
       <c r="D132" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="133" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="133" ht="15" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C133" s="8"/>
       <c r="D133" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="134" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" ht="15" spans="1:5">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C134" s="8"/>
       <c r="D134" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="135" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="135" ht="15" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C135" s="8"/>
       <c r="D135" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="136" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" ht="15" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C136" s="8"/>
       <c r="D136" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="137" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" ht="15" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C137" s="8"/>
       <c r="D137" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="138" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" ht="15" spans="1:5">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C138" s="8"/>
       <c r="D138" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="139" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" ht="15" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C139" s="8"/>
       <c r="D139" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="140" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="140" ht="15" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C140" s="8"/>
       <c r="D140" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="141" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="141" ht="15" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C141" s="8"/>
       <c r="D141" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="142" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" ht="15" spans="1:5">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C142" s="8"/>
       <c r="D142" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="143" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="143" ht="15" spans="1:5">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C143" s="8"/>
       <c r="D143" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="144" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" ht="15" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C144" s="8"/>
       <c r="D144" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="145" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145" ht="15" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C145" s="8"/>
       <c r="D145" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="146" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="146" ht="15" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C146" s="8"/>
       <c r="D146" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="147" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="147" ht="15" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C147" s="8"/>
       <c r="D147" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="148" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="148" ht="15" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C148" s="8"/>
       <c r="D148" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="149" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" ht="15" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C149" s="8"/>
       <c r="D149" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="150" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150" ht="15" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C150" s="8"/>
       <c r="D150" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="151" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="151" ht="15" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C151" s="8"/>
       <c r="D151" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="152" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="152" ht="15" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C152" s="8"/>
       <c r="D152" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="153" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="153" ht="15" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C153" s="8"/>
       <c r="D153" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="154" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="154" ht="15" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C154" s="8"/>
       <c r="D154" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="155" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="155" ht="15" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C155" s="8"/>
       <c r="D155" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="156" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="156" ht="15" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C156" s="8"/>
       <c r="D156" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="157" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" ht="15" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C157" s="8"/>
       <c r="D157" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="158" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="158" ht="15" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C158" s="8"/>
       <c r="D158" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="159" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="159" ht="15" spans="1:5">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C159" s="8"/>
       <c r="D159" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="160" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" ht="15" spans="1:5">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C160" s="8"/>
       <c r="D160" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="161" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="161" ht="15" spans="1:5">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C161" s="8"/>
       <c r="D161" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="162" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="162" ht="15" spans="1:5">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C162" s="8"/>
       <c r="D162" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="163" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163" ht="15" spans="1:5">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C163" s="8"/>
       <c r="D163" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="164" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="164" ht="15" spans="1:5">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C164" s="8"/>
       <c r="D164" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="165" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="165" ht="15" spans="1:5">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C165" s="8"/>
       <c r="D165" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="166" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="166" ht="15" spans="1:5">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C166" s="8"/>
       <c r="D166" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="167" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="167" ht="15" spans="1:5">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C167" s="8"/>
       <c r="D167" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="168" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="168" ht="15" spans="1:5">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C168" s="8"/>
       <c r="D168" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="169" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="169" ht="15" spans="1:5">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C169" s="8"/>
       <c r="D169" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="170" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="170" ht="15" spans="1:5">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C170" s="8"/>
       <c r="D170" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="171" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" ht="15" spans="1:5">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C171" s="8"/>
       <c r="D171" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="172" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="172" ht="15" spans="1:5">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C172" s="8"/>
       <c r="D172" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="173" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="173" ht="15" spans="1:5">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C173" s="8"/>
       <c r="D173" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="174" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="174" ht="15" spans="1:5">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C174" s="8"/>
       <c r="D174" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="175" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="175" ht="15" spans="1:5">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C175" s="8"/>
       <c r="D175" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="176" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="176" ht="15" spans="1:5">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C176" s="8"/>
       <c r="D176" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="177" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="177" ht="15" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C177" s="8"/>
       <c r="D177" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="178" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="178" ht="15" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C178" s="8"/>
       <c r="D178" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="179" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="179" ht="15" spans="1:5">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C179" s="8"/>
       <c r="D179" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="180" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="180" ht="15" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C180" s="8"/>
       <c r="D180" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="181" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="181" ht="15" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C181" s="8"/>
       <c r="D181" s="8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="182" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="182" ht="15" spans="1:5">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C182" s="8"/>
       <c r="D182" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="183" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="183" ht="15" spans="1:5">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C183" s="8"/>
       <c r="D183" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="184" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="184" ht="15" spans="1:5">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C184" s="8"/>
       <c r="D184" s="8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="185" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="185" ht="15" spans="1:5">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="C185" s="8"/>
       <c r="D185" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="186" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="186" ht="15" spans="1:5">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C186" s="8"/>
       <c r="D186" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="187" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="187" ht="15" spans="1:5">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C187" s="8"/>
       <c r="D187" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="188" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="188" ht="15" spans="1:5">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C188" s="8"/>
       <c r="D188" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="189" ht="15" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="189" ht="15" spans="1:5">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C189" s="8"/>
       <c r="D189" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="190" ht="15.5" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="190" ht="15.5" spans="1:5">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="191" ht="15.5" spans="1:4">
+        <v>451</v>
+      </c>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="191" ht="15.5" spans="1:5">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>179</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C191" s="10"/>
       <c r="D191" s="10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="192" ht="15.5" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="192" ht="15.5" spans="1:5">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>179</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C192" s="10"/>
       <c r="D192" s="10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="193" ht="15.5" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="193" ht="15.5" spans="1:5">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="194" ht="15.5" spans="1:4">
+        <v>457</v>
+      </c>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="194" ht="15.5" spans="1:5">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="195" ht="15.5" spans="1:4">
+        <v>459</v>
+      </c>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="195" ht="15.5" spans="1:5">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="196" ht="15.5" spans="1:4">
+        <v>461</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="196" ht="15.5" spans="1:5">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="197" ht="15.5" spans="1:4">
+        <v>463</v>
+      </c>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="197" ht="15.5" spans="1:5">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="198" ht="15.5" spans="1:4">
+        <v>465</v>
+      </c>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="198" ht="15.5" spans="1:5">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="199" ht="15.5" spans="1:4">
+        <v>467</v>
+      </c>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="199" ht="15.5" spans="1:5">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>467</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="200" ht="15.5" spans="1:4">
+        <v>469</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="200" ht="15.5" spans="1:5">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>469</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="201" ht="15.5" spans="1:4">
+        <v>471</v>
+      </c>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="201" ht="15.5" spans="1:5">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>471</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="202" ht="15.5" spans="1:4">
+        <v>473</v>
+      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="202" ht="15.5" spans="1:5">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>473</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="203" ht="15.5" spans="1:4">
+        <v>475</v>
+      </c>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="203" ht="15.5" spans="1:5">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>475</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="204" ht="15.5" spans="1:4">
+        <v>477</v>
+      </c>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="204" ht="15.5" spans="1:5">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>477</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D204" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="205" ht="15.5" spans="1:4">
+        <v>479</v>
+      </c>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="205" ht="15.5" spans="1:5">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>479</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="206" ht="15.5" spans="1:4">
+        <v>481</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="206" ht="15.5" spans="1:5">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>481</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="207" ht="15.5" spans="1:4">
+        <v>483</v>
+      </c>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="207" ht="15.5" spans="1:5">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>483</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="208" ht="15.5" spans="1:4">
+        <v>485</v>
+      </c>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="208" ht="15.5" spans="1:5">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>485</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="209" ht="15.5" spans="1:4">
+        <v>487</v>
+      </c>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="209" ht="15.5" spans="1:5">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>487</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="210" ht="15.5" spans="1:4">
+        <v>489</v>
+      </c>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="210" ht="15.5" spans="1:5">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>489</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="211" ht="15.5" spans="1:4">
+        <v>491</v>
+      </c>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="211" ht="15.5" spans="1:5">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>491</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="212" ht="15.5" spans="1:4">
+        <v>493</v>
+      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="212" ht="15.5" spans="1:5">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>493</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="213" ht="15.5" spans="1:4">
+        <v>495</v>
+      </c>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="213" ht="15.5" spans="1:5">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D213" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="214" ht="15.5" spans="1:4">
+        <v>497</v>
+      </c>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="214" ht="15.5" spans="1:5">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D214" s="11" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="215" ht="15.5" spans="1:4">
+        <v>499</v>
+      </c>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="215" ht="15.5" spans="1:5">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D215" s="13" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="216" ht="15.5" spans="1:4">
+        <v>501</v>
+      </c>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E215" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="216" ht="15.5" spans="1:5">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="217" ht="15.5" spans="1:4">
+        <v>503</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="217" ht="15.5" spans="1:5">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D217" s="14" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="218" ht="15.5" spans="1:4">
+        <v>505</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="218" ht="15.5" spans="1:5">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="219" ht="15.5" spans="1:4">
+        <v>507</v>
+      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="219" ht="15.5" spans="1:5">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="220" ht="15.5" spans="1:4">
+        <v>509</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="220" ht="15.5" spans="1:5">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="221" ht="15.5" spans="1:4">
+        <v>511</v>
+      </c>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="221" ht="15.5" spans="1:5">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D221" s="14" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="222" ht="15.5" spans="1:4">
+        <v>513</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E221" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="222" ht="15.5" spans="1:5">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>513</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="223" ht="15.5" spans="1:4">
+        <v>515</v>
+      </c>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="223" ht="15.5" spans="1:5">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>263</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="224" ht="15.5" spans="1:4">
+        <v>265</v>
+      </c>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="224" ht="15.5" spans="1:5">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>516</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="225" ht="15.5" spans="1:4">
+        <v>518</v>
+      </c>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="225" ht="15.5" spans="1:5">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>518</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="226" ht="15.5" spans="1:4">
+        <v>520</v>
+      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="226" ht="15.5" spans="1:5">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="227" ht="15.5" spans="1:4">
+        <v>522</v>
+      </c>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E226" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="227" ht="15.5" spans="1:5">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>522</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="228" ht="15.5" spans="1:4">
+        <v>524</v>
+      </c>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="228" ht="15.5" spans="1:5">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D228" s="13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="229" ht="15.5" spans="1:4">
+        <v>526</v>
+      </c>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="229" ht="15.5" spans="1:5">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D229" s="12" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="230" ht="15.5" spans="1:4">
+        <v>528</v>
+      </c>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E229" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="230" ht="15.5" spans="1:5">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D230" s="12" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="231" ht="15.5" spans="1:4">
+        <v>530</v>
+      </c>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E230" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="231" ht="15.5" spans="1:5">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D231" s="12" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="232" ht="15.5" spans="1:4">
+        <v>532</v>
+      </c>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="232" ht="15.5" spans="1:5">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D232" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="233" ht="15.5" spans="1:4">
+        <v>534</v>
+      </c>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="233" ht="15.5" spans="1:5">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D233" s="12" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="234" ht="15.5" spans="1:4">
+        <v>536</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E233" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="234" ht="15.5" spans="1:5">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="235" ht="15.5" spans="1:4">
+        <v>538</v>
+      </c>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="235" ht="15.5" spans="1:5">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>538</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="236" ht="15.5" spans="1:4">
+        <v>540</v>
+      </c>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="236" ht="15.5" spans="1:5">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D236" s="12" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="237" ht="15.5" spans="1:4">
+        <v>542</v>
+      </c>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="237" ht="15.5" spans="1:5">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D237" s="12" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="238" ht="15.5" spans="1:4">
+        <v>544</v>
+      </c>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="238" ht="15.5" spans="1:5">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D238" s="12" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="239" ht="15.5" spans="1:4">
+        <v>546</v>
+      </c>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="239" ht="15.5" spans="1:5">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D239" s="12" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="240" ht="15.5" spans="1:4">
+        <v>548</v>
+      </c>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="240" ht="15.5" spans="1:5">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D240" s="12" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="241" ht="15.5" spans="1:4">
+        <v>550</v>
+      </c>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="241" ht="15.5" spans="1:5">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D241" s="13" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="242" ht="15.5" spans="1:4">
+        <v>552</v>
+      </c>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="242" ht="15.5" spans="1:5">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D242" s="12" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>554</v>
+      </c>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>554</v>
-      </c>
-      <c r="C243" t="s">
-        <v>555</v>
-      </c>
-      <c r="D243" s="13" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="D243" t="s">
+        <v>557</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>554</v>
-      </c>
-      <c r="C244" t="s">
-        <v>557</v>
-      </c>
-      <c r="D244" s="13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="245" ht="15.5" spans="1:4">
+        <v>556</v>
+      </c>
+      <c r="D244" t="s">
+        <v>559</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="245" ht="15.5" spans="1:5">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D245" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="246" ht="15.5" spans="1:4">
+        <v>561</v>
+      </c>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="246" ht="15.5" spans="1:5">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D246" s="12" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="247" ht="15.5" spans="1:4">
+        <v>563</v>
+      </c>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="247" ht="15.5" spans="1:5">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D247" s="12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="248" ht="15.5" spans="1:4">
+        <v>565</v>
+      </c>
+      <c r="C247" s="10"/>
+      <c r="D247" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="248" ht="15.5" spans="1:5">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>565</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D248" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="249" ht="15.5" spans="1:4">
+        <v>567</v>
+      </c>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="249" ht="15.5" spans="1:5">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D249" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="250" ht="15.5" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="250" ht="15.5" spans="1:5">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="251" ht="15.5" spans="1:4">
+        <v>571</v>
+      </c>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="251" ht="15.5" spans="1:5">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D251" s="12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="252" ht="15.5" spans="1:4">
+        <v>573</v>
+      </c>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="252" ht="15.5" spans="1:5">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D252" s="13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="253" ht="15.5" spans="1:4">
+        <v>575</v>
+      </c>
+      <c r="C252" s="10"/>
+      <c r="D252" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="253" ht="15.5" spans="1:5">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D253" s="12" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="254" ht="15.5" spans="1:4">
+        <v>577</v>
+      </c>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="254" ht="15.5" spans="1:5">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D254" s="12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="255" ht="15.5" spans="1:4">
+        <v>579</v>
+      </c>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="255" ht="15.5" spans="1:5">
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="13" t="s">
-        <v>579</v>
+      <c r="B255" s="17" t="s">
+        <v>581</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="256" ht="15.5" spans="1:4">
+        <v>582</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="256" ht="15.5" spans="1:5">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D256" s="13" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="257" ht="15.5" spans="1:4">
+        <v>584</v>
+      </c>
+      <c r="C256" s="10"/>
+      <c r="D256" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="257" ht="15.5" spans="1:5">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D257" s="12" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="258" ht="15.5" spans="1:4">
+        <v>586</v>
+      </c>
+      <c r="C257" s="10"/>
+      <c r="D257" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="258" ht="15.5" spans="1:5">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>585</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D258" s="12" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="259" ht="15.5" spans="1:4">
+        <v>588</v>
+      </c>
+      <c r="C258" s="10"/>
+      <c r="D258" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="259" ht="15.5" spans="1:5">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D259" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="260" ht="15.5" spans="1:4">
+        <v>590</v>
+      </c>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="260" ht="15.5" spans="1:5">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>589</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="261" ht="15.5" spans="1:4">
+        <v>592</v>
+      </c>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="261" ht="15.5" spans="1:5">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="262" ht="15.5" spans="1:4">
+        <v>594</v>
+      </c>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="262" ht="15.5" spans="1:5">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D262" s="12" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="263" ht="15.5" spans="1:4">
+        <v>596</v>
+      </c>
+      <c r="C262" s="10"/>
+      <c r="D262" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="263" ht="15.5" spans="1:5">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="264" ht="15.5" spans="1:4">
+        <v>598</v>
+      </c>
+      <c r="C263" s="10"/>
+      <c r="D263" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="264" ht="15.5" spans="1:5">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D264" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="265" ht="15.5" spans="1:4">
+        <v>600</v>
+      </c>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="265" ht="15.5" spans="1:5">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D265" s="13" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="266" ht="15.5" spans="1:4">
+        <v>602</v>
+      </c>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="266" ht="15.5" spans="1:5">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D266" s="13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="267" ht="15.5" spans="1:4">
+        <v>604</v>
+      </c>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="267" ht="15.5" spans="1:5">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D267" s="13" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="268" ht="15.5" spans="1:4">
+        <v>606</v>
+      </c>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="268" ht="15.5" spans="1:5">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="C268" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D268" s="13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="269" ht="15.5" spans="1:4">
+        <v>608</v>
+      </c>
+      <c r="C268" s="10"/>
+      <c r="D268" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="269" ht="15.5" spans="1:5">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D269" s="13" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="270" ht="15.5" spans="1:4">
+        <v>610</v>
+      </c>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="270" ht="15.5" spans="1:5">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D270" s="13" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="271" ht="15.5" spans="1:4">
+        <v>612</v>
+      </c>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="271" ht="15.5" spans="1:5">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D271" s="13" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="272" ht="15.5" spans="1:4">
+        <v>614</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="272" ht="15.5" spans="1:5">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D272" s="13" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="273" ht="15.5" spans="1:4">
+        <v>616</v>
+      </c>
+      <c r="C272" s="10"/>
+      <c r="D272" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="273" ht="15.5" spans="1:5">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D273" s="13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="274" ht="15.5" spans="1:4">
+        <v>618</v>
+      </c>
+      <c r="C273" s="10"/>
+      <c r="D273" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="274" ht="15.5" spans="1:5">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D274" s="13" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="275" ht="15.5" spans="1:4">
+        <v>620</v>
+      </c>
+      <c r="C274" s="10"/>
+      <c r="D274" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="275" ht="15.5" spans="1:5">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="C275" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D275" s="13" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="276" ht="15.5" spans="1:4">
+        <v>622</v>
+      </c>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="276" ht="15.5" spans="1:5">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D276" s="13" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="277" ht="15.5" spans="1:4">
+        <v>624</v>
+      </c>
+      <c r="C276" s="10"/>
+      <c r="D276" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E276" s="13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="277" ht="15.5" spans="1:5">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D277" s="13" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="278" ht="15.5" spans="1:4">
+        <v>626</v>
+      </c>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E277" s="13" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="278" ht="15.5" spans="1:5">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="C278" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D278" s="13" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="279" ht="15.5" spans="1:4">
+        <v>628</v>
+      </c>
+      <c r="C278" s="10"/>
+      <c r="D278" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="279" ht="15.5" spans="1:5">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D279" s="13" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="280" ht="15.5" spans="1:4">
+        <v>630</v>
+      </c>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E279" s="13" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="280" ht="15.5" spans="1:5">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="C280" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D280" s="13" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="281" ht="15.5" spans="1:4">
+        <v>632</v>
+      </c>
+      <c r="C280" s="10"/>
+      <c r="D280" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="281" ht="15.5" spans="1:5">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="C281" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D281" s="13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="282" ht="15.5" spans="1:4">
+        <v>634</v>
+      </c>
+      <c r="C281" s="10"/>
+      <c r="D281" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E281" s="13" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="282" ht="15.5" spans="1:5">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D282" s="13" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="283" ht="15.5" spans="1:4">
+        <v>636</v>
+      </c>
+      <c r="C282" s="10"/>
+      <c r="D282" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="283" ht="15.5" spans="1:5">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D283" s="13" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="284" ht="15.5" spans="1:4">
+        <v>638</v>
+      </c>
+      <c r="C283" s="10"/>
+      <c r="D283" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="284" ht="15.5" spans="1:5">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>637</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D284" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="285" ht="15.5" spans="1:4">
+        <v>640</v>
+      </c>
+      <c r="C284" s="10"/>
+      <c r="D284" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="285" ht="15.5" spans="1:5">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="C285" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D285" s="13" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="286" ht="15.5" spans="1:4">
+        <v>642</v>
+      </c>
+      <c r="C285" s="10"/>
+      <c r="D285" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="286" ht="15.5" spans="1:5">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D286" s="13" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="287" ht="15.5" spans="1:4">
+        <v>644</v>
+      </c>
+      <c r="C286" s="10"/>
+      <c r="D286" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E286" s="13" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="287" ht="15.5" spans="1:5">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D287" s="13" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" ht="15.5" spans="1:4">
+        <v>646</v>
+      </c>
+      <c r="C287" s="10"/>
+      <c r="D287" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E287" s="13" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="288" ht="15.5" spans="1:5">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D288" s="13" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="289" ht="15" spans="1:4">
+        <v>648</v>
+      </c>
+      <c r="C288" s="10"/>
+      <c r="D288" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E288" s="13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="289" ht="15" spans="1:5">
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="C289" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D289" s="22" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="290" ht="15" spans="1:4">
+      <c r="B289" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C289" s="8"/>
+      <c r="D289" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E289" s="21" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="290" ht="15" spans="1:5">
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="21" t="s">
-        <v>649</v>
-      </c>
-      <c r="C290" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D290" s="21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="291" ht="15" spans="1:4">
+      <c r="B290" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="291" ht="15" spans="1:5">
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="21" t="s">
-        <v>651</v>
-      </c>
-      <c r="C291" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D291" s="21" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="292" ht="15" spans="1:4">
+      <c r="B291" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="292" ht="15" spans="1:5">
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="21" t="s">
-        <v>653</v>
-      </c>
-      <c r="C292" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D292" s="21" t="s">
-        <v>654</v>
+      <c r="B292" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D288" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E292" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://pan.quark.cn/s/47fa7de74af7" tooltip="https://pan.quark.cn/s/47fa7de74af7"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://pan.quark.cn/s/f0a378f45f0b" tooltip="https://pan.quark.cn/s/f0a378f45f0b"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://pan.quark.cn/s/98da7aed43e2" tooltip="https://pan.quark.cn/s/98da7aed43e2"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://pan.quark.cn/s/c9e9cf4ef725" tooltip="https://pan.quark.cn/s/c9e9cf4ef725"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://pan.quark.cn/s/2b6ec19ca1ef" tooltip="https://pan.quark.cn/s/2b6ec19ca1ef"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://pan.quark.cn/s/a32ba31162a1" tooltip="https://pan.quark.cn/s/a32ba31162a1"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://pan.quark.cn/s/cae446202571" tooltip="https://pan.quark.cn/s/cae446202571"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://pan.quark.cn/s/fcb925340306" tooltip="https://pan.quark.cn/s/fcb925340306"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://pan.quark.cn/s/ef3d7bea1b0f" tooltip="https://pan.quark.cn/s/ef3d7bea1b0f"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://pan.quark.cn/s/7af9af1faaf3" tooltip="https://pan.quark.cn/s/7af9af1faaf3"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://pan.quark.cn/s/91b146f2bc7f" tooltip="https://pan.quark.cn/s/91b146f2bc7f"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://pan.quark.cn/s/64ac023a320d" tooltip="https://pan.quark.cn/s/64ac023a320d"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://pan.quark.cn/s/4ddac80bdb51" tooltip="https://pan.quark.cn/s/4ddac80bdb51"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://pan.quark.cn/s/da6168e6a62c" tooltip="https://pan.quark.cn/s/da6168e6a62c"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://pan.quark.cn/s/e28b54f51959" tooltip="https://pan.quark.cn/s/e28b54f51959"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://pan.quark.cn/s/845a7fda1f52" tooltip="https://pan.quark.cn/s/845a7fda1f52"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://pan.quark.cn/s/84039429fbe2" tooltip="https://pan.quark.cn/s/84039429fbe2"/>
-    <hyperlink ref="D19" r:id="rId18" display="https://pan.quark.cn/s/eb0018f17d2c" tooltip="https://pan.quark.cn/s/eb0018f17d2c"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://pan.quark.cn/s/141068ddd275" tooltip="https://pan.quark.cn/s/141068ddd275"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://pan.quark.cn/s/e42ee1fa3786" tooltip="https://pan.quark.cn/s/e42ee1fa3786"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://pan.quark.cn/s/b389c835fba5" tooltip="https://pan.quark.cn/s/b389c835fba5"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://pan.quark.cn/s/b23c1ee89e81" tooltip="https://pan.quark.cn/s/b23c1ee89e81"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://pan.quark.cn/s/60666ee04fe1" tooltip="https://pan.quark.cn/s/60666ee04fe1"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://pan.quark.cn/s/6a8880143dee" tooltip="https://pan.quark.cn/s/6a8880143dee"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://pan.quark.cn/s/b03f39790294" tooltip="https://pan.quark.cn/s/b03f39790294"/>
-    <hyperlink ref="D27" r:id="rId26" display="https://pan.quark.cn/s/00f31baf0b52" tooltip="https://pan.quark.cn/s/00f31baf0b52"/>
-    <hyperlink ref="D28" r:id="rId27" display="https://pan.quark.cn/s/2d8fe11a64f6" tooltip="https://pan.quark.cn/s/2d8fe11a64f6"/>
-    <hyperlink ref="D29" r:id="rId28" display="https://pan.quark.cn/s/ac9dbacc3a8a" tooltip="https://pan.quark.cn/s/ac9dbacc3a8a"/>
-    <hyperlink ref="D30" r:id="rId29" display="https://pan.quark.cn/s/1c26d1bceb53" tooltip="https://pan.quark.cn/s/1c26d1bceb53"/>
-    <hyperlink ref="D31" r:id="rId30" display="https://pan.quark.cn/s/aa1b07232473" tooltip="https://pan.quark.cn/s/aa1b07232473"/>
-    <hyperlink ref="D32" r:id="rId31" display="https://pan.quark.cn/s/4f593f8ecb99" tooltip="https://pan.quark.cn/s/4f593f8ecb99"/>
-    <hyperlink ref="D33" r:id="rId32" display="https://pan.quark.cn/s/ae72792dfbe0" tooltip="https://pan.quark.cn/s/ae72792dfbe0"/>
-    <hyperlink ref="D34" r:id="rId33" display="https://pan.quark.cn/s/215166a7f55d" tooltip="https://pan.quark.cn/s/215166a7f55d"/>
-    <hyperlink ref="D35" r:id="rId34" display="https://pan.quark.cn/s/66c18b025584" tooltip="https://pan.quark.cn/s/66c18b025584"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://pan.quark.cn/s/5c494118590a" tooltip="https://pan.quark.cn/s/5c494118590a"/>
-    <hyperlink ref="D37" r:id="rId36" display="https://pan.quark.cn/s/d698cdcde69e" tooltip="https://pan.quark.cn/s/d698cdcde69e"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://pan.quark.cn/s/114f841f4acf" tooltip="https://pan.quark.cn/s/114f841f4acf"/>
-    <hyperlink ref="D39" r:id="rId38" display="https://pan.quark.cn/s/9d1c3ff0b45b" tooltip="https://pan.quark.cn/s/9d1c3ff0b45b"/>
-    <hyperlink ref="D40" r:id="rId39" display="https://pan.quark.cn/s/c927c73b9c3d" tooltip="https://pan.quark.cn/s/c927c73b9c3d"/>
-    <hyperlink ref="D41" r:id="rId40" display="https://pan.quark.cn/s/c9e6ea1c5a78" tooltip="https://pan.quark.cn/s/c9e6ea1c5a78"/>
-    <hyperlink ref="D42" r:id="rId41" display="https://pan.quark.cn/s/4f5448bae0bc" tooltip="https://pan.quark.cn/s/4f5448bae0bc"/>
-    <hyperlink ref="D43" r:id="rId42" display="https://pan.quark.cn/s/662c139bb03e" tooltip="https://pan.quark.cn/s/662c139bb03e"/>
-    <hyperlink ref="D44" r:id="rId43" display="https://pan.quark.cn/s/b28353c9de59" tooltip="https://pan.quark.cn/s/b28353c9de59"/>
-    <hyperlink ref="D45" r:id="rId44" display="https://pan.quark.cn/s/3e71231c34e8" tooltip="https://pan.quark.cn/s/3e71231c34e8"/>
-    <hyperlink ref="D46" r:id="rId45" display="https://pan.quark.cn/s/ea6aa5d35d21" tooltip="https://pan.quark.cn/s/ea6aa5d35d21"/>
-    <hyperlink ref="D47" r:id="rId46" display="https://pan.quark.cn/s/87cfb16d0ad5" tooltip="https://pan.quark.cn/s/87cfb16d0ad5"/>
-    <hyperlink ref="D48" r:id="rId47" display="https://pan.quark.cn/s/905326fb51ce" tooltip="https://pan.quark.cn/s/905326fb51ce"/>
-    <hyperlink ref="D49" r:id="rId48" display="https://pan.quark.cn/s/5be9090d10a5" tooltip="https://pan.quark.cn/s/5be9090d10a5"/>
-    <hyperlink ref="D50" r:id="rId49" display="https://pan.quark.cn/s/c776f07d4c71" tooltip="https://pan.quark.cn/s/c776f07d4c71"/>
-    <hyperlink ref="D51" r:id="rId50" display="https://pan.quark.cn/s/91ce7f35bfe9" tooltip="https://pan.quark.cn/s/91ce7f35bfe9"/>
-    <hyperlink ref="D52" r:id="rId51" display="https://pan.quark.cn/s/bc18ef0da559" tooltip="https://pan.quark.cn/s/bc18ef0da559"/>
-    <hyperlink ref="D53" r:id="rId52" display="https://pan.quark.cn/s/5763243263de" tooltip="https://pan.quark.cn/s/5763243263de"/>
-    <hyperlink ref="D54" r:id="rId53" display="https://pan.quark.cn/s/e44fa038ef9e" tooltip="https://pan.quark.cn/s/e44fa038ef9e"/>
-    <hyperlink ref="D55" r:id="rId54" display="https://pan.quark.cn/s/63da9a407f26" tooltip="https://pan.quark.cn/s/63da9a407f26"/>
-    <hyperlink ref="D56" r:id="rId55" display="https://pan.quark.cn/s/017511f52017" tooltip="https://pan.quark.cn/s/017511f52017"/>
-    <hyperlink ref="D57" r:id="rId56" display="https://pan.quark.cn/s/a0b7918bf26b" tooltip="https://pan.quark.cn/s/a0b7918bf26b"/>
-    <hyperlink ref="D58" r:id="rId57" display="https://pan.quark.cn/s/e4849b8d2115" tooltip="https://pan.quark.cn/s/e4849b8d2115"/>
-    <hyperlink ref="D59" r:id="rId58" display="https://pan.quark.cn/s/f3bcdb716267" tooltip="https://pan.quark.cn/s/f3bcdb716267"/>
-    <hyperlink ref="D60" r:id="rId59" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
-    <hyperlink ref="D62" r:id="rId60" display="https://pan.quark.cn/s/68678b493510" tooltip="https://pan.quark.cn/s/68678b493510"/>
-    <hyperlink ref="D63" r:id="rId61" display="https://pan.quark.cn/s/807cd82a720d" tooltip="https://pan.quark.cn/s/807cd82a720d"/>
-    <hyperlink ref="D64" r:id="rId62" display="https://pan.quark.cn/s/75463a265bfd" tooltip="https://pan.quark.cn/s/75463a265bfd"/>
-    <hyperlink ref="D65" r:id="rId63" display="https://pan.quark.cn/s/5fd8a6e8c830" tooltip="https://pan.quark.cn/s/5fd8a6e8c830"/>
-    <hyperlink ref="D66" r:id="rId64" display="https://pan.quark.cn/s/4fee740d83c1" tooltip="https://pan.quark.cn/s/4fee740d83c1"/>
-    <hyperlink ref="D68" r:id="rId65" display="https://pan.quark.cn/s/0da2e70e236f" tooltip="https://pan.quark.cn/s/0da2e70e236f"/>
-    <hyperlink ref="D69" r:id="rId66" display="https://pan.quark.cn/s/72fad0d6fd78" tooltip="https://pan.quark.cn/s/72fad0d6fd78"/>
-    <hyperlink ref="D70" r:id="rId67" display="https://pan.quark.cn/s/b08d1d32782d" tooltip="https://pan.quark.cn/s/b08d1d32782d"/>
-    <hyperlink ref="D71" r:id="rId68" display="https://pan.quark.cn/s/54ae4c79b6ef" tooltip="https://pan.quark.cn/s/54ae4c79b6ef"/>
-    <hyperlink ref="D72" r:id="rId69" display="https://pan.quark.cn/s/e1e91ab28d0c" tooltip="https://pan.quark.cn/s/e1e91ab28d0c"/>
-    <hyperlink ref="D73" r:id="rId70" display="https://pan.quark.cn/s/e9a0505d423a" tooltip="https://pan.quark.cn/s/e9a0505d423a"/>
-    <hyperlink ref="D74" r:id="rId71" display="https://pan.quark.cn/s/6fa3ba822a52" tooltip="https://pan.quark.cn/s/6fa3ba822a52"/>
-    <hyperlink ref="D75" r:id="rId72" display="https://pan.quark.cn/s/32466a4d8102" tooltip="https://pan.quark.cn/s/32466a4d8102"/>
-    <hyperlink ref="D76" r:id="rId73" display="https://pan.quark.cn/s/ff5a85744c5d" tooltip="https://pan.quark.cn/s/ff5a85744c5d"/>
-    <hyperlink ref="D83" r:id="rId74" display="https://pan.quark.cn/s/294cfd0559d9"/>
-    <hyperlink ref="D84" r:id="rId75" display="https://pan.quark.cn/s/c9202cab2164"/>
-    <hyperlink ref="D85" r:id="rId76" display="https://pan.quark.cn/s/4c9a8a3dd24a"/>
-    <hyperlink ref="D86" r:id="rId77" display="https://pan.quark.cn/s/d09674d89e0e"/>
-    <hyperlink ref="D87" r:id="rId78" display="https://pan.quark.cn/s/34740225d834"/>
-    <hyperlink ref="D88" r:id="rId79" display="https://pan.quark.cn/s/96c9d2d2cbb5" tooltip="https://pan.quark.cn/s/96c9d2d2cbb5"/>
-    <hyperlink ref="D89" r:id="rId80" display="https://pan.quark.cn/s/75df5b4bb02e" tooltip="https://pan.quark.cn/s/75df5b4bb02e"/>
-    <hyperlink ref="D90" r:id="rId81" display="https://pan.quark.cn/s/e9b40651eb72" tooltip="https://pan.quark.cn/s/e9b40651eb72"/>
-    <hyperlink ref="D91" r:id="rId82" display="https://pan.quark.cn/s/c01736bb9d87"/>
-    <hyperlink ref="D61" r:id="rId83" display="https://pan.quark.cn/s/3a3303e54e4a" tooltip="https://pan.quark.cn/s/3a3303e54e4a"/>
-    <hyperlink ref="D96" r:id="rId84" display="https://pan.quark.cn/s/affbfdf5c09b" tooltip="https://pan.quark.cn/s/affbfdf5c09b"/>
-    <hyperlink ref="D97" r:id="rId85" display="https://pan.quark.cn/s/48b8370c77f2" tooltip="https://pan.quark.cn/s/48b8370c77f2"/>
-    <hyperlink ref="D198" r:id="rId86" display="https://pan.quark.cn/s/d9c4cf0b4066" tooltip="https://pan.quark.cn/s/d9c4cf0b4066"/>
-    <hyperlink ref="D197" r:id="rId87" display="https://pan.quark.cn/s/c73ff22a6f6f" tooltip="https://pan.quark.cn/s/c73ff22a6f6f"/>
-    <hyperlink ref="D196" r:id="rId88" display="https://pan.quark.cn/s/27b1c6b2f6e3" tooltip="https://pan.quark.cn/s/27b1c6b2f6e3"/>
-    <hyperlink ref="D195" r:id="rId89" display="https://pan.quark.cn/s/8029bf8be6c2" tooltip="https://pan.quark.cn/s/8029bf8be6c2"/>
-    <hyperlink ref="D194" r:id="rId90" display="https://pan.quark.cn/s/983af58cdff9" tooltip="https://pan.quark.cn/s/983af58cdff9"/>
-    <hyperlink ref="D193" r:id="rId91" display="https://pan.quark.cn/s/b42ce9b6b675" tooltip="https://pan.quark.cn/s/b42ce9b6b675"/>
-    <hyperlink ref="D199" r:id="rId92" display="https://pan.quark.cn/s/eb9d59102705" tooltip="https://pan.quark.cn/s/eb9d59102705"/>
-    <hyperlink ref="D201" r:id="rId93" display="https://pan.quark.cn/s/006d3dede28d" tooltip="https://pan.quark.cn/s/006d3dede28d"/>
-    <hyperlink ref="D204" r:id="rId94" display="https://pan.quark.cn/s/a5f57e15428e"/>
-    <hyperlink ref="D213" r:id="rId95" display="https://pan.quark.cn/s/5e0b3ac31f4c" tooltip="https://pan.quark.cn/s/5e0b3ac31f4c"/>
-    <hyperlink ref="D214" r:id="rId96" display="https://pan.quark.cn/s/fed1f575fbcc" tooltip="https://pan.quark.cn/s/fed1f575fbcc"/>
-    <hyperlink ref="D216" r:id="rId97" display="https://pan.quark.cn/s/4cebee2c01de" tooltip="https://pan.quark.cn/s/4cebee2c01de"/>
-    <hyperlink ref="D217" r:id="rId98" display="https://pan.quark.cn/s/dadeb31fb09f" tooltip="https://pan.quark.cn/s/dadeb31fb09f"/>
-    <hyperlink ref="D218" r:id="rId99" display="https://pan.quark.cn/s/2f53a947ddd3" tooltip="https://pan.quark.cn/s/2f53a947ddd3"/>
-    <hyperlink ref="D219" r:id="rId100" display="https://pan.quark.cn/s/f3eb88190670" tooltip="https://pan.quark.cn/s/f3eb88190670"/>
-    <hyperlink ref="D220" r:id="rId101" display="https://pan.quark.cn/s/ba2e3c99b0cf" tooltip="https://pan.quark.cn/s/ba2e3c99b0cf"/>
-    <hyperlink ref="D221" r:id="rId102" display="https://pan.quark.cn/s/0f4cc8400664"/>
-    <hyperlink ref="D225" r:id="rId103" display="https://pan.quark.cn/s/f85e451fb168" tooltip="https://pan.quark.cn/s/f85e451fb168"/>
-    <hyperlink ref="D224" r:id="rId104" display="https://pan.quark.cn/s/3d6d703a1772"/>
-    <hyperlink ref="D223" r:id="rId105" display="https://pan.quark.cn/s/ac750687a1f4"/>
-    <hyperlink ref="D222" r:id="rId106" display="https://pan.quark.cn/s/254afea42a52"/>
-    <hyperlink ref="D232" r:id="rId107" display="https://pan.quark.cn/s/116669ccefed" tooltip="https://pan.quark.cn/s/116669ccefed"/>
-    <hyperlink ref="D235" r:id="rId108" display="https://pan.quark.cn/s/9a6eaef2bd04" tooltip="https://pan.quark.cn/s/9a6eaef2bd04"/>
-    <hyperlink ref="D239" r:id="rId109" display="https://pan.quark.cn/s/1ea4d15f4f5b" tooltip="https://pan.quark.cn/s/1ea4d15f4f5b"/>
-    <hyperlink ref="D258" r:id="rId110" display="https://pan.quark.cn/s/3b82750f834e" tooltip="https://pan.quark.cn/s/3b82750f834e"/>
-    <hyperlink ref="D260" r:id="rId111" display="https://pan.quark.cn/s/f5f1bd605ce9" tooltip="https://pan.quark.cn/s/f5f1bd605ce9"/>
-    <hyperlink ref="D92" r:id="rId112" display="https://pan.quark.cn/s/95e2b562166b" tooltip="https://pan.quark.cn/s/95e2b562166b"/>
-    <hyperlink ref="D190" r:id="rId113" display="https://pan.quark.cn/s/201ffd1f45b4"/>
-    <hyperlink ref="D208" r:id="rId114" display="https://pan.quark.cn/s/d314b8afab24" tooltip="https://pan.quark.cn/s/d314b8afab24"/>
-    <hyperlink ref="D234" r:id="rId115" display="https://pan.quark.cn/s/c35721a520bf" tooltip="https://pan.quark.cn/s/c35721a520bf"/>
-    <hyperlink ref="D205" r:id="rId116" display="https://pan.quark.cn/s/83bc320afdd6" tooltip="https://pan.quark.cn/s/83bc320afdd6"/>
-    <hyperlink ref="D202" r:id="rId117" display="https://pan.quark.cn/s/af63167eaef6" tooltip="https://pan.quark.cn/s/af63167eaef6"/>
-    <hyperlink ref="D211" r:id="rId118" display="https://pan.quark.cn/s/3acf12cb40ce" tooltip="https://pan.quark.cn/s/3acf12cb40ce"/>
-    <hyperlink ref="D248" r:id="rId119" display="https://pan.quark.cn/s/7ddddaa87f15"/>
-    <hyperlink ref="D257" r:id="rId120" display="https://pan.quark.cn/s/e30eb1f6554e"/>
-    <hyperlink ref="D242" r:id="rId121" display="https://pan.quark.cn/s/714851fdaa7b"/>
-    <hyperlink ref="D250" r:id="rId122" display="https://pan.quark.cn/s/11ed3ae4030e"/>
-    <hyperlink ref="D229" r:id="rId123" display="https://pan.quark.cn/s/0b1910713cde" tooltip="https://pan.quark.cn/s/0b1910713cde"/>
-    <hyperlink ref="D231" r:id="rId124" display="https://pan.quark.cn/s/961d5f728ef9"/>
-    <hyperlink ref="D206" r:id="rId125" display="https://pan.quark.cn/s/7c9a51360216"/>
-    <hyperlink ref="D237" r:id="rId126" display="https://pan.quark.cn/s/680ba05f1702"/>
-    <hyperlink ref="D233" r:id="rId127" display="https://pan.quark.cn/s/1d663430e5d8"/>
-    <hyperlink ref="D227" r:id="rId128" display="https://pan.quark.cn/s/02738644fbb5"/>
-    <hyperlink ref="D210" r:id="rId129" display="https://pan.quark.cn/s/be629be38438" tooltip="https://pan.quark.cn/s/be629be38438"/>
-    <hyperlink ref="D254" r:id="rId130" display="https://pan.quark.cn/s/4dbc36c2466e"/>
-    <hyperlink ref="D251" r:id="rId131" display="https://pan.quark.cn/s/4160afceb5eb"/>
-    <hyperlink ref="D255" r:id="rId132" display="https://pan.quark.cn/s/0b14d6a09434"/>
-    <hyperlink ref="D209" r:id="rId133" display="https://pan.quark.cn/s/992407d06077"/>
-    <hyperlink ref="D238" r:id="rId134" display="https://pan.quark.cn/s/86bad56f21ba"/>
-    <hyperlink ref="D203" r:id="rId135" display="https://pan.quark.cn/s/2015da7140db"/>
-    <hyperlink ref="D247" r:id="rId136" display="https://pan.quark.cn/s/ecba0a7aa4cf"/>
-    <hyperlink ref="D200" r:id="rId137" display="https://pan.quark.cn/s/cd96eb3e7191" tooltip="https://pan.quark.cn/s/cd96eb3e7191"/>
-    <hyperlink ref="D240" r:id="rId138" display="https://pan.quark.cn/s/0e90176f8d40"/>
-    <hyperlink ref="D230" r:id="rId139" display="https://pan.quark.cn/s/2fe0fac65ac5"/>
-    <hyperlink ref="D82" r:id="rId140" display="https://pan.quark.cn/s/e8091058af8c"/>
-    <hyperlink ref="D262" r:id="rId141" display="https://pan.quark.cn/s/de5789df34f2"/>
-    <hyperlink ref="D236" r:id="rId142" display="https://pan.quark.cn/s/134f9933fcc4"/>
-    <hyperlink ref="D246" r:id="rId143" display="https://pan.quark.cn/s/e4ebbf1f83ec"/>
-    <hyperlink ref="D253" r:id="rId144" display="https://pan.quark.cn/s/6f57d9c810ee"/>
-    <hyperlink ref="D259" r:id="rId145" display="https://pan.quark.cn/s/4f3716054c34"/>
-    <hyperlink ref="D212" r:id="rId146" display="https://pan.quark.cn/s/f068a4ced401"/>
-    <hyperlink ref="D207" r:id="rId147" display="https://pan.quark.cn/s/e7a16341e78f"/>
-    <hyperlink ref="D249" r:id="rId148" display="https://pan.quark.cn/s/19f585188e01"/>
-    <hyperlink ref="D263" r:id="rId149" display="https://pan.quark.cn/s/ba02f7bd6ee5"/>
-    <hyperlink ref="D289" r:id="rId150" display="https://pan.quark.cn/s/936af0ed13b7"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://pan.quark.cn/s/47fa7de74af7" tooltip="https://pan.quark.cn/s/47fa7de74af7"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://pan.quark.cn/s/f0a378f45f0b" tooltip="https://pan.quark.cn/s/f0a378f45f0b"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://pan.quark.cn/s/98da7aed43e2" tooltip="https://pan.quark.cn/s/98da7aed43e2"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://pan.quark.cn/s/c9e9cf4ef725" tooltip="https://pan.quark.cn/s/c9e9cf4ef725"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://pan.quark.cn/s/2b6ec19ca1ef" tooltip="https://pan.quark.cn/s/2b6ec19ca1ef"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://pan.quark.cn/s/a32ba31162a1" tooltip="https://pan.quark.cn/s/a32ba31162a1"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://pan.quark.cn/s/cae446202571" tooltip="https://pan.quark.cn/s/cae446202571"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://pan.quark.cn/s/fcb925340306" tooltip="https://pan.quark.cn/s/fcb925340306"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://pan.quark.cn/s/ef3d7bea1b0f" tooltip="https://pan.quark.cn/s/ef3d7bea1b0f"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://pan.quark.cn/s/7af9af1faaf3" tooltip="https://pan.quark.cn/s/7af9af1faaf3"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://pan.quark.cn/s/91b146f2bc7f" tooltip="https://pan.quark.cn/s/91b146f2bc7f"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://pan.quark.cn/s/64ac023a320d" tooltip="https://pan.quark.cn/s/64ac023a320d"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://pan.quark.cn/s/4ddac80bdb51" tooltip="https://pan.quark.cn/s/4ddac80bdb51"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://pan.quark.cn/s/da6168e6a62c" tooltip="https://pan.quark.cn/s/da6168e6a62c"/>
+    <hyperlink ref="E16" r:id="rId15" display="https://pan.quark.cn/s/e28b54f51959" tooltip="https://pan.quark.cn/s/e28b54f51959"/>
+    <hyperlink ref="E17" r:id="rId16" display="https://pan.quark.cn/s/845a7fda1f52" tooltip="https://pan.quark.cn/s/845a7fda1f52"/>
+    <hyperlink ref="E18" r:id="rId17" display="https://pan.quark.cn/s/84039429fbe2" tooltip="https://pan.quark.cn/s/84039429fbe2"/>
+    <hyperlink ref="E19" r:id="rId18" display="https://pan.quark.cn/s/eb0018f17d2c" tooltip="https://pan.quark.cn/s/eb0018f17d2c"/>
+    <hyperlink ref="E20" r:id="rId19" display="https://pan.quark.cn/s/141068ddd275" tooltip="https://pan.quark.cn/s/141068ddd275"/>
+    <hyperlink ref="E21" r:id="rId20" display="https://pan.quark.cn/s/e42ee1fa3786" tooltip="https://pan.quark.cn/s/e42ee1fa3786"/>
+    <hyperlink ref="E22" r:id="rId21" display="https://pan.quark.cn/s/b389c835fba5" tooltip="https://pan.quark.cn/s/b389c835fba5"/>
+    <hyperlink ref="E23" r:id="rId22" display="https://pan.quark.cn/s/b23c1ee89e81" tooltip="https://pan.quark.cn/s/b23c1ee89e81"/>
+    <hyperlink ref="E24" r:id="rId23" display="https://pan.quark.cn/s/60666ee04fe1" tooltip="https://pan.quark.cn/s/60666ee04fe1"/>
+    <hyperlink ref="E25" r:id="rId24" display="https://pan.quark.cn/s/6a8880143dee" tooltip="https://pan.quark.cn/s/6a8880143dee"/>
+    <hyperlink ref="E26" r:id="rId25" display="https://pan.quark.cn/s/b03f39790294" tooltip="https://pan.quark.cn/s/b03f39790294"/>
+    <hyperlink ref="E27" r:id="rId26" display="https://pan.quark.cn/s/00f31baf0b52" tooltip="https://pan.quark.cn/s/00f31baf0b52"/>
+    <hyperlink ref="E28" r:id="rId27" display="https://pan.quark.cn/s/2d8fe11a64f6" tooltip="https://pan.quark.cn/s/2d8fe11a64f6"/>
+    <hyperlink ref="E29" r:id="rId28" display="https://pan.quark.cn/s/ac9dbacc3a8a" tooltip="https://pan.quark.cn/s/ac9dbacc3a8a"/>
+    <hyperlink ref="E30" r:id="rId29" display="https://pan.quark.cn/s/1c26d1bceb53" tooltip="https://pan.quark.cn/s/1c26d1bceb53"/>
+    <hyperlink ref="E31" r:id="rId30" display="https://pan.quark.cn/s/aa1b07232473" tooltip="https://pan.quark.cn/s/aa1b07232473"/>
+    <hyperlink ref="E32" r:id="rId31" display="https://pan.quark.cn/s/4f593f8ecb99" tooltip="https://pan.quark.cn/s/4f593f8ecb99"/>
+    <hyperlink ref="E33" r:id="rId32" display="https://pan.quark.cn/s/ae72792dfbe0" tooltip="https://pan.quark.cn/s/ae72792dfbe0"/>
+    <hyperlink ref="E34" r:id="rId33" display="https://pan.quark.cn/s/215166a7f55d" tooltip="https://pan.quark.cn/s/215166a7f55d"/>
+    <hyperlink ref="E35" r:id="rId34" display="https://pan.quark.cn/s/66c18b025584" tooltip="https://pan.quark.cn/s/66c18b025584"/>
+    <hyperlink ref="E36" r:id="rId35" display="https://pan.quark.cn/s/5c494118590a" tooltip="https://pan.quark.cn/s/5c494118590a"/>
+    <hyperlink ref="E37" r:id="rId36" display="https://pan.quark.cn/s/d698cdcde69e" tooltip="https://pan.quark.cn/s/d698cdcde69e"/>
+    <hyperlink ref="E38" r:id="rId37" display="https://pan.quark.cn/s/114f841f4acf" tooltip="https://pan.quark.cn/s/114f841f4acf"/>
+    <hyperlink ref="E39" r:id="rId38" display="https://pan.quark.cn/s/9d1c3ff0b45b" tooltip="https://pan.quark.cn/s/9d1c3ff0b45b"/>
+    <hyperlink ref="E40" r:id="rId39" display="https://pan.quark.cn/s/c927c73b9c3d" tooltip="https://pan.quark.cn/s/c927c73b9c3d"/>
+    <hyperlink ref="E41" r:id="rId40" display="https://pan.quark.cn/s/c9e6ea1c5a78" tooltip="https://pan.quark.cn/s/c9e6ea1c5a78"/>
+    <hyperlink ref="E42" r:id="rId41" display="https://pan.quark.cn/s/4f5448bae0bc" tooltip="https://pan.quark.cn/s/4f5448bae0bc"/>
+    <hyperlink ref="E43" r:id="rId42" display="https://pan.quark.cn/s/662c139bb03e" tooltip="https://pan.quark.cn/s/662c139bb03e"/>
+    <hyperlink ref="E44" r:id="rId43" display="https://pan.quark.cn/s/b28353c9de59" tooltip="https://pan.quark.cn/s/b28353c9de59"/>
+    <hyperlink ref="E45" r:id="rId44" display="https://pan.quark.cn/s/3e71231c34e8" tooltip="https://pan.quark.cn/s/3e71231c34e8"/>
+    <hyperlink ref="E46" r:id="rId45" display="https://pan.quark.cn/s/ea6aa5d35d21" tooltip="https://pan.quark.cn/s/ea6aa5d35d21"/>
+    <hyperlink ref="E47" r:id="rId46" display="https://pan.quark.cn/s/87cfb16d0ad5" tooltip="https://pan.quark.cn/s/87cfb16d0ad5"/>
+    <hyperlink ref="E48" r:id="rId47" display="https://pan.quark.cn/s/905326fb51ce" tooltip="https://pan.quark.cn/s/905326fb51ce"/>
+    <hyperlink ref="E49" r:id="rId48" display="https://pan.quark.cn/s/5be9090d10a5" tooltip="https://pan.quark.cn/s/5be9090d10a5"/>
+    <hyperlink ref="E50" r:id="rId49" display="https://pan.quark.cn/s/c776f07d4c71" tooltip="https://pan.quark.cn/s/c776f07d4c71"/>
+    <hyperlink ref="E51" r:id="rId50" display="https://pan.quark.cn/s/91ce7f35bfe9" tooltip="https://pan.quark.cn/s/91ce7f35bfe9"/>
+    <hyperlink ref="E52" r:id="rId51" display="https://pan.quark.cn/s/bc18ef0da559" tooltip="https://pan.quark.cn/s/bc18ef0da559"/>
+    <hyperlink ref="E53" r:id="rId52" display="https://pan.quark.cn/s/5763243263de" tooltip="https://pan.quark.cn/s/5763243263de"/>
+    <hyperlink ref="E54" r:id="rId53" display="https://pan.quark.cn/s/e44fa038ef9e" tooltip="https://pan.quark.cn/s/e44fa038ef9e"/>
+    <hyperlink ref="E55" r:id="rId54" display="https://pan.quark.cn/s/63da9a407f26" tooltip="https://pan.quark.cn/s/63da9a407f26"/>
+    <hyperlink ref="E56" r:id="rId55" display="https://pan.quark.cn/s/017511f52017" tooltip="https://pan.quark.cn/s/017511f52017"/>
+    <hyperlink ref="E57" r:id="rId56" display="https://pan.quark.cn/s/a0b7918bf26b" tooltip="https://pan.quark.cn/s/a0b7918bf26b"/>
+    <hyperlink ref="E58" r:id="rId57" display="https://pan.quark.cn/s/e4849b8d2115" tooltip="https://pan.quark.cn/s/e4849b8d2115"/>
+    <hyperlink ref="E59" r:id="rId58" display="https://pan.quark.cn/s/f3bcdb716267" tooltip="https://pan.quark.cn/s/f3bcdb716267"/>
+    <hyperlink ref="E60" r:id="rId59" display="https://pan.quark.cn/s/07acc9b06384" tooltip="https://pan.quark.cn/s/07acc9b06384"/>
+    <hyperlink ref="E62" r:id="rId60" display="https://pan.quark.cn/s/68678b493510" tooltip="https://pan.quark.cn/s/68678b493510"/>
+    <hyperlink ref="E63" r:id="rId61" display="https://pan.quark.cn/s/807cd82a720d" tooltip="https://pan.quark.cn/s/807cd82a720d"/>
+    <hyperlink ref="E64" r:id="rId62" display="https://pan.quark.cn/s/75463a265bfd" tooltip="https://pan.quark.cn/s/75463a265bfd"/>
+    <hyperlink ref="E65" r:id="rId63" display="https://pan.quark.cn/s/5fd8a6e8c830" tooltip="https://pan.quark.cn/s/5fd8a6e8c830"/>
+    <hyperlink ref="E66" r:id="rId64" display="https://pan.quark.cn/s/4fee740d83c1" tooltip="https://pan.quark.cn/s/4fee740d83c1"/>
+    <hyperlink ref="E68" r:id="rId65" display="https://pan.quark.cn/s/0da2e70e236f" tooltip="https://pan.quark.cn/s/0da2e70e236f"/>
+    <hyperlink ref="E69" r:id="rId66" display="https://pan.quark.cn/s/72fad0d6fd78" tooltip="https://pan.quark.cn/s/72fad0d6fd78"/>
+    <hyperlink ref="E70" r:id="rId67" display="https://pan.quark.cn/s/b08d1d32782d" tooltip="https://pan.quark.cn/s/b08d1d32782d"/>
+    <hyperlink ref="E71" r:id="rId68" display="https://pan.quark.cn/s/54ae4c79b6ef" tooltip="https://pan.quark.cn/s/54ae4c79b6ef"/>
+    <hyperlink ref="E72" r:id="rId69" display="https://pan.quark.cn/s/e1e91ab28d0c" tooltip="https://pan.quark.cn/s/e1e91ab28d0c"/>
+    <hyperlink ref="E73" r:id="rId70" display="https://pan.quark.cn/s/e9a0505d423a" tooltip="https://pan.quark.cn/s/e9a0505d423a"/>
+    <hyperlink ref="E74" r:id="rId71" display="https://pan.quark.cn/s/6fa3ba822a52" tooltip="https://pan.quark.cn/s/6fa3ba822a52"/>
+    <hyperlink ref="E75" r:id="rId72" display="https://pan.quark.cn/s/32466a4d8102" tooltip="https://pan.quark.cn/s/32466a4d8102"/>
+    <hyperlink ref="E76" r:id="rId73" display="https://pan.quark.cn/s/ff5a85744c5d" tooltip="https://pan.quark.cn/s/ff5a85744c5d"/>
+    <hyperlink ref="E83" r:id="rId74" display="https://pan.quark.cn/s/294cfd0559d9"/>
+    <hyperlink ref="E84" r:id="rId75" display="https://pan.quark.cn/s/c9202cab2164"/>
+    <hyperlink ref="E85" r:id="rId76" display="https://pan.quark.cn/s/4c9a8a3dd24a"/>
+    <hyperlink ref="E86" r:id="rId77" display="https://pan.quark.cn/s/d09674d89e0e"/>
+    <hyperlink ref="E87" r:id="rId78" display="https://pan.quark.cn/s/34740225d834"/>
+    <hyperlink ref="E88" r:id="rId79" display="https://pan.quark.cn/s/96c9d2d2cbb5" tooltip="https://pan.quark.cn/s/96c9d2d2cbb5"/>
+    <hyperlink ref="E89" r:id="rId80" display="https://pan.quark.cn/s/75df5b4bb02e" tooltip="https://pan.quark.cn/s/75df5b4bb02e"/>
+    <hyperlink ref="E90" r:id="rId81" display="https://pan.quark.cn/s/e9b40651eb72" tooltip="https://pan.quark.cn/s/e9b40651eb72"/>
+    <hyperlink ref="E91" r:id="rId82" display="https://pan.quark.cn/s/c01736bb9d87"/>
+    <hyperlink ref="E61" r:id="rId83" display="https://pan.quark.cn/s/3a3303e54e4a" tooltip="https://pan.quark.cn/s/3a3303e54e4a"/>
+    <hyperlink ref="E96" r:id="rId84" display="https://pan.quark.cn/s/affbfdf5c09b" tooltip="https://pan.quark.cn/s/affbfdf5c09b"/>
+    <hyperlink ref="E97" r:id="rId85" display="https://pan.quark.cn/s/48b8370c77f2" tooltip="https://pan.quark.cn/s/48b8370c77f2"/>
+    <hyperlink ref="E198" r:id="rId86" display="https://pan.quark.cn/s/d9c4cf0b4066" tooltip="https://pan.quark.cn/s/d9c4cf0b4066"/>
+    <hyperlink ref="E197" r:id="rId87" display="https://pan.quark.cn/s/c73ff22a6f6f" tooltip="https://pan.quark.cn/s/c73ff22a6f6f"/>
+    <hyperlink ref="E196" r:id="rId88" display="https://pan.quark.cn/s/27b1c6b2f6e3" tooltip="https://pan.quark.cn/s/27b1c6b2f6e3"/>
+    <hyperlink ref="E195" r:id="rId89" display="https://pan.quark.cn/s/8029bf8be6c2" tooltip="https://pan.quark.cn/s/8029bf8be6c2"/>
+    <hyperlink ref="E194" r:id="rId90" display="https://pan.quark.cn/s/983af58cdff9" tooltip="https://pan.quark.cn/s/983af58cdff9"/>
+    <hyperlink ref="E193" r:id="rId91" display="https://pan.quark.cn/s/b42ce9b6b675" tooltip="https://pan.quark.cn/s/b42ce9b6b675"/>
+    <hyperlink ref="E199" r:id="rId92" display="https://pan.quark.cn/s/eb9d59102705" tooltip="https://pan.quark.cn/s/eb9d59102705"/>
+    <hyperlink ref="E201" r:id="rId93" display="https://pan.quark.cn/s/006d3dede28d" tooltip="https://pan.quark.cn/s/006d3dede28d"/>
+    <hyperlink ref="E204" r:id="rId94" display="https://pan.quark.cn/s/a5f57e15428e"/>
+    <hyperlink ref="E213" r:id="rId95" display="https://pan.quark.cn/s/5e0b3ac31f4c" tooltip="https://pan.quark.cn/s/5e0b3ac31f4c"/>
+    <hyperlink ref="E214" r:id="rId96" display="https://pan.quark.cn/s/fed1f575fbcc" tooltip="https://pan.quark.cn/s/fed1f575fbcc"/>
+    <hyperlink ref="E216" r:id="rId97" display="https://pan.quark.cn/s/4cebee2c01de" tooltip="https://pan.quark.cn/s/4cebee2c01de"/>
+    <hyperlink ref="E217" r:id="rId98" display="https://pan.quark.cn/s/dadeb31fb09f" tooltip="https://pan.quark.cn/s/dadeb31fb09f"/>
+    <hyperlink ref="E218" r:id="rId99" display="https://pan.quark.cn/s/2f53a947ddd3" tooltip="https://pan.quark.cn/s/2f53a947ddd3"/>
+    <hyperlink ref="E219" r:id="rId100" display="https://pan.quark.cn/s/f3eb88190670" tooltip="https://pan.quark.cn/s/f3eb88190670"/>
+    <hyperlink ref="E220" r:id="rId101" display="https://pan.quark.cn/s/ba2e3c99b0cf" tooltip="https://pan.quark.cn/s/ba2e3c99b0cf"/>
+    <hyperlink ref="E221" r:id="rId102" display="https://pan.quark.cn/s/0f4cc8400664"/>
+    <hyperlink ref="E225" r:id="rId103" display="https://pan.quark.cn/s/f85e451fb168" tooltip="https://pan.quark.cn/s/f85e451fb168"/>
+    <hyperlink ref="E224" r:id="rId104" display="https://pan.quark.cn/s/3d6d703a1772"/>
+    <hyperlink ref="E223" r:id="rId105" display="https://pan.quark.cn/s/ac750687a1f4"/>
+    <hyperlink ref="E222" r:id="rId106" display="https://pan.quark.cn/s/254afea42a52"/>
+    <hyperlink ref="E232" r:id="rId107" display="https://pan.quark.cn/s/116669ccefed" tooltip="https://pan.quark.cn/s/116669ccefed"/>
+    <hyperlink ref="E235" r:id="rId108" display="https://pan.quark.cn/s/9a6eaef2bd04" tooltip="https://pan.quark.cn/s/9a6eaef2bd04"/>
+    <hyperlink ref="E239" r:id="rId109" display="https://pan.quark.cn/s/1ea4d15f4f5b" tooltip="https://pan.quark.cn/s/1ea4d15f4f5b"/>
+    <hyperlink ref="E258" r:id="rId110" display="https://pan.quark.cn/s/3b82750f834e" tooltip="https://pan.quark.cn/s/3b82750f834e"/>
+    <hyperlink ref="E260" r:id="rId111" display="https://pan.quark.cn/s/f5f1bd605ce9" tooltip="https://pan.quark.cn/s/f5f1bd605ce9"/>
+    <hyperlink ref="E92" r:id="rId112" display="https://pan.quark.cn/s/95e2b562166b" tooltip="https://pan.quark.cn/s/95e2b562166b"/>
+    <hyperlink ref="E190" r:id="rId113" display="https://pan.quark.cn/s/201ffd1f45b4"/>
+    <hyperlink ref="E208" r:id="rId114" display="https://pan.quark.cn/s/d314b8afab24" tooltip="https://pan.quark.cn/s/d314b8afab24"/>
+    <hyperlink ref="E234" r:id="rId115" display="https://pan.quark.cn/s/c35721a520bf" tooltip="https://pan.quark.cn/s/c35721a520bf"/>
+    <hyperlink ref="E205" r:id="rId116" display="https://pan.quark.cn/s/83bc320afdd6" tooltip="https://pan.quark.cn/s/83bc320afdd6"/>
+    <hyperlink ref="E202" r:id="rId117" display="https://pan.quark.cn/s/af63167eaef6" tooltip="https://pan.quark.cn/s/af63167eaef6"/>
+    <hyperlink ref="E211" r:id="rId118" display="https://pan.quark.cn/s/3acf12cb40ce" tooltip="https://pan.quark.cn/s/3acf12cb40ce"/>
+    <hyperlink ref="E248" r:id="rId119" display="https://pan.quark.cn/s/7ddddaa87f15"/>
+    <hyperlink ref="E257" r:id="rId120" display="https://pan.quark.cn/s/e30eb1f6554e"/>
+    <hyperlink ref="E242" r:id="rId121" display="https://pan.quark.cn/s/714851fdaa7b"/>
+    <hyperlink ref="E250" r:id="rId122" display="https://pan.quark.cn/s/11ed3ae4030e"/>
+    <hyperlink ref="E229" r:id="rId123" display="https://pan.quark.cn/s/0b1910713cde" tooltip="https://pan.quark.cn/s/0b1910713cde"/>
+    <hyperlink ref="E231" r:id="rId124" display="https://pan.quark.cn/s/961d5f728ef9"/>
+    <hyperlink ref="E206" r:id="rId125" display="https://pan.quark.cn/s/7c9a51360216"/>
+    <hyperlink ref="E237" r:id="rId126" display="https://pan.quark.cn/s/680ba05f1702"/>
+    <hyperlink ref="E233" r:id="rId127" display="https://pan.quark.cn/s/1d663430e5d8"/>
+    <hyperlink ref="E227" r:id="rId128" display="https://pan.quark.cn/s/02738644fbb5"/>
+    <hyperlink ref="E210" r:id="rId129" display="https://pan.quark.cn/s/be629be38438" tooltip="https://pan.quark.cn/s/be629be38438"/>
+    <hyperlink ref="E254" r:id="rId130" display="https://pan.quark.cn/s/4dbc36c2466e"/>
+    <hyperlink ref="E251" r:id="rId131" display="https://pan.quark.cn/s/4160afceb5eb"/>
+    <hyperlink ref="E255" r:id="rId132" display="https://pan.quark.cn/s/0b14d6a09434"/>
+    <hyperlink ref="E209" r:id="rId133" display="https://pan.quark.cn/s/992407d06077"/>
+    <hyperlink ref="E238" r:id="rId134" display="https://pan.quark.cn/s/86bad56f21ba"/>
+    <hyperlink ref="E203" r:id="rId135" display="https://pan.quark.cn/s/2015da7140db"/>
+    <hyperlink ref="E247" r:id="rId136" display="https://pan.quark.cn/s/ecba0a7aa4cf"/>
+    <hyperlink ref="E200" r:id="rId137" display="https://pan.quark.cn/s/cd96eb3e7191" tooltip="https://pan.quark.cn/s/cd96eb3e7191"/>
+    <hyperlink ref="E240" r:id="rId138" display="https://pan.quark.cn/s/0e90176f8d40"/>
+    <hyperlink ref="E230" r:id="rId139" display="https://pan.quark.cn/s/2fe0fac65ac5"/>
+    <hyperlink ref="E82" r:id="rId140" display="https://pan.quark.cn/s/e8091058af8c"/>
+    <hyperlink ref="E262" r:id="rId141" display="https://pan.quark.cn/s/de5789df34f2"/>
+    <hyperlink ref="E236" r:id="rId142" display="https://pan.quark.cn/s/134f9933fcc4"/>
+    <hyperlink ref="E246" r:id="rId143" display="https://pan.quark.cn/s/e4ebbf1f83ec"/>
+    <hyperlink ref="E253" r:id="rId144" display="https://pan.quark.cn/s/6f57d9c810ee"/>
+    <hyperlink ref="E259" r:id="rId145" display="https://pan.quark.cn/s/4f3716054c34"/>
+    <hyperlink ref="E212" r:id="rId146" display="https://pan.quark.cn/s/f068a4ced401"/>
+    <hyperlink ref="E207" r:id="rId147" display="https://pan.quark.cn/s/e7a16341e78f"/>
+    <hyperlink ref="E249" r:id="rId148" display="https://pan.quark.cn/s/19f585188e01"/>
+    <hyperlink ref="E263" r:id="rId149" display="https://pan.quark.cn/s/ba02f7bd6ee5"/>
+    <hyperlink ref="E289" r:id="rId150" display="https://pan.quark.cn/s/936af0ed13b7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="661">
   <si>
     <t>id</t>
   </si>
@@ -1500,6 +1500,9 @@
   </si>
   <si>
     <t>病娇男孩的精分日记</t>
+  </si>
+  <si>
+    <t>病娇男孩的精分日记,病娇男孩的精分日常</t>
   </si>
   <si>
     <t>https://pan.quark.cn/s/992407d06077</t>
@@ -2056,6 +2059,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/45f3d9d03966</t>
+  </si>
+  <si>
+    <t>雪嫁娘</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/031a62b5bddb</t>
   </si>
 </sst>
 </file>
@@ -2731,7 +2740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2786,6 +2795,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3105,12 +3117,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C257" sqref="C257"/>
+      <selection pane="bottomLeft" activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -6158,12 +6170,14 @@
       <c r="B209" t="s">
         <v>489</v>
       </c>
-      <c r="C209" s="10"/>
+      <c r="C209" s="10" t="s">
+        <v>490</v>
+      </c>
       <c r="D209" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="210" ht="15.5" spans="1:5">
@@ -6171,14 +6185,14 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" ht="15.5" spans="1:5">
@@ -6186,14 +6200,14 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="212" ht="15.5" spans="1:5">
@@ -6201,14 +6215,14 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213" ht="15.5" spans="1:5">
@@ -6216,14 +6230,14 @@
         <v>212</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" ht="15.5" spans="1:5">
@@ -6231,14 +6245,14 @@
         <v>213</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="215" ht="15.5" spans="1:5">
@@ -6246,14 +6260,14 @@
         <v>214</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="216" ht="15.5" spans="1:5">
@@ -6261,14 +6275,14 @@
         <v>215</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="217" ht="15.5" spans="1:5">
@@ -6276,14 +6290,14 @@
         <v>216</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E217" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="218" ht="15.5" spans="1:5">
@@ -6291,14 +6305,14 @@
         <v>217</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="219" ht="15.5" spans="1:5">
@@ -6306,14 +6320,14 @@
         <v>218</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="220" ht="15.5" spans="1:5">
@@ -6321,14 +6335,14 @@
         <v>219</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="221" ht="15.5" spans="1:5">
@@ -6336,14 +6350,14 @@
         <v>220</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E221" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="222" ht="15.5" spans="1:5">
@@ -6351,14 +6365,14 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="223" ht="15.5" spans="1:5">
@@ -6373,7 +6387,7 @@
         <v>180</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="224" ht="15.5" spans="1:5">
@@ -6381,14 +6395,14 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="225" ht="15.5" spans="1:5">
@@ -6396,14 +6410,14 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="226" ht="15.5" spans="1:5">
@@ -6411,14 +6425,14 @@
         <v>225</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="227" ht="15.5" spans="1:5">
@@ -6426,14 +6440,14 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="228" ht="15.5" spans="1:5">
@@ -6441,14 +6455,14 @@
         <v>227</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="229" ht="15.5" spans="1:5">
@@ -6456,14 +6470,14 @@
         <v>228</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="230" ht="15.5" spans="1:5">
@@ -6471,14 +6485,14 @@
         <v>229</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="231" ht="15.5" spans="1:5">
@@ -6486,14 +6500,14 @@
         <v>230</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="232" ht="15.5" spans="1:5">
@@ -6501,14 +6515,14 @@
         <v>231</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="233" ht="15.5" spans="1:5">
@@ -6516,14 +6530,14 @@
         <v>232</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="234" ht="15.5" spans="1:5">
@@ -6531,14 +6545,14 @@
         <v>233</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="235" ht="15.5" spans="1:5">
@@ -6546,14 +6560,14 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="236" ht="15.5" spans="1:5">
@@ -6561,14 +6575,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C236" s="10"/>
       <c r="D236" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="237" ht="15.5" spans="1:5">
@@ -6576,14 +6590,14 @@
         <v>236</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="238" ht="15.5" spans="1:5">
@@ -6591,14 +6605,14 @@
         <v>237</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="239" ht="15.5" spans="1:5">
@@ -6606,14 +6620,14 @@
         <v>238</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="240" ht="15.5" spans="1:5">
@@ -6621,14 +6635,14 @@
         <v>239</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="241" ht="15.5" spans="1:5">
@@ -6636,14 +6650,14 @@
         <v>240</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="242" ht="15.5" spans="1:5">
@@ -6651,14 +6665,14 @@
         <v>241</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6666,13 +6680,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D243" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6680,13 +6694,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D244" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="245" ht="15.5" spans="1:5">
@@ -6694,14 +6708,14 @@
         <v>244</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="246" ht="15.5" spans="1:5">
@@ -6709,14 +6723,14 @@
         <v>245</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="247" ht="15.5" spans="1:5">
@@ -6724,14 +6738,14 @@
         <v>246</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="248" ht="15.5" spans="1:5">
@@ -6739,14 +6753,14 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="249" ht="15.5" spans="1:5">
@@ -6754,14 +6768,14 @@
         <v>248</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" ht="15.5" spans="1:5">
@@ -6769,14 +6783,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" ht="15.5" spans="1:5">
@@ -6784,14 +6798,14 @@
         <v>250</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="252" ht="15.5" spans="1:5">
@@ -6799,14 +6813,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="253" ht="15.5" spans="1:5">
@@ -6814,14 +6828,14 @@
         <v>252</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" ht="15.5" spans="1:5">
@@ -6829,14 +6843,14 @@
         <v>253</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" ht="15.5" spans="1:5">
@@ -6844,16 +6858,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="256" ht="15.5" spans="1:5">
@@ -6861,14 +6875,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="257" ht="15.5" spans="1:5">
@@ -6876,14 +6890,14 @@
         <v>256</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="258" ht="15.5" spans="1:5">
@@ -6891,14 +6905,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C258" s="10"/>
       <c r="D258" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="259" ht="15.5" spans="1:5">
@@ -6906,14 +6920,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C259" s="10"/>
       <c r="D259" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="260" ht="15.5" spans="1:5">
@@ -6921,14 +6935,14 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="261" ht="15.5" spans="1:5">
@@ -6936,14 +6950,14 @@
         <v>260</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="262" ht="15.5" spans="1:5">
@@ -6951,14 +6965,14 @@
         <v>261</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="263" ht="15.5" spans="1:5">
@@ -6966,14 +6980,14 @@
         <v>262</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="264" ht="15.5" spans="1:5">
@@ -6981,14 +6995,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="265" ht="15.5" spans="1:5">
@@ -6996,14 +7010,14 @@
         <v>264</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="266" ht="15.5" spans="1:5">
@@ -7011,14 +7025,14 @@
         <v>265</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="267" ht="15.5" spans="1:5">
@@ -7026,14 +7040,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="268" ht="15.5" spans="1:5">
@@ -7041,14 +7055,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="269" ht="15.5" spans="1:5">
@@ -7056,14 +7070,14 @@
         <v>268</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="270" ht="15.5" spans="1:5">
@@ -7071,14 +7085,14 @@
         <v>269</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="271" ht="15.5" spans="1:5">
@@ -7086,14 +7100,14 @@
         <v>270</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="272" ht="15.5" spans="1:5">
@@ -7101,14 +7115,14 @@
         <v>271</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="273" ht="15.5" spans="1:5">
@@ -7116,14 +7130,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="274" ht="15.5" spans="1:5">
@@ -7131,14 +7145,14 @@
         <v>273</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="275" ht="15.5" spans="1:5">
@@ -7146,14 +7160,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="276" ht="15.5" spans="1:5">
@@ -7161,14 +7175,14 @@
         <v>275</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="277" ht="15.5" spans="1:5">
@@ -7176,14 +7190,14 @@
         <v>276</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="278" ht="15.5" spans="1:5">
@@ -7191,14 +7205,14 @@
         <v>277</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C278" s="10"/>
       <c r="D278" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="279" ht="15.5" spans="1:5">
@@ -7206,14 +7220,14 @@
         <v>278</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C279" s="10"/>
       <c r="D279" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="280" ht="15.5" spans="1:5">
@@ -7221,14 +7235,14 @@
         <v>279</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E280" s="13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" ht="15.5" spans="1:5">
@@ -7236,14 +7250,14 @@
         <v>280</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C281" s="10"/>
       <c r="D281" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="282" ht="15.5" spans="1:5">
@@ -7251,14 +7265,14 @@
         <v>281</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C282" s="10"/>
       <c r="D282" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E282" s="13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="283" ht="15.5" spans="1:5">
@@ -7266,14 +7280,14 @@
         <v>282</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C283" s="10"/>
       <c r="D283" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E283" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="284" ht="15.5" spans="1:5">
@@ -7281,14 +7295,14 @@
         <v>283</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C284" s="10"/>
       <c r="D284" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E284" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="285" ht="15.5" spans="1:5">
@@ -7296,14 +7310,14 @@
         <v>284</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C285" s="10"/>
       <c r="D285" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E285" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="286" ht="15.5" spans="1:5">
@@ -7311,14 +7325,14 @@
         <v>285</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C286" s="10"/>
       <c r="D286" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="287" ht="15.5" spans="1:5">
@@ -7326,14 +7340,14 @@
         <v>286</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C287" s="10"/>
       <c r="D287" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E287" s="13" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="288" ht="15.5" spans="1:5">
@@ -7341,14 +7355,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C288" s="10"/>
       <c r="D288" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="289" ht="15" spans="1:5">
@@ -7356,14 +7370,14 @@
         <v>288</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:5">
@@ -7371,14 +7385,14 @@
         <v>289</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C290" s="8"/>
       <c r="D290" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="291" ht="15" spans="1:5">
@@ -7386,14 +7400,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C291" s="8"/>
       <c r="D291" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:5">
@@ -7401,14 +7415,28 @@
         <v>291</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C292" s="8"/>
       <c r="D292" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="293" ht="15" spans="1:5">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E293" s="22" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="663">
   <si>
     <t>id</t>
   </si>
@@ -1880,12 +1880,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>嫌疑人</t>
     </r>
     <r>
@@ -1908,6 +1902,9 @@
     </r>
   </si>
   <si>
+    <t>嫌疑人x没有现身,嫌疑人x没有献身</t>
+  </si>
+  <si>
     <t>https://pan.quark.cn/s/bc237772d620</t>
   </si>
   <si>
@@ -2050,6 +2047,9 @@
   </si>
   <si>
     <t>嫌疑人x没有现身2</t>
+  </si>
+  <si>
+    <t>嫌疑人x没有现身2,嫌疑人x没有献身2</t>
   </si>
   <si>
     <t>https://pan.quark.cn/s/931d63f66899</t>
@@ -3120,9 +3120,9 @@
   <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E293" sqref="E293"/>
+      <selection pane="bottomLeft" activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -7042,12 +7042,14 @@
       <c r="B267" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="C267" s="10"/>
+      <c r="C267" s="10" t="s">
+        <v>608</v>
+      </c>
       <c r="D267" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="268" ht="15.5" spans="1:5">
@@ -7055,14 +7057,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="269" ht="15.5" spans="1:5">
@@ -7070,14 +7072,14 @@
         <v>268</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="270" ht="15.5" spans="1:5">
@@ -7085,14 +7087,14 @@
         <v>269</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="271" ht="15.5" spans="1:5">
@@ -7100,14 +7102,14 @@
         <v>270</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="272" ht="15.5" spans="1:5">
@@ -7115,14 +7117,14 @@
         <v>271</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="273" ht="15.5" spans="1:5">
@@ -7130,14 +7132,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="274" ht="15.5" spans="1:5">
@@ -7145,14 +7147,14 @@
         <v>273</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="275" ht="15.5" spans="1:5">
@@ -7160,14 +7162,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="276" ht="15.5" spans="1:5">
@@ -7175,14 +7177,14 @@
         <v>275</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="277" ht="15.5" spans="1:5">
@@ -7190,14 +7192,14 @@
         <v>276</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="278" ht="15.5" spans="1:5">
@@ -7205,14 +7207,14 @@
         <v>277</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C278" s="10"/>
       <c r="D278" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="279" ht="15.5" spans="1:5">
@@ -7220,14 +7222,14 @@
         <v>278</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C279" s="10"/>
       <c r="D279" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="280" ht="15.5" spans="1:5">
@@ -7235,14 +7237,14 @@
         <v>279</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E280" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="281" ht="15.5" spans="1:5">
@@ -7250,14 +7252,14 @@
         <v>280</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C281" s="10"/>
       <c r="D281" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="282" ht="15.5" spans="1:5">
@@ -7265,14 +7267,14 @@
         <v>281</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C282" s="10"/>
       <c r="D282" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E282" s="13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="283" ht="15.5" spans="1:5">
@@ -7280,14 +7282,14 @@
         <v>282</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C283" s="10"/>
       <c r="D283" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E283" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="284" ht="15.5" spans="1:5">
@@ -7295,14 +7297,14 @@
         <v>283</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C284" s="10"/>
       <c r="D284" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E284" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="285" ht="15.5" spans="1:5">
@@ -7310,14 +7312,14 @@
         <v>284</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C285" s="10"/>
       <c r="D285" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E285" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="286" ht="15.5" spans="1:5">
@@ -7325,14 +7327,14 @@
         <v>285</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C286" s="10"/>
       <c r="D286" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="287" ht="15.5" spans="1:5">
@@ -7340,14 +7342,14 @@
         <v>286</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C287" s="10"/>
       <c r="D287" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E287" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="288" ht="15.5" spans="1:5">
@@ -7355,14 +7357,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C288" s="10"/>
       <c r="D288" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="289" ht="15" spans="1:5">
@@ -7370,14 +7372,14 @@
         <v>288</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:5">
@@ -7385,14 +7387,14 @@
         <v>289</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C290" s="8"/>
       <c r="D290" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="291" ht="15" spans="1:5">
@@ -7400,14 +7402,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="C291" s="8"/>
+        <v>656</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="D291" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:5">
@@ -7415,14 +7419,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C292" s="8"/>
       <c r="D292" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="293" ht="15" spans="1:5">
@@ -7430,13 +7434,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="22" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D293" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E293" s="22" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$293</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="702">
   <si>
     <t>id</t>
   </si>
@@ -1880,6 +1880,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>嫌疑人</t>
     </r>
     <r>
@@ -2065,6 +2071,123 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/031a62b5bddb</t>
+  </si>
+  <si>
+    <t>守夜人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4597878098b7</t>
+  </si>
+  <si>
+    <t>献祭者</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eb0e96e86371</t>
+  </si>
+  <si>
+    <t>一座城2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f4ac3e17be93</t>
+  </si>
+  <si>
+    <t>胎屋</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/35d06c92a74d</t>
+  </si>
+  <si>
+    <t>食梦女</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6768302b432d</t>
+  </si>
+  <si>
+    <t>刺杀肯尼迪</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/50b0fd7e36d8</t>
+  </si>
+  <si>
+    <t>璃火</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5aa68b8028ef</t>
+  </si>
+  <si>
+    <t>第四栋教学楼</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/533b7a27586f</t>
+  </si>
+  <si>
+    <t>雪松郡公立医院</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2f4a53784eb5</t>
+  </si>
+  <si>
+    <t>第七号嫌疑人</t>
+  </si>
+  <si>
+    <t>第七号嫌疑人,第7号嫌疑人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cd4d3d16c835</t>
+  </si>
+  <si>
+    <t>漓川怪谈簿</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/333de6750214</t>
+  </si>
+  <si>
+    <t>凶手的小酒酒</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fa309bb07bc3</t>
+  </si>
+  <si>
+    <t>月光酒馆2大浪</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75f3751136fe</t>
+  </si>
+  <si>
+    <t>装病</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eea39c867e51</t>
+  </si>
+  <si>
+    <t>惊人院：怪胎公馆</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e32180ab226c</t>
+  </si>
+  <si>
+    <t>国立第七中学（骑马钉版）</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8c4bd81d7048</t>
+  </si>
+  <si>
+    <t>谁偷了朕的外卖</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/189448e0713a</t>
+  </si>
+  <si>
+    <t>不死之徒</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d90c92c53f39</t>
+  </si>
+  <si>
+    <t>失魂</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/05fb2cc9db0a</t>
   </si>
 </sst>
 </file>
@@ -2740,7 +2863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2798,6 +2921,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3117,12 +3241,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E293"/>
+  <dimension ref="A1:E312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C288" sqref="C288"/>
+      <selection pane="bottomLeft" activeCell="E316" sqref="E316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -7433,18 +7557,302 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="22" t="s">
+      <c r="B293" s="13" t="s">
         <v>661</v>
       </c>
       <c r="D293" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E293" s="22" t="s">
+      <c r="E293" s="13" t="s">
         <v>662</v>
       </c>
     </row>
+    <row r="294" ht="15" spans="1:5">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E294" s="22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="295" ht="15" spans="1:5">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E295" s="22" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="296" ht="15" spans="1:5">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="297" ht="15" spans="1:5">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="C297" s="23"/>
+      <c r="D297" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E297" s="23" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="298" ht="15" spans="1:5">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C298" s="23"/>
+      <c r="D298" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E298" s="23" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="299" ht="15" spans="1:5">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="C299" s="23"/>
+      <c r="D299" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E299" s="23" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="300" ht="15" spans="1:5">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="C300" s="23"/>
+      <c r="D300" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E300" s="23" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="301" ht="15" spans="1:5">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="C301" s="23"/>
+      <c r="D301" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E301" s="23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="302" ht="15" spans="1:5">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="C302" s="23"/>
+      <c r="D302" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E302" s="23" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="303" ht="15" spans="1:5">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="C303" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E303" s="23" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="304" ht="15" spans="1:5">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="C304" s="23"/>
+      <c r="D304" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E304" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="305" ht="15" spans="1:5">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="C305" s="23"/>
+      <c r="D305" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E305" s="23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="306" ht="15" spans="1:5">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="C306" s="23"/>
+      <c r="D306" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E306" s="23" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="307" ht="15" spans="1:5">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="C307" s="23"/>
+      <c r="D307" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E307" s="23" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="308" ht="15" spans="1:5">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="C308" s="23"/>
+      <c r="D308" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E308" s="23" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="309" ht="15" spans="1:5">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="C309" s="23"/>
+      <c r="D309" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E309" s="23" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="310" ht="15" spans="1:5">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="C310" s="23"/>
+      <c r="D310" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E310" s="23" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="311" ht="15" spans="1:5">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="C311" s="23"/>
+      <c r="D311" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E311" s="23" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="312" ht="15" spans="1:5">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="C312" s="23"/>
+      <c r="D312" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E312" s="23" t="s">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E292" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E293" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -7598,6 +8006,7 @@
     <hyperlink ref="E249" r:id="rId148" display="https://pan.quark.cn/s/19f585188e01"/>
     <hyperlink ref="E263" r:id="rId149" display="https://pan.quark.cn/s/ba02f7bd6ee5"/>
     <hyperlink ref="E289" r:id="rId150" display="https://pan.quark.cn/s/936af0ed13b7"/>
+    <hyperlink ref="E296" r:id="rId151" display="https://pan.quark.cn/s/f4ac3e17be93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$312</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="705">
   <si>
     <t>id</t>
   </si>
@@ -1446,6 +1446,9 @@
   </si>
   <si>
     <t>雪乡连环杀人事件</t>
+  </si>
+  <si>
+    <t>雪乡连环杀人事件,雪乡杀人事件</t>
   </si>
   <si>
     <t>https://pan.quark.cn/s/cd96eb3e7191</t>
@@ -2188,6 +2191,12 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/05fb2cc9db0a</t>
+  </si>
+  <si>
+    <t>屋魂</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7be3029319dc</t>
   </si>
 </sst>
 </file>
@@ -2863,7 +2872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2921,7 +2930,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3241,12 +3249,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E312"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E316" sqref="E316"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -6159,12 +6167,14 @@
       <c r="B200" t="s">
         <v>471</v>
       </c>
-      <c r="C200" s="10"/>
+      <c r="C200" s="10" t="s">
+        <v>472</v>
+      </c>
       <c r="D200" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" ht="15.5" spans="1:5">
@@ -6172,14 +6182,14 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C201" s="10"/>
       <c r="D201" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" ht="15.5" spans="1:5">
@@ -6187,14 +6197,14 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" ht="15.5" spans="1:5">
@@ -6202,14 +6212,14 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" ht="15.5" spans="1:5">
@@ -6217,14 +6227,14 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C204" s="10"/>
       <c r="D204" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" ht="15.5" spans="1:5">
@@ -6232,14 +6242,14 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="206" ht="15.5" spans="1:5">
@@ -6247,14 +6257,14 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" ht="15.5" spans="1:5">
@@ -6262,14 +6272,14 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="208" ht="15.5" spans="1:5">
@@ -6277,14 +6287,14 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="209" ht="15.5" spans="1:5">
@@ -6292,16 +6302,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" ht="15.5" spans="1:5">
@@ -6309,14 +6319,14 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" ht="15.5" spans="1:5">
@@ -6324,14 +6334,14 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" ht="15.5" spans="1:5">
@@ -6339,14 +6349,14 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="213" ht="15.5" spans="1:5">
@@ -6354,14 +6364,14 @@
         <v>212</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="214" ht="15.5" spans="1:5">
@@ -6369,14 +6379,14 @@
         <v>213</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" ht="15.5" spans="1:5">
@@ -6384,14 +6394,14 @@
         <v>214</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="216" ht="15.5" spans="1:5">
@@ -6399,14 +6409,14 @@
         <v>215</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="217" ht="15.5" spans="1:5">
@@ -6414,14 +6424,14 @@
         <v>216</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E217" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="218" ht="15.5" spans="1:5">
@@ -6429,14 +6439,14 @@
         <v>217</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="219" ht="15.5" spans="1:5">
@@ -6444,14 +6454,14 @@
         <v>218</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="220" ht="15.5" spans="1:5">
@@ -6459,14 +6469,14 @@
         <v>219</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="221" ht="15.5" spans="1:5">
@@ -6474,14 +6484,14 @@
         <v>220</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E221" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="222" ht="15.5" spans="1:5">
@@ -6489,14 +6499,14 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="223" ht="15.5" spans="1:5">
@@ -6511,7 +6521,7 @@
         <v>180</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="224" ht="15.5" spans="1:5">
@@ -6519,14 +6529,14 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="225" ht="15.5" spans="1:5">
@@ -6534,14 +6544,14 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="226" ht="15.5" spans="1:5">
@@ -6549,14 +6559,14 @@
         <v>225</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="227" ht="15.5" spans="1:5">
@@ -6564,14 +6574,14 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="228" ht="15.5" spans="1:5">
@@ -6579,14 +6589,14 @@
         <v>227</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="229" ht="15.5" spans="1:5">
@@ -6594,14 +6604,14 @@
         <v>228</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="230" ht="15.5" spans="1:5">
@@ -6609,14 +6619,14 @@
         <v>229</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231" ht="15.5" spans="1:5">
@@ -6624,14 +6634,14 @@
         <v>230</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="232" ht="15.5" spans="1:5">
@@ -6639,14 +6649,14 @@
         <v>231</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="233" ht="15.5" spans="1:5">
@@ -6654,14 +6664,14 @@
         <v>232</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="234" ht="15.5" spans="1:5">
@@ -6669,14 +6679,14 @@
         <v>233</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="235" ht="15.5" spans="1:5">
@@ -6684,14 +6694,14 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="236" ht="15.5" spans="1:5">
@@ -6699,14 +6709,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C236" s="10"/>
       <c r="D236" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="237" ht="15.5" spans="1:5">
@@ -6714,14 +6724,14 @@
         <v>236</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="238" ht="15.5" spans="1:5">
@@ -6729,14 +6739,14 @@
         <v>237</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="239" ht="15.5" spans="1:5">
@@ -6744,14 +6754,14 @@
         <v>238</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="240" ht="15.5" spans="1:5">
@@ -6759,14 +6769,14 @@
         <v>239</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="241" ht="15.5" spans="1:5">
@@ -6774,14 +6784,14 @@
         <v>240</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="242" ht="15.5" spans="1:5">
@@ -6789,14 +6799,14 @@
         <v>241</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6804,13 +6814,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D243" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6818,13 +6828,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D244" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="245" ht="15.5" spans="1:5">
@@ -6832,14 +6842,14 @@
         <v>244</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="246" ht="15.5" spans="1:5">
@@ -6847,14 +6857,14 @@
         <v>245</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="247" ht="15.5" spans="1:5">
@@ -6862,14 +6872,14 @@
         <v>246</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="248" ht="15.5" spans="1:5">
@@ -6877,14 +6887,14 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="249" ht="15.5" spans="1:5">
@@ -6892,14 +6902,14 @@
         <v>248</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="250" ht="15.5" spans="1:5">
@@ -6907,14 +6917,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="251" ht="15.5" spans="1:5">
@@ -6922,14 +6932,14 @@
         <v>250</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="252" ht="15.5" spans="1:5">
@@ -6937,14 +6947,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="253" ht="15.5" spans="1:5">
@@ -6952,14 +6962,14 @@
         <v>252</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="254" ht="15.5" spans="1:5">
@@ -6967,14 +6977,14 @@
         <v>253</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="255" ht="15.5" spans="1:5">
@@ -6982,16 +6992,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="256" ht="15.5" spans="1:5">
@@ -6999,14 +7009,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="257" ht="15.5" spans="1:5">
@@ -7014,14 +7024,14 @@
         <v>256</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="258" ht="15.5" spans="1:5">
@@ -7029,14 +7039,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C258" s="10"/>
       <c r="D258" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="259" ht="15.5" spans="1:5">
@@ -7044,14 +7054,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C259" s="10"/>
       <c r="D259" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="260" ht="15.5" spans="1:5">
@@ -7059,14 +7069,14 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="261" ht="15.5" spans="1:5">
@@ -7074,14 +7084,14 @@
         <v>260</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="262" ht="15.5" spans="1:5">
@@ -7089,14 +7099,14 @@
         <v>261</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="263" ht="15.5" spans="1:5">
@@ -7104,14 +7114,14 @@
         <v>262</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="264" ht="15.5" spans="1:5">
@@ -7119,14 +7129,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="265" ht="15.5" spans="1:5">
@@ -7134,14 +7144,14 @@
         <v>264</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="266" ht="15.5" spans="1:5">
@@ -7149,14 +7159,14 @@
         <v>265</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="267" ht="15.5" spans="1:5">
@@ -7164,16 +7174,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="268" ht="15.5" spans="1:5">
@@ -7181,14 +7191,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="269" ht="15.5" spans="1:5">
@@ -7196,14 +7206,14 @@
         <v>268</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="270" ht="15.5" spans="1:5">
@@ -7211,14 +7221,14 @@
         <v>269</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="271" ht="15.5" spans="1:5">
@@ -7226,14 +7236,14 @@
         <v>270</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="272" ht="15.5" spans="1:5">
@@ -7241,14 +7251,14 @@
         <v>271</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="273" ht="15.5" spans="1:5">
@@ -7256,14 +7266,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="274" ht="15.5" spans="1:5">
@@ -7271,14 +7281,14 @@
         <v>273</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="275" ht="15.5" spans="1:5">
@@ -7286,14 +7296,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="276" ht="15.5" spans="1:5">
@@ -7301,14 +7311,14 @@
         <v>275</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="277" ht="15.5" spans="1:5">
@@ -7316,14 +7326,14 @@
         <v>276</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="278" ht="15.5" spans="1:5">
@@ -7331,14 +7341,14 @@
         <v>277</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C278" s="10"/>
       <c r="D278" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="279" ht="15.5" spans="1:5">
@@ -7346,14 +7356,14 @@
         <v>278</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C279" s="10"/>
       <c r="D279" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="280" ht="15.5" spans="1:5">
@@ -7361,14 +7371,14 @@
         <v>279</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E280" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="281" ht="15.5" spans="1:5">
@@ -7376,14 +7386,14 @@
         <v>280</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C281" s="10"/>
       <c r="D281" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="282" ht="15.5" spans="1:5">
@@ -7391,14 +7401,14 @@
         <v>281</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C282" s="10"/>
       <c r="D282" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E282" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="283" ht="15.5" spans="1:5">
@@ -7406,14 +7416,14 @@
         <v>282</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C283" s="10"/>
       <c r="D283" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E283" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="284" ht="15.5" spans="1:5">
@@ -7421,14 +7431,14 @@
         <v>283</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C284" s="10"/>
       <c r="D284" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E284" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="285" ht="15.5" spans="1:5">
@@ -7436,14 +7446,14 @@
         <v>284</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C285" s="10"/>
       <c r="D285" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E285" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="286" ht="15.5" spans="1:5">
@@ -7451,14 +7461,14 @@
         <v>285</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C286" s="10"/>
       <c r="D286" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="287" ht="15.5" spans="1:5">
@@ -7466,14 +7476,14 @@
         <v>286</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C287" s="10"/>
       <c r="D287" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E287" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="288" ht="15.5" spans="1:5">
@@ -7481,14 +7491,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C288" s="10"/>
       <c r="D288" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="289" ht="15" spans="1:5">
@@ -7496,14 +7506,14 @@
         <v>288</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:5">
@@ -7511,14 +7521,14 @@
         <v>289</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C290" s="8"/>
       <c r="D290" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="291" ht="15" spans="1:5">
@@ -7526,16 +7536,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D291" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:5">
@@ -7543,14 +7553,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C292" s="8"/>
       <c r="D292" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="293" ht="15" spans="1:5">
@@ -7558,301 +7568,315 @@
         <v>292</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D293" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E293" s="13" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:5">
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="22" t="s">
-        <v>663</v>
+      <c r="B294" s="13" t="s">
+        <v>664</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E294" s="22" t="s">
-        <v>664</v>
+      <c r="E294" s="13" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="295" ht="15" spans="1:5">
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="22" t="s">
-        <v>665</v>
+      <c r="B295" s="13" t="s">
+        <v>666</v>
       </c>
       <c r="D295" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E295" s="22" t="s">
-        <v>666</v>
+      <c r="E295" s="13" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="296" ht="15" spans="1:5">
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="22" t="s">
-        <v>667</v>
+      <c r="B296" s="13" t="s">
+        <v>668</v>
       </c>
       <c r="D296" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="297" ht="15" spans="1:5">
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="C297" s="23"/>
-      <c r="D297" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E297" s="23" t="s">
+      <c r="B297" s="8" t="s">
         <v>670</v>
+      </c>
+      <c r="C297" s="8"/>
+      <c r="D297" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="298" ht="15" spans="1:5">
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="C298" s="23"/>
-      <c r="D298" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E298" s="23" t="s">
+      <c r="B298" s="8" t="s">
         <v>672</v>
+      </c>
+      <c r="C298" s="8"/>
+      <c r="D298" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="299" ht="15" spans="1:5">
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="C299" s="23"/>
-      <c r="D299" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E299" s="23" t="s">
+      <c r="B299" s="8" t="s">
         <v>674</v>
+      </c>
+      <c r="C299" s="8"/>
+      <c r="D299" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="300" ht="15" spans="1:5">
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="C300" s="23"/>
-      <c r="D300" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E300" s="23" t="s">
+      <c r="B300" s="8" t="s">
         <v>676</v>
+      </c>
+      <c r="C300" s="8"/>
+      <c r="D300" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E300" s="8" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="301" ht="15" spans="1:5">
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="C301" s="23"/>
-      <c r="D301" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E301" s="23" t="s">
+      <c r="B301" s="8" t="s">
         <v>678</v>
+      </c>
+      <c r="C301" s="8"/>
+      <c r="D301" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="302" ht="15" spans="1:5">
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="C302" s="23"/>
-      <c r="D302" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E302" s="23" t="s">
+      <c r="B302" s="8" t="s">
         <v>680</v>
+      </c>
+      <c r="C302" s="8"/>
+      <c r="D302" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E302" s="8" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="303" ht="15" spans="1:5">
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="C303" s="23" t="s">
+      <c r="B303" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="D303" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E303" s="23" t="s">
+      <c r="C303" s="8" t="s">
         <v>683</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="304" ht="15" spans="1:5">
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" s="23" t="s">
-        <v>684</v>
-      </c>
-      <c r="C304" s="23"/>
-      <c r="D304" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E304" s="23" t="s">
+      <c r="B304" s="8" t="s">
         <v>685</v>
+      </c>
+      <c r="C304" s="8"/>
+      <c r="D304" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E304" s="8" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="305" ht="15" spans="1:5">
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="C305" s="23"/>
-      <c r="D305" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E305" s="23" t="s">
+      <c r="B305" s="8" t="s">
         <v>687</v>
+      </c>
+      <c r="C305" s="8"/>
+      <c r="D305" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="306" ht="15" spans="1:5">
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="C306" s="23"/>
-      <c r="D306" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E306" s="23" t="s">
+      <c r="B306" s="8" t="s">
         <v>689</v>
+      </c>
+      <c r="C306" s="8"/>
+      <c r="D306" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="307" ht="15" spans="1:5">
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" s="23" t="s">
-        <v>690</v>
-      </c>
-      <c r="C307" s="23"/>
-      <c r="D307" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E307" s="23" t="s">
+      <c r="B307" s="8" t="s">
         <v>691</v>
+      </c>
+      <c r="C307" s="8"/>
+      <c r="D307" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="308" ht="15" spans="1:5">
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" s="23" t="s">
-        <v>692</v>
-      </c>
-      <c r="C308" s="23"/>
-      <c r="D308" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E308" s="23" t="s">
+      <c r="B308" s="8" t="s">
         <v>693</v>
+      </c>
+      <c r="C308" s="8"/>
+      <c r="D308" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="309" ht="15" spans="1:5">
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="C309" s="23"/>
-      <c r="D309" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E309" s="23" t="s">
+      <c r="B309" s="8" t="s">
         <v>695</v>
+      </c>
+      <c r="C309" s="8"/>
+      <c r="D309" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="310" ht="15" spans="1:5">
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" s="23" t="s">
-        <v>696</v>
-      </c>
-      <c r="C310" s="23"/>
-      <c r="D310" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E310" s="23" t="s">
+      <c r="B310" s="8" t="s">
         <v>697</v>
+      </c>
+      <c r="C310" s="8"/>
+      <c r="D310" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="311" ht="15" spans="1:5">
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" s="23" t="s">
-        <v>698</v>
-      </c>
-      <c r="C311" s="23"/>
-      <c r="D311" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E311" s="23" t="s">
+      <c r="B311" s="8" t="s">
         <v>699</v>
+      </c>
+      <c r="C311" s="8"/>
+      <c r="D311" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="312" ht="15" spans="1:5">
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" s="23" t="s">
-        <v>700</v>
-      </c>
-      <c r="C312" s="23"/>
-      <c r="D312" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E312" s="23" t="s">
+      <c r="B312" s="8" t="s">
         <v>701</v>
       </c>
+      <c r="C312" s="8"/>
+      <c r="D312" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="313" ht="15" spans="1:5">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E313" s="22" t="s">
+        <v>704</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E293" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E312" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="709">
   <si>
     <t>id</t>
   </si>
@@ -2197,6 +2197,18 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/7be3029319dc</t>
+  </si>
+  <si>
+    <t>未完待续</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c928c080711b</t>
+  </si>
+  <si>
+    <t>月光下的诅咒</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c17a6159f1cf</t>
   </si>
 </sst>
 </file>
@@ -3249,12 +3261,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+      <selection pane="bottomLeft" activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -7873,6 +7885,34 @@
       </c>
       <c r="E313" s="22" t="s">
         <v>704</v>
+      </c>
+    </row>
+    <row r="314" ht="15" spans="1:5">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="D314" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E314" s="12" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="315" ht="15" spans="1:5">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D315" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E315" s="22" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -8031,6 +8071,7 @@
     <hyperlink ref="E263" r:id="rId149" display="https://pan.quark.cn/s/ba02f7bd6ee5"/>
     <hyperlink ref="E289" r:id="rId150" display="https://pan.quark.cn/s/936af0ed13b7"/>
     <hyperlink ref="E296" r:id="rId151" display="https://pan.quark.cn/s/f4ac3e17be93"/>
+    <hyperlink ref="E314" r:id="rId152" display="https://pan.quark.cn/s/c928c080711b"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="773">
   <si>
     <t>id</t>
   </si>
@@ -2209,6 +2209,198 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/c17a6159f1cf</t>
+  </si>
+  <si>
+    <t>牛鬼蛇神</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e920c9e24c3a</t>
+  </si>
+  <si>
+    <t>红辣椒</t>
+  </si>
+  <si>
+    <t>动漫,宫崎骏</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/23cd9f7c6e8a</t>
+  </si>
+  <si>
+    <t>阿雅与魔女</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9effd40ba0f4</t>
+  </si>
+  <si>
+    <t>侧耳倾听.1995.豆瓣评分8.9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d46796ca8f30</t>
+  </si>
+  <si>
+    <t>苍鹭AND少年.2023</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1f4c53fed9aa</t>
+  </si>
+  <si>
+    <t>地海战记</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4cd570805a6a</t>
+  </si>
+  <si>
+    <t>风之谷.1984.豆瓣评分8.9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/446c48afc197</t>
+  </si>
+  <si>
+    <t>哈尔的移动城堡.2004.豆瓣评分9.1</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/311eaa66645c</t>
+  </si>
+  <si>
+    <t>红海龟</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0bed5f99c992</t>
+  </si>
+  <si>
+    <t>辉夜姬物语</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d0ad2be20939</t>
+  </si>
+  <si>
+    <t>红猪1992</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f6ca8b00ed73</t>
+  </si>
+  <si>
+    <t>借东西的小人阿莉埃蒂.2010.豆瓣评分8.9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/36a79af266f6</t>
+  </si>
+  <si>
+    <t>记忆中的玛妮</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3dded1bb60a6</t>
+  </si>
+  <si>
+    <t>鲁邦三世：卡里奥斯特罗城1979</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e0395568a37c</t>
+  </si>
+  <si>
+    <t>龙猫.1998.豆瓣评分9.2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cc83537f511c</t>
+  </si>
+  <si>
+    <t>猫的报恩</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/01e2825ff163</t>
+  </si>
+  <si>
+    <t>魔女宅急便.1989.豆瓣评分8.7</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/505f9564fcdd</t>
+  </si>
+  <si>
+    <t>平成狸合战</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4c884e7e9d98</t>
+  </si>
+  <si>
+    <t>起风了2013</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f8861d74be87</t>
+  </si>
+  <si>
+    <t>千与千寻.2021.4K.豆瓣评分9.4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ed2f856c515</t>
+  </si>
+  <si>
+    <t>岁月的童话</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dca4dc06096c</t>
+  </si>
+  <si>
+    <t>听到涛声</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6d732a0ab5aa</t>
+  </si>
+  <si>
+    <t>天空之城.1986.豆瓣评分9.2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/565e385b9919</t>
+  </si>
+  <si>
+    <t>我的邻居山田君</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e75e27e4b8ea</t>
+  </si>
+  <si>
+    <t>萤火虫之墓</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/20776b6f00cb</t>
+  </si>
+  <si>
+    <t>幽灵公主.1997.豆瓣评分8.9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f038e52f0b48</t>
+  </si>
+  <si>
+    <t>虞美人盛开的山坡</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/53a415d73fde</t>
+  </si>
+  <si>
+    <t>崖上的波妞.2008.豆瓣评分8.6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fc6f18916582</t>
+  </si>
+  <si>
+    <t>咱们裸熊</t>
+  </si>
+  <si>
+    <t>咱们裸熊,咋们裸熊,熊熊三贱客</t>
+  </si>
+  <si>
+    <t>动漫,咱们裸熊</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e005f7eab755</t>
+  </si>
+  <si>
+    <t>冰雪奇缘</t>
+  </si>
+  <si>
+    <t>动漫,冰雪奇缘</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/79dd474cb6bb</t>
   </si>
 </sst>
 </file>
@@ -2884,7 +3076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2940,6 +3132,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3261,12 +3457,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E315" sqref="E315"/>
+      <selection pane="bottomLeft" activeCell="D346" sqref="D346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -7891,7 +8087,7 @@
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" s="22" t="s">
+      <c r="B314" s="17" t="s">
         <v>705</v>
       </c>
       <c r="D314" s="8" t="s">
@@ -7905,7 +8101,7 @@
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" s="22" t="s">
+      <c r="B315" s="17" t="s">
         <v>707</v>
       </c>
       <c r="D315" s="8" t="s">
@@ -7913,6 +8109,456 @@
       </c>
       <c r="E315" s="22" t="s">
         <v>708</v>
+      </c>
+    </row>
+    <row r="316" ht="15" spans="1:5">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E316" s="22" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="317" ht="15" spans="1:5">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="C317" s="23"/>
+      <c r="D317" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E317" s="23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="318" ht="15" spans="1:5">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="C318" s="23"/>
+      <c r="D318" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E318" s="23" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="319" ht="15" spans="1:5">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="C319" s="23"/>
+      <c r="D319" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E319" s="23" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="320" ht="15" spans="1:5">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="C320" s="23"/>
+      <c r="D320" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E320" s="23" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="321" ht="15" spans="1:5">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="C321" s="23"/>
+      <c r="D321" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E321" s="23" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="322" ht="15" spans="1:5">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="C322" s="23"/>
+      <c r="D322" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E322" s="23" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="323" ht="15" spans="1:5">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="C323" s="23"/>
+      <c r="D323" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E323" s="23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="324" ht="15" spans="1:5">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="C324" s="23"/>
+      <c r="D324" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E324" s="23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="325" ht="15" spans="1:5">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="C325" s="23"/>
+      <c r="D325" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E325" s="23" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="326" ht="15" spans="1:5">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="C326" s="23"/>
+      <c r="D326" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E326" s="23" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="327" ht="15" spans="1:5">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="C327" s="23"/>
+      <c r="D327" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E327" s="23" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="328" ht="15" spans="1:5">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="C328" s="23"/>
+      <c r="D328" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E328" s="23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="329" ht="15" spans="1:5">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="C329" s="23"/>
+      <c r="D329" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E329" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="330" ht="15" spans="1:5">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="C330" s="23"/>
+      <c r="D330" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E330" s="23" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="331" ht="15" spans="1:5">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="C331" s="23"/>
+      <c r="D331" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E331" s="23" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="332" ht="15" spans="1:5">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="C332" s="23"/>
+      <c r="D332" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E332" s="23" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="333" ht="15" spans="1:5">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="C333" s="23"/>
+      <c r="D333" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E333" s="23" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="334" ht="15" spans="1:5">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" s="23" t="s">
+        <v>746</v>
+      </c>
+      <c r="C334" s="23"/>
+      <c r="D334" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E334" s="23" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="335" ht="15" spans="1:5">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="C335" s="23"/>
+      <c r="D335" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E335" s="23" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="336" ht="15" spans="1:5">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="C336" s="23"/>
+      <c r="D336" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E336" s="23" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="337" ht="15" spans="1:5">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" s="23" t="s">
+        <v>752</v>
+      </c>
+      <c r="C337" s="23"/>
+      <c r="D337" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E337" s="23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="338" ht="15" spans="1:5">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="C338" s="23"/>
+      <c r="D338" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E338" s="23" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="339" ht="15" spans="1:5">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="C339" s="23"/>
+      <c r="D339" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E339" s="23" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="340" ht="15" spans="1:5">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="C340" s="23"/>
+      <c r="D340" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E340" s="23" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="341" ht="15" spans="1:5">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="C341" s="23"/>
+      <c r="D341" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E341" s="23" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="342" ht="15" spans="1:5">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="C342" s="23"/>
+      <c r="D342" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E342" s="23" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="343" ht="15" spans="1:5">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="C343" s="23"/>
+      <c r="D343" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E343" s="23" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>766</v>
+      </c>
+      <c r="C344" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="D344" t="s">
+        <v>768</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>770</v>
+      </c>
+      <c r="D345" t="s">
+        <v>771</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -3460,9 +3460,9 @@
   <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D346" sqref="D346"/>
+      <selection pane="bottomLeft" activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
